--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\AdamNewKyc\AdamNewKyc\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60F96AB-3A42-4BCF-952D-2838627DC9BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA65EB39-B0E3-4BCA-9202-B7AC56193C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="458">
   <si>
     <t>Scenario</t>
   </si>
@@ -1434,10 +1434,28 @@
     <t>.in</t>
   </si>
   <si>
-    <t>/AdamNewKyc/Upload Document/2ArtOfAsso107.jpeg</t>
-  </si>
-  <si>
-    <t>C:\Users\PC\git\AdamNewKyc\AdamNewKyc\Upload Document\1certOfInc43.png</t>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\1certOfInc43.png</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\2ArtOfAsso107.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\3TradeLisc133.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\4TaxRegi.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\5CompProfile70.png</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\6BankRef43.png</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\7Passport133.pdf</t>
+  </si>
+  <si>
+    <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\8AuthoSign105.jpeg</t>
   </si>
 </sst>
 </file>
@@ -2693,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CC21" sqref="CC21"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CC18" sqref="CC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3473,31 +3491,31 @@
         <v>145</v>
       </c>
       <c r="BU3" s="180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="BV3" s="180" t="s">
         <v>451</v>
       </c>
       <c r="BW3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="BX3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="BZ3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="CA3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="CB3" s="180" t="s">
-        <v>451</v>
-      </c>
-      <c r="CC3" s="180" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="BX3" s="181" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY3" s="181" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ3" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA3" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CB3" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="CC3" s="154" t="s">
+        <v>457</v>
       </c>
       <c r="CD3" s="125" t="s">
         <v>264</v>
@@ -3699,24 +3717,24 @@
         <v>450</v>
       </c>
       <c r="BV4" s="180" t="s">
-        <v>276</v>
+        <v>451</v>
       </c>
       <c r="BW4" s="180" t="s">
-        <v>277</v>
-      </c>
-      <c r="BX4" s="180" t="s">
-        <v>282</v>
+        <v>452</v>
+      </c>
+      <c r="BX4" s="181" t="s">
+        <v>453</v>
       </c>
       <c r="BY4" s="180"/>
-      <c r="BZ4" s="154" t="s">
+      <c r="BZ4" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA4" s="154"/>
-      <c r="CB4" s="154" t="s">
-        <v>280</v>
+      <c r="CB4" s="49" t="s">
+        <v>456</v>
       </c>
       <c r="CC4" s="154" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD4" s="125" t="s">
         <v>264</v>
@@ -3948,32 +3966,32 @@
       <c r="BT5" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="BU5" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV5" s="181" t="s">
-        <v>276</v>
+      <c r="BU5" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV5" s="180" t="s">
+        <v>451</v>
       </c>
       <c r="BW5" s="181" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="BX5" s="181" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="BY5" s="181" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="BZ5" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA5" s="49" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="CB5" s="49" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="CC5" s="49" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD5" s="9" t="s">
         <v>384</v>
@@ -4199,32 +4217,32 @@
       <c r="BT6" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="BU6" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV6" s="181" t="s">
-        <v>276</v>
+      <c r="BU6" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV6" s="180" t="s">
+        <v>451</v>
       </c>
       <c r="BW6" s="181" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="BX6" s="181" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="BY6" s="181" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="BZ6" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA6" s="49" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="CB6" s="49" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="CC6" s="49" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD6" s="7" t="s">
         <v>397</v>
@@ -4450,32 +4468,32 @@
       <c r="BT7" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="BU7" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV7" s="181" t="s">
-        <v>276</v>
+      <c r="BU7" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV7" s="180" t="s">
+        <v>451</v>
       </c>
       <c r="BW7" s="181" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="BX7" s="181" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="BY7" s="181" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="BZ7" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA7" s="49" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="CB7" s="49" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="CC7" s="49" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD7" s="9" t="s">
         <v>391</v>
@@ -4701,32 +4719,32 @@
       <c r="BT8" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="BU8" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV8" s="181" t="s">
-        <v>276</v>
+      <c r="BU8" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV8" s="180" t="s">
+        <v>451</v>
       </c>
       <c r="BW8" s="181" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="BX8" s="181" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="BY8" s="181" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="BZ8" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA8" s="49" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="CB8" s="49" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="CC8" s="49" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD8" s="9" t="s">
         <v>392</v>
@@ -4952,32 +4970,32 @@
       <c r="BT9" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="BU9" s="181" t="s">
-        <v>275</v>
-      </c>
-      <c r="BV9" s="181" t="s">
-        <v>276</v>
+      <c r="BU9" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV9" s="180" t="s">
+        <v>451</v>
       </c>
       <c r="BW9" s="181" t="s">
-        <v>277</v>
+        <v>452</v>
       </c>
       <c r="BX9" s="181" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="BY9" s="181" t="s">
-        <v>279</v>
+        <v>454</v>
       </c>
       <c r="BZ9" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA9" s="49" t="s">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="CB9" s="49" t="s">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="CC9" s="49" t="s">
-        <v>281</v>
+        <v>457</v>
       </c>
       <c r="CD9" s="9" t="s">
         <v>393</v>
@@ -6166,14 +6184,15 @@
     <hyperlink ref="AZ4" r:id="rId29" xr:uid="{AEADA319-29AC-40AD-ABFA-E2AF34F948AC}"/>
     <hyperlink ref="BE4" r:id="rId30" xr:uid="{3187DE67-F0C9-4DF7-9B73-AFB0794086AC}"/>
     <hyperlink ref="BJ4" r:id="rId31" xr:uid="{4689034F-B74D-411C-AD0E-5C66E2E5851C}"/>
-    <hyperlink ref="BZ4" r:id="rId32" xr:uid="{3C46164F-73AC-4E13-8DB9-4C75794D068A}"/>
-    <hyperlink ref="CE4" r:id="rId33" xr:uid="{7C32364D-FFD5-4337-9BDF-29B9E614AA35}"/>
-    <hyperlink ref="CG4" r:id="rId34" xr:uid="{DF12C146-D2D5-4602-BE95-8E7663E6C1D2}"/>
-    <hyperlink ref="G10" r:id="rId35" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
-    <hyperlink ref="G11" r:id="rId36" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="CE4" r:id="rId32" xr:uid="{7C32364D-FFD5-4337-9BDF-29B9E614AA35}"/>
+    <hyperlink ref="CG4" r:id="rId33" xr:uid="{DF12C146-D2D5-4602-BE95-8E7663E6C1D2}"/>
+    <hyperlink ref="G10" r:id="rId34" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
+    <hyperlink ref="G11" r:id="rId35" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="BZ3" r:id="rId36" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
+    <hyperlink ref="BZ4" r:id="rId37" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA65EB39-B0E3-4BCA-9202-B7AC56193C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED7012D-90CF-4346-A7B8-16EC5DD55467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="474">
   <si>
     <t>Scenario</t>
   </si>
@@ -1367,9 +1367,6 @@
     <t>EightEig</t>
   </si>
   <si>
-    <t>EightEigh</t>
-  </si>
-  <si>
     <t>ThirtyThirtyThirtyThirtyThirty</t>
   </si>
   <si>
@@ -1456,6 +1453,57 @@
   </si>
   <si>
     <t>C:\Users\PC\eclipse-workspace\AdamJayKyc\Upload Document\8AuthoSign105.jpeg</t>
+  </si>
+  <si>
+    <t>SevenSe</t>
+  </si>
+  <si>
+    <t>EightEi8</t>
+  </si>
+  <si>
+    <t>NineNine9</t>
+  </si>
+  <si>
+    <t>ThirtyFourThirtyFourThirtyFourTh34</t>
+  </si>
+  <si>
+    <t>ThirtyFiveThirtyFiveThirtyFiveThi35</t>
+  </si>
+  <si>
+    <t>Admin@124</t>
+  </si>
+  <si>
+    <t>Admin@125</t>
+  </si>
+  <si>
+    <t>Admin@126</t>
+  </si>
+  <si>
+    <t>Admin@127</t>
+  </si>
+  <si>
+    <t>Admin@128</t>
+  </si>
+  <si>
+    <t>Admin@129</t>
+  </si>
+  <si>
+    <t>Admin@130</t>
+  </si>
+  <si>
+    <t>Admin@131</t>
+  </si>
+  <si>
+    <t>Admin@132</t>
+  </si>
+  <si>
+    <t>Admin@133</t>
+  </si>
+  <si>
+    <t>Admin@134</t>
+  </si>
+  <si>
+    <t>Admin@135</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2401,7 +2449,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2711,8 +2758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="CC18" sqref="CC18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2912,7 +2959,7 @@
         <v>171</v>
       </c>
       <c r="AR1" s="54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AS1" s="54" t="s">
         <v>75</v>
@@ -3213,7 +3260,7 @@
         <v>25</v>
       </c>
       <c r="BN2" s="145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BO2" s="145" t="s">
         <v>28</v>
@@ -3225,7 +3272,7 @@
         <v>25</v>
       </c>
       <c r="BR2" s="145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="BS2" s="145" t="s">
         <v>28</v>
@@ -3490,32 +3537,32 @@
       <c r="BT3" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="BU3" s="180" t="s">
+      <c r="BU3" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV3" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV3" s="180" t="s">
+      <c r="BW3" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW3" s="180" t="s">
+      <c r="BX3" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX3" s="181" t="s">
+      <c r="BY3" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY3" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ3" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA3" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB3" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB3" s="49" t="s">
+      <c r="CC3" s="154" t="s">
         <v>456</v>
-      </c>
-      <c r="CC3" s="154" t="s">
-        <v>457</v>
       </c>
       <c r="CD3" s="125" t="s">
         <v>264</v>
@@ -3532,7 +3579,7 @@
     </row>
     <row r="4" spans="1:85" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" s="151" t="s">
         <v>146</v>
@@ -3713,28 +3760,28 @@
       <c r="BR4" s="96"/>
       <c r="BS4" s="7"/>
       <c r="BT4" s="49"/>
-      <c r="BU4" s="180" t="s">
+      <c r="BU4" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV4" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV4" s="180" t="s">
+      <c r="BW4" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW4" s="180" t="s">
+      <c r="BX4" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX4" s="181" t="s">
-        <v>453</v>
-      </c>
-      <c r="BY4" s="180"/>
+      <c r="BY4" s="179"/>
       <c r="BZ4" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA4" s="154"/>
       <c r="CB4" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CC4" s="154" t="s">
         <v>456</v>
-      </c>
-      <c r="CC4" s="154" t="s">
-        <v>457</v>
       </c>
       <c r="CD4" s="125" t="s">
         <v>264</v>
@@ -3746,7 +3793,7 @@
         <v>255</v>
       </c>
       <c r="CG4" s="129" t="s">
-        <v>256</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:85" ht="24.75">
@@ -3822,7 +3869,7 @@
       <c r="X5" s="157" t="s">
         <v>399</v>
       </c>
-      <c r="Y5" s="170" t="s">
+      <c r="Y5" s="169" t="s">
         <v>81</v>
       </c>
       <c r="Z5" s="157" t="s">
@@ -3834,7 +3881,7 @@
       <c r="AB5" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="AC5" s="171" t="s">
+      <c r="AC5" s="170" t="s">
         <v>414</v>
       </c>
       <c r="AD5" s="157" t="s">
@@ -3846,7 +3893,7 @@
       <c r="AF5" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="AG5" s="172" t="s">
+      <c r="AG5" s="171" t="s">
         <v>57</v>
       </c>
       <c r="AH5" s="157" t="s">
@@ -3864,7 +3911,7 @@
       <c r="AL5" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="AM5" s="174" t="s">
+      <c r="AM5" s="173" t="s">
         <v>138</v>
       </c>
       <c r="AN5" s="17" t="s">
@@ -3873,7 +3920,7 @@
       <c r="AO5" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="AP5" s="174" t="s">
+      <c r="AP5" s="173" t="s">
         <v>140</v>
       </c>
       <c r="AQ5" s="9" t="s">
@@ -3966,39 +4013,45 @@
       <c r="BT5" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="BU5" s="180" t="s">
+      <c r="BU5" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV5" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV5" s="180" t="s">
+      <c r="BW5" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW5" s="181" t="s">
+      <c r="BX5" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX5" s="181" t="s">
+      <c r="BY5" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY5" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ5" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA5" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB5" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB5" s="49" t="s">
+      <c r="CC5" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="CC5" s="49" t="s">
-        <v>457</v>
       </c>
       <c r="CD5" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="CE5" s="169"/>
-      <c r="CF5" s="169"/>
-      <c r="CG5" s="169"/>
+      <c r="CE5" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF5" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG5" s="129" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="6" spans="1:85" ht="24.75">
       <c r="A6" s="13" t="s">
@@ -4070,43 +4123,43 @@
       <c r="W6" s="167" t="s">
         <v>397</v>
       </c>
-      <c r="X6" s="173" t="s">
+      <c r="X6" s="172" t="s">
         <v>398</v>
       </c>
-      <c r="Y6" s="170" t="s">
+      <c r="Y6" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="Z6" s="173" t="s">
+      <c r="Z6" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="AA6" s="173" t="s">
+      <c r="AA6" s="172" t="s">
         <v>397</v>
       </c>
-      <c r="AB6" s="173" t="s">
+      <c r="AB6" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="171" t="s">
+      <c r="AC6" s="170" t="s">
         <v>414</v>
       </c>
-      <c r="AD6" s="173" t="s">
+      <c r="AD6" s="172" t="s">
         <v>397</v>
       </c>
-      <c r="AE6" s="173" t="s">
+      <c r="AE6" s="172" t="s">
         <v>398</v>
       </c>
-      <c r="AF6" s="173" t="s">
+      <c r="AF6" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="AG6" s="172" t="s">
+      <c r="AG6" s="171" t="s">
         <v>57</v>
       </c>
-      <c r="AH6" s="173" t="s">
+      <c r="AH6" s="172" t="s">
         <v>398</v>
       </c>
-      <c r="AI6" s="173" t="s">
+      <c r="AI6" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="AJ6" s="173" t="s">
+      <c r="AJ6" s="172" t="s">
         <v>398</v>
       </c>
       <c r="AK6" s="18" t="s">
@@ -4115,7 +4168,7 @@
       <c r="AL6" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AM6" s="174" t="s">
+      <c r="AM6" s="173" t="s">
         <v>138</v>
       </c>
       <c r="AN6" s="18" t="s">
@@ -4124,7 +4177,7 @@
       <c r="AO6" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AP6" s="174" t="s">
+      <c r="AP6" s="173" t="s">
         <v>140</v>
       </c>
       <c r="AQ6" s="7" t="s">
@@ -4217,39 +4270,45 @@
       <c r="BT6" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="BU6" s="180" t="s">
+      <c r="BU6" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV6" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV6" s="180" t="s">
+      <c r="BW6" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW6" s="181" t="s">
+      <c r="BX6" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX6" s="181" t="s">
+      <c r="BY6" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY6" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ6" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA6" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB6" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB6" s="49" t="s">
+      <c r="CC6" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="CC6" s="49" t="s">
-        <v>457</v>
       </c>
       <c r="CD6" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="CE6" s="169"/>
-      <c r="CF6" s="169"/>
-      <c r="CG6" s="169"/>
+      <c r="CE6" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF6" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG6" s="129" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="7" spans="1:85" ht="24.75">
       <c r="A7" s="13" t="s">
@@ -4324,7 +4383,7 @@
       <c r="X7" s="157" t="s">
         <v>403</v>
       </c>
-      <c r="Y7" s="170" t="s">
+      <c r="Y7" s="169" t="s">
         <v>81</v>
       </c>
       <c r="Z7" s="157" t="s">
@@ -4336,7 +4395,7 @@
       <c r="AB7" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="AC7" s="171" t="s">
+      <c r="AC7" s="170" t="s">
         <v>414</v>
       </c>
       <c r="AD7" s="157" t="s">
@@ -4348,7 +4407,7 @@
       <c r="AF7" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="AG7" s="172" t="s">
+      <c r="AG7" s="171" t="s">
         <v>57</v>
       </c>
       <c r="AH7" s="157" t="s">
@@ -4366,7 +4425,7 @@
       <c r="AL7" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="AM7" s="174" t="s">
+      <c r="AM7" s="173" t="s">
         <v>138</v>
       </c>
       <c r="AN7" s="17" t="s">
@@ -4375,7 +4434,7 @@
       <c r="AO7" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="AP7" s="174" t="s">
+      <c r="AP7" s="173" t="s">
         <v>140</v>
       </c>
       <c r="AQ7" s="9" t="s">
@@ -4468,39 +4527,45 @@
       <c r="BT7" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="BU7" s="180" t="s">
+      <c r="BU7" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV7" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV7" s="180" t="s">
+      <c r="BW7" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW7" s="181" t="s">
+      <c r="BX7" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX7" s="181" t="s">
+      <c r="BY7" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY7" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ7" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA7" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB7" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB7" s="49" t="s">
+      <c r="CC7" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="CC7" s="49" t="s">
-        <v>457</v>
       </c>
       <c r="CD7" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="CE7" s="169"/>
-      <c r="CF7" s="169"/>
-      <c r="CG7" s="169"/>
+      <c r="CE7" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF7" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG7" s="129" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="8" spans="1:85" ht="24.75">
       <c r="A8" s="13" t="s">
@@ -4575,7 +4640,7 @@
       <c r="X8" s="157" t="s">
         <v>401</v>
       </c>
-      <c r="Y8" s="170" t="s">
+      <c r="Y8" s="169" t="s">
         <v>81</v>
       </c>
       <c r="Z8" s="157" t="s">
@@ -4587,7 +4652,7 @@
       <c r="AB8" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="AC8" s="171" t="s">
+      <c r="AC8" s="170" t="s">
         <v>414</v>
       </c>
       <c r="AD8" s="157" t="s">
@@ -4599,7 +4664,7 @@
       <c r="AF8" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="AG8" s="172" t="s">
+      <c r="AG8" s="171" t="s">
         <v>57</v>
       </c>
       <c r="AH8" s="157" t="s">
@@ -4617,7 +4682,7 @@
       <c r="AL8" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="AM8" s="174" t="s">
+      <c r="AM8" s="173" t="s">
         <v>138</v>
       </c>
       <c r="AN8" s="17" t="s">
@@ -4626,7 +4691,7 @@
       <c r="AO8" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="AP8" s="174" t="s">
+      <c r="AP8" s="173" t="s">
         <v>140</v>
       </c>
       <c r="AQ8" s="9" t="s">
@@ -4719,39 +4784,45 @@
       <c r="BT8" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="BU8" s="180" t="s">
+      <c r="BU8" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV8" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV8" s="180" t="s">
+      <c r="BW8" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW8" s="181" t="s">
+      <c r="BX8" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX8" s="181" t="s">
+      <c r="BY8" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY8" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ8" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA8" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB8" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB8" s="49" t="s">
+      <c r="CC8" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="CC8" s="49" t="s">
-        <v>457</v>
       </c>
       <c r="CD8" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="CE8" s="169"/>
-      <c r="CF8" s="169"/>
-      <c r="CG8" s="169"/>
+      <c r="CE8" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF8" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG8" s="129" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="9" spans="1:85" ht="24.75">
       <c r="A9" s="13" t="s">
@@ -4826,7 +4897,7 @@
       <c r="X9" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="Y9" s="170" t="s">
+      <c r="Y9" s="169" t="s">
         <v>81</v>
       </c>
       <c r="Z9" s="157" t="s">
@@ -4838,7 +4909,7 @@
       <c r="AB9" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="AC9" s="171" t="s">
+      <c r="AC9" s="170" t="s">
         <v>414</v>
       </c>
       <c r="AD9" s="157" t="s">
@@ -4850,7 +4921,7 @@
       <c r="AF9" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="AG9" s="172" t="s">
+      <c r="AG9" s="171" t="s">
         <v>57</v>
       </c>
       <c r="AH9" s="157" t="s">
@@ -4868,7 +4939,7 @@
       <c r="AL9" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="AM9" s="174" t="s">
+      <c r="AM9" s="173" t="s">
         <v>138</v>
       </c>
       <c r="AN9" s="17" t="s">
@@ -4877,7 +4948,7 @@
       <c r="AO9" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="AP9" s="174" t="s">
+      <c r="AP9" s="173" t="s">
         <v>140</v>
       </c>
       <c r="AQ9" s="9" t="s">
@@ -4970,41 +5041,47 @@
       <c r="BT9" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="BU9" s="180" t="s">
+      <c r="BU9" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV9" s="179" t="s">
         <v>450</v>
       </c>
-      <c r="BV9" s="180" t="s">
+      <c r="BW9" s="179" t="s">
         <v>451</v>
       </c>
-      <c r="BW9" s="181" t="s">
+      <c r="BX9" s="180" t="s">
         <v>452</v>
       </c>
-      <c r="BX9" s="181" t="s">
+      <c r="BY9" s="180" t="s">
         <v>453</v>
-      </c>
-      <c r="BY9" s="181" t="s">
-        <v>454</v>
       </c>
       <c r="BZ9" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA9" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB9" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CB9" s="49" t="s">
+      <c r="CC9" s="49" t="s">
         <v>456</v>
-      </c>
-      <c r="CC9" s="49" t="s">
-        <v>457</v>
       </c>
       <c r="CD9" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="CE9" s="169"/>
-      <c r="CF9" s="169"/>
-      <c r="CG9" s="169"/>
+      <c r="CE9" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF9" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG9" s="129" t="s">
+        <v>467</v>
+      </c>
     </row>
-    <row r="10" spans="1:85">
+    <row r="10" spans="1:85" ht="15.75">
       <c r="A10" s="159" t="s">
         <v>203</v>
       </c>
@@ -5024,10 +5101,10 @@
         <v>123456789</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I10" s="17">
         <v>0</v>
@@ -5054,13 +5131,13 @@
         <v>1</v>
       </c>
       <c r="Q10" s="108">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="R10" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S10" s="108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T10" s="108">
         <v>1</v>
@@ -5069,33 +5146,35 @@
         <v>1</v>
       </c>
       <c r="V10" s="108">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="W10" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X10" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="Y10" s="174" t="s">
+      <c r="Y10" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z10" s="17" t="s">
         <v>422</v>
       </c>
       <c r="AA10" s="17" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AB10" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AC10" s="175" t="s">
+      <c r="AC10" s="174" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE10" s="17"/>
+        <v>433</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>458</v>
+      </c>
       <c r="AF10" s="17" t="s">
         <v>422</v>
       </c>
@@ -5109,7 +5188,7 @@
         <v>418</v>
       </c>
       <c r="AJ10" s="17" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="AK10" s="108" t="s">
         <v>422</v>
@@ -5135,14 +5214,14 @@
       <c r="AR10" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="AS10" s="178" t="s">
+      <c r="AS10" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AT10" s="146">
         <v>123456789</v>
       </c>
-      <c r="AU10" s="179" t="s">
-        <v>441</v>
+      <c r="AU10" s="178" t="s">
+        <v>440</v>
       </c>
       <c r="AV10" s="146" t="s">
         <v>422</v>
@@ -5150,14 +5229,14 @@
       <c r="AW10" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="AX10" s="178" t="s">
+      <c r="AX10" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AY10" s="146">
         <v>123456789</v>
       </c>
-      <c r="AZ10" s="179" t="s">
-        <v>441</v>
+      <c r="AZ10" s="178" t="s">
+        <v>440</v>
       </c>
       <c r="BA10" s="146" t="s">
         <v>422</v>
@@ -5165,14 +5244,14 @@
       <c r="BB10" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="BC10" s="178" t="s">
+      <c r="BC10" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BD10" s="146">
         <v>123456789</v>
       </c>
-      <c r="BE10" s="179" t="s">
-        <v>441</v>
+      <c r="BE10" s="178" t="s">
+        <v>440</v>
       </c>
       <c r="BF10" s="146" t="s">
         <v>422</v>
@@ -5180,14 +5259,14 @@
       <c r="BG10" s="146" t="s">
         <v>418</v>
       </c>
-      <c r="BH10" s="178" t="s">
+      <c r="BH10" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BI10" s="146">
         <v>123456789</v>
       </c>
-      <c r="BJ10" s="179" t="s">
-        <v>441</v>
+      <c r="BJ10" s="178" t="s">
+        <v>440</v>
       </c>
       <c r="BK10" s="146" t="s">
         <v>422</v>
@@ -5205,7 +5284,7 @@
         <v>123456789</v>
       </c>
       <c r="BP10" s="151" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BQ10" s="125" t="s">
         <v>422</v>
@@ -5217,25 +5296,49 @@
         <v>123456789</v>
       </c>
       <c r="BT10" s="151" t="s">
-        <v>441</v>
-      </c>
-      <c r="BU10" s="17"/>
-      <c r="BV10" s="17"/>
-      <c r="BW10" s="17"/>
-      <c r="BX10" s="17"/>
-      <c r="BY10" s="17"/>
-      <c r="BZ10" s="17"/>
-      <c r="CA10" s="17"/>
-      <c r="CB10" s="17"/>
-      <c r="CC10" s="17"/>
+        <v>440</v>
+      </c>
+      <c r="BU10" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV10" s="179" t="s">
+        <v>450</v>
+      </c>
+      <c r="BW10" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX10" s="180" t="s">
+        <v>452</v>
+      </c>
+      <c r="BY10" s="180" t="s">
+        <v>453</v>
+      </c>
+      <c r="BZ10" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA10" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB10" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CC10" s="49" t="s">
+        <v>456</v>
+      </c>
       <c r="CD10" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="CE10" s="169"/>
-      <c r="CF10" s="169"/>
-      <c r="CG10" s="169"/>
+      <c r="CE10" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF10" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG10" s="129" t="s">
+        <v>468</v>
+      </c>
     </row>
-    <row r="11" spans="1:85">
+    <row r="11" spans="1:85" ht="15.75">
       <c r="A11" s="13" t="s">
         <v>201</v>
       </c>
@@ -5255,10 +5358,10 @@
         <v>1234567810</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I11" s="17">
         <v>1</v>
@@ -5285,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="Q11" s="108">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R11" s="108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S11" s="108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T11" s="108">
         <v>1</v>
@@ -5303,30 +5406,32 @@
         <v>2025</v>
       </c>
       <c r="W11" s="108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X11" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="Y11" s="174" t="s">
+      <c r="Y11" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z11" s="17" t="s">
         <v>423</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AB11" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="AC11" s="175" t="s">
+      <c r="AC11" s="174" t="s">
         <v>414</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="AE11" s="17"/>
+        <v>434</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>459</v>
+      </c>
       <c r="AF11" s="17" t="s">
         <v>423</v>
       </c>
@@ -5340,7 +5445,7 @@
         <v>419</v>
       </c>
       <c r="AJ11" s="17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK11" s="108" t="s">
         <v>423</v>
@@ -5366,14 +5471,14 @@
       <c r="AR11" s="146" t="s">
         <v>419</v>
       </c>
-      <c r="AS11" s="178" t="s">
+      <c r="AS11" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AT11" s="146">
         <v>1234567810</v>
       </c>
       <c r="AU11" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AV11" s="146" t="s">
         <v>423</v>
@@ -5381,14 +5486,14 @@
       <c r="AW11" s="146" t="s">
         <v>419</v>
       </c>
-      <c r="AX11" s="178" t="s">
+      <c r="AX11" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AY11" s="146">
         <v>1234567810</v>
       </c>
       <c r="AZ11" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BA11" s="146" t="s">
         <v>423</v>
@@ -5396,14 +5501,14 @@
       <c r="BB11" s="146" t="s">
         <v>419</v>
       </c>
-      <c r="BC11" s="178" t="s">
+      <c r="BC11" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BD11" s="146">
         <v>1234567810</v>
       </c>
       <c r="BE11" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BF11" s="146" t="s">
         <v>423</v>
@@ -5411,14 +5516,14 @@
       <c r="BG11" s="146" t="s">
         <v>419</v>
       </c>
-      <c r="BH11" s="178" t="s">
+      <c r="BH11" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BI11" s="146">
         <v>1234567810</v>
       </c>
       <c r="BJ11" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BK11" s="146" t="s">
         <v>423</v>
@@ -5436,7 +5541,7 @@
         <v>1234567810</v>
       </c>
       <c r="BP11" s="154" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BQ11" s="125" t="s">
         <v>423</v>
@@ -5448,25 +5553,49 @@
         <v>1234567810</v>
       </c>
       <c r="BT11" s="154" t="s">
-        <v>440</v>
-      </c>
-      <c r="BU11" s="17"/>
-      <c r="BV11" s="17"/>
-      <c r="BW11" s="17"/>
-      <c r="BX11" s="17"/>
-      <c r="BY11" s="17"/>
-      <c r="BZ11" s="17"/>
-      <c r="CA11" s="17"/>
-      <c r="CB11" s="17"/>
-      <c r="CC11" s="17"/>
+        <v>439</v>
+      </c>
+      <c r="BU11" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV11" s="179" t="s">
+        <v>450</v>
+      </c>
+      <c r="BW11" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX11" s="180" t="s">
+        <v>452</v>
+      </c>
+      <c r="BY11" s="180" t="s">
+        <v>453</v>
+      </c>
+      <c r="BZ11" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA11" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB11" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CC11" s="49" t="s">
+        <v>456</v>
+      </c>
       <c r="CD11" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="CE11" s="169"/>
-      <c r="CF11" s="169"/>
-      <c r="CG11" s="169"/>
+      <c r="CE11" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF11" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG11" s="129" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="12" spans="1:85">
+    <row r="12" spans="1:85" ht="15.75">
       <c r="A12" s="13" t="s">
         <v>202</v>
       </c>
@@ -5498,13 +5627,13 @@
         <v>49</v>
       </c>
       <c r="K12" s="108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L12" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M12" s="108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N12" s="149" t="s">
         <v>81</v>
@@ -5516,13 +5645,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="108">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R12" s="108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T12" s="108">
         <v>1</v>
@@ -5534,30 +5663,32 @@
         <v>2025</v>
       </c>
       <c r="W12" s="108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X12" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Y12" s="174" t="s">
+      <c r="Y12" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z12" s="17" t="s">
         <v>424</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB12" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="AC12" s="175" t="s">
+      <c r="AC12" s="174" t="s">
         <v>414</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="AE12" s="17"/>
+        <v>435</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>460</v>
+      </c>
       <c r="AF12" s="17" t="s">
         <v>420</v>
       </c>
@@ -5571,7 +5702,7 @@
         <v>420</v>
       </c>
       <c r="AJ12" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK12" s="108" t="s">
         <v>420</v>
@@ -5597,14 +5728,14 @@
       <c r="AR12" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AS12" s="178" t="s">
+      <c r="AS12" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AT12" s="146">
         <v>1234567810</v>
       </c>
       <c r="AU12" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AV12" s="146" t="s">
         <v>420</v>
@@ -5612,14 +5743,14 @@
       <c r="AW12" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AX12" s="178" t="s">
+      <c r="AX12" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AY12" s="146">
         <v>1234567810</v>
       </c>
       <c r="AZ12" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BA12" s="146" t="s">
         <v>420</v>
@@ -5627,14 +5758,14 @@
       <c r="BB12" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BC12" s="178" t="s">
+      <c r="BC12" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BD12" s="146">
         <v>1234567810</v>
       </c>
       <c r="BE12" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BF12" s="146" t="s">
         <v>420</v>
@@ -5642,14 +5773,14 @@
       <c r="BG12" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BH12" s="178" t="s">
+      <c r="BH12" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BI12" s="146">
         <v>1234567810</v>
       </c>
       <c r="BJ12" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BK12" s="146" t="s">
         <v>420</v>
@@ -5667,7 +5798,7 @@
         <v>1234567810</v>
       </c>
       <c r="BP12" s="125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BQ12" s="125" t="s">
         <v>420</v>
@@ -5679,25 +5810,49 @@
         <v>1234567810</v>
       </c>
       <c r="BT12" s="125" t="s">
-        <v>442</v>
-      </c>
-      <c r="BU12" s="17"/>
-      <c r="BV12" s="17"/>
-      <c r="BW12" s="17"/>
-      <c r="BX12" s="17"/>
-      <c r="BY12" s="17"/>
-      <c r="BZ12" s="17"/>
-      <c r="CA12" s="17"/>
-      <c r="CB12" s="17"/>
-      <c r="CC12" s="17"/>
+        <v>441</v>
+      </c>
+      <c r="BU12" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV12" s="179" t="s">
+        <v>450</v>
+      </c>
+      <c r="BW12" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX12" s="180" t="s">
+        <v>452</v>
+      </c>
+      <c r="BY12" s="180" t="s">
+        <v>453</v>
+      </c>
+      <c r="BZ12" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA12" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB12" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CC12" s="49" t="s">
+        <v>456</v>
+      </c>
       <c r="CD12" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="CE12" s="169"/>
-      <c r="CF12" s="169"/>
-      <c r="CG12" s="169"/>
+      <c r="CE12" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF12" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG12" s="129" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="13" spans="1:85">
+    <row r="13" spans="1:85" ht="15.75">
       <c r="A13" s="159" t="s">
         <v>417</v>
       </c>
@@ -5729,13 +5884,13 @@
         <v>49</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L13" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N13" s="149" t="s">
         <v>81</v>
@@ -5747,13 +5902,13 @@
         <v>1</v>
       </c>
       <c r="Q13" s="108">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T13" s="108">
         <v>1</v>
@@ -5762,33 +5917,35 @@
         <v>1</v>
       </c>
       <c r="V13" s="108">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="W13" s="108" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X13" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="Y13" s="174" t="s">
+      <c r="Y13" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z13" s="17" t="s">
         <v>425</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AB13" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="AC13" s="175" t="s">
+      <c r="AC13" s="174" t="s">
         <v>414</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="AE13" s="17"/>
+        <v>436</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>461</v>
+      </c>
       <c r="AF13" s="17" t="s">
         <v>421</v>
       </c>
@@ -5802,7 +5959,7 @@
         <v>421</v>
       </c>
       <c r="AJ13" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK13" s="108" t="s">
         <v>421</v>
@@ -5828,14 +5985,14 @@
       <c r="AR13" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="AS13" s="178" t="s">
+      <c r="AS13" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AT13" s="146">
         <v>12345678911</v>
       </c>
       <c r="AU13" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AV13" s="146" t="s">
         <v>421</v>
@@ -5843,14 +6000,14 @@
       <c r="AW13" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="AX13" s="178" t="s">
+      <c r="AX13" s="177" t="s">
         <v>81</v>
       </c>
       <c r="AY13" s="146">
         <v>12345678911</v>
       </c>
       <c r="AZ13" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BA13" s="146" t="s">
         <v>421</v>
@@ -5858,14 +6015,14 @@
       <c r="BB13" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="BC13" s="178" t="s">
+      <c r="BC13" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BD13" s="146">
         <v>12345678911</v>
       </c>
       <c r="BE13" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BF13" s="146" t="s">
         <v>421</v>
@@ -5873,14 +6030,14 @@
       <c r="BG13" s="146" t="s">
         <v>421</v>
       </c>
-      <c r="BH13" s="178" t="s">
+      <c r="BH13" s="177" t="s">
         <v>81</v>
       </c>
       <c r="BI13" s="146">
         <v>12345678911</v>
       </c>
       <c r="BJ13" s="146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BK13" s="146" t="s">
         <v>421</v>
@@ -5898,7 +6055,7 @@
         <v>12345678911</v>
       </c>
       <c r="BP13" s="125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BQ13" s="125" t="s">
         <v>421</v>
@@ -5910,23 +6067,47 @@
         <v>12345678911</v>
       </c>
       <c r="BT13" s="125" t="s">
-        <v>443</v>
-      </c>
-      <c r="BU13" s="17"/>
-      <c r="BV13" s="17"/>
-      <c r="BW13" s="17"/>
-      <c r="BX13" s="17"/>
-      <c r="BY13" s="17"/>
-      <c r="BZ13" s="17"/>
-      <c r="CA13" s="17"/>
-      <c r="CB13" s="17"/>
-      <c r="CC13" s="17"/>
+        <v>442</v>
+      </c>
+      <c r="BU13" s="179" t="s">
+        <v>449</v>
+      </c>
+      <c r="BV13" s="179" t="s">
+        <v>450</v>
+      </c>
+      <c r="BW13" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="BX13" s="180" t="s">
+        <v>452</v>
+      </c>
+      <c r="BY13" s="180" t="s">
+        <v>453</v>
+      </c>
+      <c r="BZ13" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CA13" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CB13" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CC13" s="49" t="s">
+        <v>456</v>
+      </c>
       <c r="CD13" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="CE13" s="169"/>
-      <c r="CF13" s="169"/>
-      <c r="CG13" s="169"/>
+      <c r="CE13" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF13" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG13" s="129" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="14" spans="1:85">
       <c r="A14" s="159" t="s">
@@ -5965,13 +6146,13 @@
       <c r="V14" s="157"/>
       <c r="W14" s="157"/>
       <c r="X14" s="125"/>
-      <c r="Y14" s="176" t="s">
+      <c r="Y14" s="175" t="s">
         <v>81</v>
       </c>
       <c r="Z14" s="125"/>
       <c r="AA14" s="125"/>
       <c r="AB14" s="125"/>
-      <c r="AC14" s="177" t="s">
+      <c r="AC14" s="176" t="s">
         <v>414</v>
       </c>
       <c r="AD14" s="125"/>
@@ -6035,9 +6216,15 @@
       <c r="CB14" s="146"/>
       <c r="CC14" s="146"/>
       <c r="CD14" s="146"/>
-      <c r="CE14" s="169"/>
-      <c r="CF14" s="169"/>
-      <c r="CG14" s="169"/>
+      <c r="CE14" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF14" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG14" s="129" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="15" spans="1:85">
       <c r="A15" s="13" t="s">
@@ -6076,13 +6263,13 @@
       <c r="V15" s="157"/>
       <c r="W15" s="157"/>
       <c r="X15" s="125"/>
-      <c r="Y15" s="176" t="s">
+      <c r="Y15" s="175" t="s">
         <v>81</v>
       </c>
       <c r="Z15" s="125"/>
       <c r="AA15" s="125"/>
       <c r="AB15" s="125"/>
-      <c r="AC15" s="177" t="s">
+      <c r="AC15" s="176" t="s">
         <v>414</v>
       </c>
       <c r="AD15" s="125"/>
@@ -6146,9 +6333,15 @@
       <c r="CB15" s="146"/>
       <c r="CC15" s="146"/>
       <c r="CD15" s="146"/>
-      <c r="CE15" s="169"/>
-      <c r="CF15" s="169"/>
-      <c r="CG15" s="169"/>
+      <c r="CE15" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF15" s="168" t="s">
+        <v>255</v>
+      </c>
+      <c r="CG15" s="129" t="s">
+        <v>473</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -6184,15 +6377,41 @@
     <hyperlink ref="AZ4" r:id="rId29" xr:uid="{AEADA319-29AC-40AD-ABFA-E2AF34F948AC}"/>
     <hyperlink ref="BE4" r:id="rId30" xr:uid="{3187DE67-F0C9-4DF7-9B73-AFB0794086AC}"/>
     <hyperlink ref="BJ4" r:id="rId31" xr:uid="{4689034F-B74D-411C-AD0E-5C66E2E5851C}"/>
-    <hyperlink ref="CE4" r:id="rId32" xr:uid="{7C32364D-FFD5-4337-9BDF-29B9E614AA35}"/>
-    <hyperlink ref="CG4" r:id="rId33" xr:uid="{DF12C146-D2D5-4602-BE95-8E7663E6C1D2}"/>
-    <hyperlink ref="G10" r:id="rId34" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
-    <hyperlink ref="G11" r:id="rId35" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
-    <hyperlink ref="BZ3" r:id="rId36" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
-    <hyperlink ref="BZ4" r:id="rId37" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
+    <hyperlink ref="G10" r:id="rId32" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
+    <hyperlink ref="G11" r:id="rId33" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="BZ3" r:id="rId34" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
+    <hyperlink ref="BZ4" r:id="rId35" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
+    <hyperlink ref="BZ10" r:id="rId36" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
+    <hyperlink ref="BZ11" r:id="rId37" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
+    <hyperlink ref="BZ12" r:id="rId38" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
+    <hyperlink ref="BZ13" r:id="rId39" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
+    <hyperlink ref="CE4" r:id="rId40" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
+    <hyperlink ref="CE5" r:id="rId41" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
+    <hyperlink ref="CE6" r:id="rId42" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
+    <hyperlink ref="CE7" r:id="rId43" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
+    <hyperlink ref="CE8" r:id="rId44" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
+    <hyperlink ref="CE9" r:id="rId45" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
+    <hyperlink ref="CE10" r:id="rId46" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
+    <hyperlink ref="CE11" r:id="rId47" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
+    <hyperlink ref="CE12" r:id="rId48" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
+    <hyperlink ref="CE13" r:id="rId49" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
+    <hyperlink ref="CE14" r:id="rId50" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
+    <hyperlink ref="CE15" r:id="rId51" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
+    <hyperlink ref="CG4" r:id="rId52" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
+    <hyperlink ref="CG5" r:id="rId53" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
+    <hyperlink ref="CG6" r:id="rId54" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
+    <hyperlink ref="CG7" r:id="rId55" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
+    <hyperlink ref="CG8" r:id="rId56" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
+    <hyperlink ref="CG9" r:id="rId57" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
+    <hyperlink ref="CG10" r:id="rId58" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
+    <hyperlink ref="CG11" r:id="rId59" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
+    <hyperlink ref="CG12" r:id="rId60" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
+    <hyperlink ref="CG13" r:id="rId61" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
+    <hyperlink ref="CG14" r:id="rId62" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
+    <hyperlink ref="CG15" r:id="rId63" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED7012D-90CF-4346-A7B8-16EC5DD55467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{547AE027-EF2B-4B4C-899E-F555CD9197FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="501">
   <si>
     <t>Scenario</t>
   </si>
@@ -1231,9 +1231,6 @@
     <t>ADF 461</t>
   </si>
   <si>
-    <t>+123456789041</t>
-  </si>
-  <si>
     <t>Hashtag InfoSystem</t>
   </si>
   <si>
@@ -1504,6 +1501,92 @@
   </si>
   <si>
     <t>Admin@135</t>
+  </si>
+  <si>
+    <t>456789041</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>8698706548</t>
+  </si>
+  <si>
+    <t>www.tdgdgdddsgsg.in</t>
+  </si>
+  <si>
+    <t>www.1234567892.in</t>
+  </si>
+  <si>
+    <t>www.123456ada7892.in</t>
+  </si>
+  <si>
+    <t>www.123456ad.a-7892.in</t>
+  </si>
+  <si>
+    <t>www.!@#$%^&amp;*(.in</t>
+  </si>
+  <si>
+    <t>hashtaginfosy-st.em.com</t>
+  </si>
+  <si>
+    <t>hashtaginfos.ystem.com</t>
+  </si>
+  <si>
+    <t>HashtagInfoSystem.com</t>
+  </si>
+  <si>
+    <t>1234567893.com</t>
+  </si>
+  <si>
+    <t>ABCdef123460.com</t>
+  </si>
+  <si>
+    <t>1/4,1"stFr.'Q.com</t>
+  </si>
+  <si>
+    <t>/,".'!@#$_*^&amp;.com</t>
+  </si>
+  <si>
+    <t>AlphaNum+SpecialChar
+6 to 50</t>
+  </si>
+  <si>
+    <t>@f.in</t>
+  </si>
+  <si>
+    <t>AlphaNum+SpecialChar
+4 to 50</t>
+  </si>
+  <si>
+    <t>www.hashtag-info.system.com</t>
+  </si>
+  <si>
+    <t>Fifty50FiftyFiftyFiftyFiftyFiftyFiftyFiftyFifty.ae</t>
+  </si>
+  <si>
+    <t>Fifty51oneFiftyoneFiftyoneFiftyoneFifFifty51one.com</t>
+  </si>
+  <si>
+    <t>www.OneTwentyOne120TwentOneTwentyOneTwentyOneTwentyOneTwentyOneTwentyOneTwentyOneTwentyOneTwentyOneTwentyOne120Twent.com</t>
+  </si>
+  <si>
+    <t>www.OneTwentyOne121TwentyOneTwentyOneTwentyOneTwentyOneTwentyOnewentyOneTwentyOneTwentyOneTwentyOneTwentyOne121Twenty.com</t>
+  </si>
+  <si>
+    <t>pbdha12!@#nger@gm.ai-l.com</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2442,9 +2525,6 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2453,9 +2533,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2758,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2771,7 +2848,7 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
@@ -2804,7 +2881,7 @@
     <col min="44" max="44" width="13.5703125" customWidth="1"/>
     <col min="45" max="45" width="16" customWidth="1"/>
     <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="22" customWidth="1"/>
+    <col min="47" max="47" width="28.140625" customWidth="1"/>
     <col min="48" max="48" width="20.7109375" customWidth="1"/>
     <col min="49" max="49" width="13.140625" customWidth="1"/>
     <col min="50" max="50" width="15.7109375" customWidth="1"/>
@@ -2860,10 +2937,10 @@
         <v>64</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>169</v>
+        <v>494</v>
       </c>
       <c r="I1" s="54" t="s">
         <v>64</v>
@@ -2959,7 +3036,7 @@
         <v>171</v>
       </c>
       <c r="AR1" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AS1" s="54" t="s">
         <v>75</v>
@@ -2968,7 +3045,7 @@
         <v>64</v>
       </c>
       <c r="AU1" s="54" t="s">
-        <v>169</v>
+        <v>492</v>
       </c>
       <c r="AV1" s="54" t="s">
         <v>171</v>
@@ -3260,7 +3337,7 @@
         <v>25</v>
       </c>
       <c r="BN2" s="145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BO2" s="145" t="s">
         <v>28</v>
@@ -3272,7 +3349,7 @@
         <v>25</v>
       </c>
       <c r="BR2" s="145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BS2" s="145" t="s">
         <v>28</v>
@@ -3320,7 +3397,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:85" ht="24.75">
+    <row r="3" spans="1:85" ht="15.75">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -3340,10 +3417,10 @@
         <v>68</v>
       </c>
       <c r="G3" s="154" t="s">
-        <v>213</v>
+        <v>495</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>31</v>
+        <v>485</v>
       </c>
       <c r="I3" s="141" t="s">
         <v>45</v>
@@ -3364,31 +3441,31 @@
         <v>81</v>
       </c>
       <c r="O3" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="R3" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="S3" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="T3" s="17">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="U3" s="17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V3" s="18">
         <v>2025</v>
       </c>
-      <c r="W3" s="165" t="s">
-        <v>402</v>
+      <c r="W3" s="164" t="s">
+        <v>401</v>
       </c>
       <c r="X3" s="108" t="s">
         <v>34</v>
@@ -3406,7 +3483,7 @@
         <v>235</v>
       </c>
       <c r="AC3" s="163" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AD3" s="136" t="s">
         <v>246</v>
@@ -3417,11 +3494,11 @@
       <c r="AF3" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="AG3" s="164" t="s">
-        <v>57</v>
+      <c r="AG3" s="41" t="s">
+        <v>478</v>
       </c>
       <c r="AH3" s="136" t="s">
-        <v>152</v>
+        <v>479</v>
       </c>
       <c r="AI3" s="108" t="s">
         <v>42</v>
@@ -3439,7 +3516,7 @@
         <v>138</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AO3" s="9">
         <v>20</v>
@@ -3448,22 +3525,22 @@
         <v>140</v>
       </c>
       <c r="AQ3" s="108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AR3" s="108" t="s">
         <v>237</v>
       </c>
       <c r="AS3" s="137" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="AT3" s="136" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
       <c r="AU3" s="138" t="s">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AV3" s="108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AW3" s="108" t="s">
         <v>164</v>
@@ -3478,7 +3555,7 @@
         <v>227</v>
       </c>
       <c r="BA3" s="108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BB3" s="108" t="s">
         <v>36</v>
@@ -3493,13 +3570,13 @@
         <v>228</v>
       </c>
       <c r="BF3" s="108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BG3" s="108" t="s">
         <v>37</v>
       </c>
       <c r="BH3" s="137" t="s">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="BI3" s="136" t="s">
         <v>240</v>
@@ -3514,10 +3591,10 @@
         <v>262</v>
       </c>
       <c r="BM3" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BN3" s="96" t="s">
-        <v>60</v>
+        <v>476</v>
       </c>
       <c r="BO3" s="7" t="s">
         <v>243</v>
@@ -3529,7 +3606,7 @@
         <v>264</v>
       </c>
       <c r="BR3" s="96" t="s">
-        <v>60</v>
+        <v>477</v>
       </c>
       <c r="BS3" s="7" t="s">
         <v>244</v>
@@ -3537,32 +3614,32 @@
       <c r="BT3" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="BU3" s="179" t="s">
+      <c r="BU3" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV3" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV3" s="179" t="s">
+      <c r="BW3" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW3" s="179" t="s">
+      <c r="BX3" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX3" s="180" t="s">
+      <c r="BY3" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY3" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ3" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA3" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB3" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB3" s="49" t="s">
+      <c r="CC3" s="154" t="s">
         <v>455</v>
-      </c>
-      <c r="CC3" s="154" t="s">
-        <v>456</v>
       </c>
       <c r="CD3" s="125" t="s">
         <v>264</v>
@@ -3570,7 +3647,7 @@
       <c r="CE3" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF3" s="168" t="s">
+      <c r="CF3" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG3" s="129" t="s">
@@ -3579,7 +3656,7 @@
     </row>
     <row r="4" spans="1:85" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="151" t="s">
         <v>146</v>
@@ -3600,7 +3677,7 @@
         <v>213</v>
       </c>
       <c r="H4" s="125" t="s">
-        <v>31</v>
+        <v>486</v>
       </c>
       <c r="I4" s="141" t="s">
         <v>45</v>
@@ -3621,30 +3698,30 @@
         <v>81</v>
       </c>
       <c r="O4" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="R4" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="S4" s="17" t="s">
-        <v>407</v>
-      </c>
       <c r="T4" s="17">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="U4" s="17">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="V4" s="18">
         <v>2025</v>
       </c>
-      <c r="W4" s="165"/>
+      <c r="W4" s="164"/>
       <c r="X4" s="108" t="s">
         <v>34</v>
       </c>
@@ -3661,7 +3738,7 @@
         <v>235</v>
       </c>
       <c r="AC4" s="163" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AD4" s="136" t="s">
         <v>246</v>
@@ -3670,7 +3747,9 @@
         <v>249</v>
       </c>
       <c r="AF4" s="108"/>
-      <c r="AG4" s="164"/>
+      <c r="AG4" s="41" t="s">
+        <v>478</v>
+      </c>
       <c r="AH4" s="136"/>
       <c r="AI4" s="108"/>
       <c r="AJ4" s="136"/>
@@ -3687,22 +3766,22 @@
       <c r="AO4" s="9"/>
       <c r="AP4" s="142"/>
       <c r="AQ4" s="108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AR4" s="108" t="s">
         <v>237</v>
       </c>
       <c r="AS4" s="137" t="s">
-        <v>57</v>
+        <v>474</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
       <c r="AU4" s="138" t="s">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AV4" s="108" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AW4" s="108" t="s">
         <v>164</v>
@@ -3717,7 +3796,7 @@
         <v>227</v>
       </c>
       <c r="BA4" s="108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BB4" s="108" t="s">
         <v>36</v>
@@ -3732,13 +3811,13 @@
         <v>228</v>
       </c>
       <c r="BF4" s="108" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BG4" s="108" t="s">
         <v>37</v>
       </c>
       <c r="BH4" s="137" t="s">
-        <v>59</v>
+        <v>475</v>
       </c>
       <c r="BI4" s="136" t="s">
         <v>240</v>
@@ -3753,35 +3832,39 @@
         <v>262</v>
       </c>
       <c r="BM4" s="9"/>
-      <c r="BN4" s="96"/>
+      <c r="BN4" s="96" t="s">
+        <v>476</v>
+      </c>
       <c r="BO4" s="7"/>
       <c r="BP4" s="49"/>
       <c r="BQ4" s="9"/>
-      <c r="BR4" s="96"/>
+      <c r="BR4" s="96" t="s">
+        <v>477</v>
+      </c>
       <c r="BS4" s="7"/>
       <c r="BT4" s="49"/>
-      <c r="BU4" s="179" t="s">
+      <c r="BU4" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV4" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV4" s="179" t="s">
+      <c r="BW4" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW4" s="179" t="s">
+      <c r="BX4" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX4" s="180" t="s">
-        <v>452</v>
-      </c>
-      <c r="BY4" s="179"/>
+      <c r="BY4" s="177"/>
       <c r="BZ4" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA4" s="154"/>
       <c r="CB4" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CC4" s="154" t="s">
         <v>455</v>
-      </c>
-      <c r="CC4" s="154" t="s">
-        <v>456</v>
       </c>
       <c r="CD4" s="125" t="s">
         <v>264</v>
@@ -3789,271 +3872,271 @@
       <c r="CE4" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF4" s="168" t="s">
+      <c r="CF4" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG4" s="129" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:85" ht="24.75">
+    <row r="5" spans="1:85" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>480</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>384</v>
+        <v>487</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J5" s="139" t="s">
         <v>49</v>
       </c>
       <c r="K5" s="125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L5" s="139" t="s">
         <v>49</v>
       </c>
       <c r="M5" s="125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N5" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="125">
-        <v>1</v>
-      </c>
-      <c r="P5" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="125">
-        <v>2021</v>
+      <c r="O5" s="17">
+        <v>3</v>
+      </c>
+      <c r="P5" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>2022</v>
       </c>
       <c r="R5" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S5" s="125" t="s">
-        <v>399</v>
-      </c>
-      <c r="T5" s="125">
-        <v>31</v>
-      </c>
-      <c r="U5" s="125">
-        <v>12</v>
+        <v>398</v>
+      </c>
+      <c r="T5" s="17">
+        <v>5</v>
+      </c>
+      <c r="U5" s="17">
+        <v>5</v>
       </c>
       <c r="V5" s="141">
         <v>2025</v>
       </c>
-      <c r="W5" s="166" t="s">
-        <v>399</v>
+      <c r="W5" s="165" t="s">
+        <v>398</v>
       </c>
       <c r="X5" s="157" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y5" s="169" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y5" s="168" t="s">
         <v>81</v>
       </c>
       <c r="Z5" s="157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AA5" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB5" s="157" t="s">
-        <v>384</v>
-      </c>
-      <c r="AC5" s="170" t="s">
-        <v>414</v>
+        <v>383</v>
+      </c>
+      <c r="AC5" s="169" t="s">
+        <v>413</v>
       </c>
       <c r="AD5" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AE5" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF5" s="157" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG5" s="171" t="s">
-        <v>57</v>
+        <v>383</v>
+      </c>
+      <c r="AG5" s="41" t="s">
+        <v>478</v>
       </c>
       <c r="AH5" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI5" s="157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AJ5" s="157" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AK5" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL5" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM5" s="173" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM5" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AN5" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AO5" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="AP5" s="173" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP5" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AS5" s="96" t="s">
-        <v>57</v>
+        <v>383</v>
+      </c>
+      <c r="AS5" s="137" t="s">
+        <v>474</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AX5" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BB5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BC5" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BE5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BF5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BG5" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="BH5" s="96" t="s">
-        <v>59</v>
+        <v>383</v>
+      </c>
+      <c r="BH5" s="137" t="s">
+        <v>475</v>
       </c>
       <c r="BI5" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BJ5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BK5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BM5" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="BN5" s="144" t="s">
-        <v>60</v>
+        <v>383</v>
+      </c>
+      <c r="BN5" s="96" t="s">
+        <v>476</v>
       </c>
       <c r="BO5" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BP5" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BQ5" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="BR5" s="144" t="s">
-        <v>60</v>
+        <v>383</v>
+      </c>
+      <c r="BR5" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="BS5" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BT5" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="BU5" s="179" t="s">
+        <v>383</v>
+      </c>
+      <c r="BU5" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV5" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV5" s="179" t="s">
+      <c r="BW5" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW5" s="179" t="s">
+      <c r="BX5" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX5" s="180" t="s">
+      <c r="BY5" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY5" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ5" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA5" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB5" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB5" s="49" t="s">
+      <c r="CC5" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC5" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD5" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="CE5" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF5" s="168" t="s">
+      <c r="CF5" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG5" s="129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:85" ht="24.75">
+    <row r="6" spans="1:85" ht="15.75">
       <c r="A6" s="13" t="s">
         <v>64</v>
       </c>
@@ -4072,95 +4155,95 @@
       <c r="F6" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>395</v>
+      <c r="G6" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="J6" s="139" t="s">
         <v>49</v>
       </c>
       <c r="K6" s="141" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L6" s="139" t="s">
         <v>49</v>
       </c>
       <c r="M6" s="141" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N6" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="125">
-        <v>1</v>
-      </c>
-      <c r="P6" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="125">
-        <v>2021</v>
+      <c r="O6" s="17">
+        <v>3</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>2022</v>
       </c>
       <c r="R6" s="141" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S6" s="141" t="s">
-        <v>397</v>
-      </c>
-      <c r="T6" s="125">
-        <v>31</v>
-      </c>
-      <c r="U6" s="125">
-        <v>12</v>
+        <v>396</v>
+      </c>
+      <c r="T6" s="17">
+        <v>5</v>
+      </c>
+      <c r="U6" s="17">
+        <v>5</v>
       </c>
       <c r="V6" s="141">
         <v>2025</v>
       </c>
-      <c r="W6" s="167" t="s">
+      <c r="W6" s="166" t="s">
+        <v>396</v>
+      </c>
+      <c r="X6" s="170" t="s">
         <v>397</v>
       </c>
-      <c r="X6" s="172" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y6" s="169" t="s">
+      <c r="Y6" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Z6" s="172" t="s">
+      <c r="Z6" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="AA6" s="172" t="s">
+      <c r="AA6" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB6" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC6" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD6" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE6" s="170" t="s">
         <v>397</v>
       </c>
-      <c r="AB6" s="172" t="s">
+      <c r="AF6" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="170" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD6" s="172" t="s">
+      <c r="AG6" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH6" s="170" t="s">
         <v>397</v>
       </c>
-      <c r="AE6" s="172" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF6" s="172" t="s">
+      <c r="AI6" s="170" t="s">
         <v>225</v>
       </c>
-      <c r="AG6" s="171" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="172" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI6" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ6" s="172" t="s">
-        <v>398</v>
+      <c r="AJ6" s="170" t="s">
+        <v>397</v>
       </c>
       <c r="AK6" s="18" t="s">
         <v>225</v>
@@ -4168,7 +4251,7 @@
       <c r="AL6" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AM6" s="173" t="s">
+      <c r="AM6" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AN6" s="18" t="s">
@@ -4177,17 +4260,17 @@
       <c r="AO6" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="AP6" s="173" t="s">
+      <c r="AP6" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AQ6" s="7" t="s">
         <v>225</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="AS6" s="96" t="s">
-        <v>57</v>
+        <v>394</v>
+      </c>
+      <c r="AS6" s="137" t="s">
+        <v>474</v>
       </c>
       <c r="AT6" s="7" t="s">
         <v>225</v>
@@ -4199,7 +4282,7 @@
         <v>225</v>
       </c>
       <c r="AW6" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AX6" s="96" t="s">
         <v>58</v>
@@ -4214,7 +4297,7 @@
         <v>225</v>
       </c>
       <c r="BB6" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BC6" s="96" t="s">
         <v>60</v>
@@ -4229,10 +4312,10 @@
         <v>225</v>
       </c>
       <c r="BG6" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="BH6" s="96" t="s">
-        <v>59</v>
+        <v>394</v>
+      </c>
+      <c r="BH6" s="137" t="s">
+        <v>475</v>
       </c>
       <c r="BI6" s="7" t="s">
         <v>225</v>
@@ -4244,841 +4327,841 @@
         <v>225</v>
       </c>
       <c r="BL6" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="BM6" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="BM6" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="BN6" s="144" t="s">
-        <v>60</v>
+      <c r="BN6" s="96" t="s">
+        <v>476</v>
       </c>
       <c r="BO6" s="18" t="s">
         <v>225</v>
       </c>
       <c r="BP6" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="BQ6" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="BQ6" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="BR6" s="144" t="s">
-        <v>60</v>
+      <c r="BR6" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="BS6" s="18" t="s">
         <v>225</v>
       </c>
       <c r="BT6" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="BU6" s="179" t="s">
+        <v>396</v>
+      </c>
+      <c r="BU6" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV6" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV6" s="179" t="s">
+      <c r="BW6" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW6" s="179" t="s">
+      <c r="BX6" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX6" s="180" t="s">
+      <c r="BY6" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY6" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ6" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA6" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB6" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB6" s="49" t="s">
+      <c r="CC6" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC6" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD6" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="CE6" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF6" s="168" t="s">
+      <c r="CF6" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG6" s="129" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
-    <row r="7" spans="1:85" ht="24.75">
+    <row r="7" spans="1:85" ht="15.75">
       <c r="A7" s="13" t="s">
         <v>188</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>482</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="J7" s="139" t="s">
         <v>49</v>
       </c>
       <c r="K7" s="125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L7" s="139" t="s">
         <v>49</v>
       </c>
       <c r="M7" s="125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N7" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O7" s="125">
-        <v>1</v>
-      </c>
-      <c r="P7" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="125">
-        <v>2021</v>
+      <c r="O7" s="17">
+        <v>3</v>
+      </c>
+      <c r="P7" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>2022</v>
       </c>
       <c r="R7" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S7" s="125" t="s">
-        <v>400</v>
-      </c>
-      <c r="T7" s="125">
-        <v>31</v>
-      </c>
-      <c r="U7" s="125">
-        <v>12</v>
+        <v>399</v>
+      </c>
+      <c r="T7" s="17">
+        <v>5</v>
+      </c>
+      <c r="U7" s="17">
+        <v>5</v>
       </c>
       <c r="V7" s="141">
         <v>2025</v>
       </c>
-      <c r="W7" s="166" t="s">
-        <v>400</v>
+      <c r="W7" s="165" t="s">
+        <v>399</v>
       </c>
       <c r="X7" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y7" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA7" s="157" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB7" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC7" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD7" s="157" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE7" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF7" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH7" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI7" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AJ7" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AK7" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL7" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM7" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN7" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO7" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP7" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR7" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS7" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT7" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="Y7" s="169" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z7" s="157" t="s">
+      <c r="AU7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW7" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="AA7" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB7" s="157" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC7" s="170" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD7" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE7" s="157" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF7" s="157" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG7" s="171" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH7" s="157" t="s">
-        <v>403</v>
-      </c>
-      <c r="AI7" s="157" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ7" s="157" t="s">
-        <v>403</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM7" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN7" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AO7" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="AP7" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AR7" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="AS7" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT7" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="AV7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AW7" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="AX7" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AZ7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA7" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="BA7" s="9" t="s">
+      <c r="BB7" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="BC7" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BD7" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BE7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF7" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="BF7" s="9" t="s">
+      <c r="BG7" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="BG7" s="9" t="s">
+      <c r="BH7" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BM7" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="BH7" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI7" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="BJ7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BK7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BN7" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BO7" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="BP7" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="BM7" s="17" t="s">
+      <c r="BQ7" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="BN7" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO7" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="BP7" s="17" t="s">
+      <c r="BR7" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BS7" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="BT7" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="BQ7" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BR7" s="144" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS7" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="BT7" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BU7" s="179" t="s">
+      <c r="BU7" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV7" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV7" s="179" t="s">
+      <c r="BW7" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW7" s="179" t="s">
+      <c r="BX7" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX7" s="180" t="s">
+      <c r="BY7" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY7" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ7" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA7" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB7" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB7" s="49" t="s">
+      <c r="CC7" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC7" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD7" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="CE7" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF7" s="168" t="s">
+      <c r="CF7" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG7" s="129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:85" ht="24.75">
+    <row r="8" spans="1:85" ht="15.75">
       <c r="A8" s="13" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>483</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>392</v>
+        <v>490</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J8" s="139" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L8" s="139" t="s">
         <v>49</v>
       </c>
       <c r="M8" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N8" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="125">
-        <v>1</v>
-      </c>
-      <c r="P8" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="125">
-        <v>2021</v>
+      <c r="O8" s="17">
+        <v>3</v>
+      </c>
+      <c r="P8" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>2022</v>
       </c>
       <c r="R8" s="125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>401</v>
-      </c>
-      <c r="T8" s="125">
-        <v>31</v>
-      </c>
-      <c r="U8" s="125">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="T8" s="17">
+        <v>5</v>
+      </c>
+      <c r="U8" s="17">
+        <v>5</v>
       </c>
       <c r="V8" s="141">
         <v>2025</v>
       </c>
-      <c r="W8" s="166" t="s">
-        <v>401</v>
+      <c r="W8" s="165" t="s">
+        <v>400</v>
       </c>
       <c r="X8" s="157" t="s">
-        <v>401</v>
-      </c>
-      <c r="Y8" s="169" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y8" s="168" t="s">
         <v>81</v>
       </c>
       <c r="Z8" s="157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AA8" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AB8" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC8" s="170" t="s">
-        <v>414</v>
+        <v>391</v>
+      </c>
+      <c r="AC8" s="169" t="s">
+        <v>413</v>
       </c>
       <c r="AD8" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE8" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF8" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG8" s="171" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="AG8" s="41" t="s">
+        <v>478</v>
       </c>
       <c r="AH8" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI8" s="157" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AJ8" s="157" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AK8" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM8" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM8" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AN8" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AP8" s="173" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP8" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AS8" s="96" t="s">
-        <v>57</v>
+        <v>391</v>
+      </c>
+      <c r="AS8" s="137" t="s">
+        <v>474</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AX8" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BC8" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BD8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BE8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BG8" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BH8" s="96" t="s">
-        <v>59</v>
+        <v>391</v>
+      </c>
+      <c r="BH8" s="137" t="s">
+        <v>475</v>
       </c>
       <c r="BI8" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BJ8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BK8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BL8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BM8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BN8" s="144" t="s">
-        <v>60</v>
+        <v>391</v>
+      </c>
+      <c r="BN8" s="96" t="s">
+        <v>476</v>
       </c>
       <c r="BO8" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BP8" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BQ8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BR8" s="144" t="s">
-        <v>60</v>
+        <v>391</v>
+      </c>
+      <c r="BR8" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="BS8" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BT8" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BU8" s="179" t="s">
+        <v>391</v>
+      </c>
+      <c r="BU8" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV8" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV8" s="179" t="s">
+      <c r="BW8" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW8" s="179" t="s">
+      <c r="BX8" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX8" s="180" t="s">
+      <c r="BY8" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY8" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ8" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA8" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB8" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB8" s="49" t="s">
+      <c r="CC8" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC8" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD8" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CE8" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF8" s="168" t="s">
+      <c r="CF8" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG8" s="129" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:85" ht="24.75">
+    <row r="9" spans="1:85" ht="15.75">
       <c r="A9" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E9" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>484</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>393</v>
+        <v>491</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J9" s="139" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L9" s="139" t="s">
         <v>49</v>
       </c>
       <c r="M9" s="125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N9" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="O9" s="125">
-        <v>1</v>
-      </c>
-      <c r="P9" s="125">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="125">
-        <v>2021</v>
+      <c r="O9" s="17">
+        <v>3</v>
+      </c>
+      <c r="P9" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>2022</v>
       </c>
       <c r="R9" s="125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>393</v>
-      </c>
-      <c r="T9" s="125">
-        <v>31</v>
-      </c>
-      <c r="U9" s="125">
-        <v>12</v>
+        <v>392</v>
+      </c>
+      <c r="T9" s="17">
+        <v>5</v>
+      </c>
+      <c r="U9" s="17">
+        <v>5</v>
       </c>
       <c r="V9" s="141">
         <v>2025</v>
       </c>
-      <c r="W9" s="166" t="s">
-        <v>393</v>
+      <c r="W9" s="165" t="s">
+        <v>392</v>
       </c>
       <c r="X9" s="157" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y9" s="169" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y9" s="168" t="s">
         <v>81</v>
       </c>
       <c r="Z9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AB9" s="157" t="s">
-        <v>393</v>
-      </c>
-      <c r="AC9" s="170" t="s">
-        <v>414</v>
+        <v>392</v>
+      </c>
+      <c r="AC9" s="169" t="s">
+        <v>413</v>
       </c>
       <c r="AD9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AE9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AF9" s="157" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG9" s="171" t="s">
-        <v>57</v>
+        <v>392</v>
+      </c>
+      <c r="AG9" s="41" t="s">
+        <v>478</v>
       </c>
       <c r="AH9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AI9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ9" s="157" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AK9" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM9" s="173" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM9" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AN9" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AO9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="AP9" s="173" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP9" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="AS9" s="96" t="s">
-        <v>57</v>
+        <v>392</v>
+      </c>
+      <c r="AS9" s="137" t="s">
+        <v>474</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AX9" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AY9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC9" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BD9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BE9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BF9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BG9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="BH9" s="96" t="s">
-        <v>59</v>
+        <v>392</v>
+      </c>
+      <c r="BH9" s="137" t="s">
+        <v>475</v>
       </c>
       <c r="BI9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BJ9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BK9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BL9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BM9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="BN9" s="144" t="s">
-        <v>60</v>
+        <v>392</v>
+      </c>
+      <c r="BN9" s="96" t="s">
+        <v>476</v>
       </c>
       <c r="BO9" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BP9" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BQ9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="BR9" s="144" t="s">
-        <v>60</v>
+        <v>392</v>
+      </c>
+      <c r="BR9" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="BS9" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BT9" s="17" t="s">
-        <v>393</v>
-      </c>
-      <c r="BU9" s="179" t="s">
+        <v>392</v>
+      </c>
+      <c r="BU9" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV9" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV9" s="179" t="s">
+      <c r="BW9" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW9" s="179" t="s">
+      <c r="BX9" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX9" s="180" t="s">
+      <c r="BY9" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY9" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ9" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA9" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB9" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB9" s="49" t="s">
+      <c r="CC9" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC9" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD9" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="CE9" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF9" s="168" t="s">
+      <c r="CF9" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG9" s="129" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:85" ht="15.75">
@@ -5086,13 +5169,13 @@
         <v>203</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E10" s="148" t="s">
         <v>81</v>
@@ -5101,10 +5184,10 @@
         <v>123456789</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I10" s="17">
         <v>0</v>
@@ -5113,70 +5196,70 @@
         <v>49</v>
       </c>
       <c r="K10" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L10" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N10" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="O10" s="108">
-        <v>1</v>
-      </c>
-      <c r="P10" s="108">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="108">
-        <v>2021</v>
+      <c r="O10" s="17">
+        <v>3</v>
+      </c>
+      <c r="P10" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>2022</v>
       </c>
       <c r="R10" s="108" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S10" s="108" t="s">
-        <v>437</v>
-      </c>
-      <c r="T10" s="108">
-        <v>1</v>
-      </c>
-      <c r="U10" s="108">
-        <v>1</v>
+        <v>436</v>
+      </c>
+      <c r="T10" s="17">
+        <v>5</v>
+      </c>
+      <c r="U10" s="17">
+        <v>5</v>
       </c>
       <c r="V10" s="108">
         <v>2025</v>
       </c>
       <c r="W10" s="108" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="X10" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y10" s="173" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y10" s="171" t="s">
         <v>81</v>
       </c>
       <c r="Z10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AA10" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC10" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE10" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="AB10" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="AC10" s="174" t="s">
-        <v>414</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>458</v>
-      </c>
       <c r="AF10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG10" s="148" t="s">
         <v>81</v>
@@ -5185,13 +5268,13 @@
         <v>123456789</v>
       </c>
       <c r="AI10" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AJ10" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AK10" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL10" s="108">
         <v>0</v>
@@ -5200,7 +5283,7 @@
         <v>138</v>
       </c>
       <c r="AN10" s="108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO10" s="108">
         <v>0</v>
@@ -5209,73 +5292,73 @@
         <v>140</v>
       </c>
       <c r="AQ10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AR10" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="AS10" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="AS10" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AT10" s="146">
         <v>123456789</v>
       </c>
-      <c r="AU10" s="178" t="s">
-        <v>440</v>
+      <c r="AU10" s="176" t="s">
+        <v>493</v>
       </c>
       <c r="AV10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AW10" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="AX10" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX10" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AY10" s="146">
         <v>123456789</v>
       </c>
-      <c r="AZ10" s="178" t="s">
-        <v>440</v>
+      <c r="AZ10" s="176" t="s">
+        <v>439</v>
       </c>
       <c r="BA10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BB10" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="BC10" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="BC10" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BD10" s="146">
         <v>123456789</v>
       </c>
-      <c r="BE10" s="178" t="s">
-        <v>440</v>
+      <c r="BE10" s="176" t="s">
+        <v>439</v>
       </c>
       <c r="BF10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BG10" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="BH10" s="177" t="s">
+        <v>417</v>
+      </c>
+      <c r="BH10" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BI10" s="146">
         <v>123456789</v>
       </c>
-      <c r="BJ10" s="178" t="s">
-        <v>440</v>
+      <c r="BJ10" s="176" t="s">
+        <v>439</v>
       </c>
       <c r="BK10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BL10" s="146" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BM10" s="125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BN10" s="140" t="s">
         <v>81</v>
@@ -5284,10 +5367,10 @@
         <v>123456789</v>
       </c>
       <c r="BP10" s="151" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BQ10" s="125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BR10" s="140" t="s">
         <v>81</v>
@@ -5296,46 +5379,46 @@
         <v>123456789</v>
       </c>
       <c r="BT10" s="151" t="s">
-        <v>440</v>
-      </c>
-      <c r="BU10" s="179" t="s">
+        <v>439</v>
+      </c>
+      <c r="BU10" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV10" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV10" s="179" t="s">
+      <c r="BW10" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW10" s="179" t="s">
+      <c r="BX10" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX10" s="180" t="s">
+      <c r="BY10" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY10" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ10" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA10" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB10" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB10" s="49" t="s">
+      <c r="CC10" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC10" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD10" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CE10" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF10" s="168" t="s">
+      <c r="CF10" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG10" s="129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:85" ht="15.75">
@@ -5343,13 +5426,13 @@
         <v>201</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>81</v>
@@ -5358,10 +5441,10 @@
         <v>1234567810</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I11" s="17">
         <v>1</v>
@@ -5370,70 +5453,70 @@
         <v>49</v>
       </c>
       <c r="K11" s="108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L11" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M11" s="108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N11" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="O11" s="108">
-        <v>1</v>
-      </c>
-      <c r="P11" s="108">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="108">
-        <v>2021</v>
+      <c r="O11" s="17">
+        <v>3</v>
+      </c>
+      <c r="P11" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>2022</v>
       </c>
       <c r="R11" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S11" s="108" t="s">
-        <v>438</v>
-      </c>
-      <c r="T11" s="108">
-        <v>1</v>
-      </c>
-      <c r="U11" s="108">
-        <v>1</v>
+        <v>437</v>
+      </c>
+      <c r="T11" s="17">
+        <v>5</v>
+      </c>
+      <c r="U11" s="17">
+        <v>5</v>
       </c>
       <c r="V11" s="108">
         <v>2025</v>
       </c>
       <c r="W11" s="108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X11" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y11" s="173" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y11" s="171" t="s">
         <v>81</v>
       </c>
       <c r="Z11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC11" s="174" t="s">
-        <v>414</v>
+        <v>422</v>
+      </c>
+      <c r="AC11" s="172" t="s">
+        <v>413</v>
       </c>
       <c r="AD11" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG11" s="148" t="s">
         <v>81</v>
@@ -5442,13 +5525,13 @@
         <v>1234567810</v>
       </c>
       <c r="AI11" s="17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AJ11" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK11" s="108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL11" s="108">
         <v>0.01</v>
@@ -5457,7 +5540,7 @@
         <v>138</v>
       </c>
       <c r="AN11" s="108" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AO11" s="108">
         <v>0.01</v>
@@ -5466,73 +5549,73 @@
         <v>140</v>
       </c>
       <c r="AQ11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AR11" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AS11" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="AS11" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AT11" s="146">
         <v>1234567810</v>
       </c>
       <c r="AU11" s="135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AV11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AW11" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AX11" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="AX11" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AY11" s="146">
         <v>1234567810</v>
       </c>
       <c r="AZ11" s="135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BA11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BB11" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BC11" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="BC11" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BD11" s="146">
         <v>1234567810</v>
       </c>
       <c r="BE11" s="135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BF11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BG11" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BH11" s="177" t="s">
+        <v>418</v>
+      </c>
+      <c r="BH11" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BI11" s="146">
         <v>1234567810</v>
       </c>
       <c r="BJ11" s="135" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BK11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BL11" s="146" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BM11" s="125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BN11" s="140" t="s">
         <v>81</v>
@@ -5541,10 +5624,10 @@
         <v>1234567810</v>
       </c>
       <c r="BP11" s="154" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BQ11" s="125" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BR11" s="140" t="s">
         <v>81</v>
@@ -5553,46 +5636,46 @@
         <v>1234567810</v>
       </c>
       <c r="BT11" s="154" t="s">
-        <v>439</v>
-      </c>
-      <c r="BU11" s="179" t="s">
+        <v>438</v>
+      </c>
+      <c r="BU11" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV11" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV11" s="179" t="s">
+      <c r="BW11" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW11" s="179" t="s">
+      <c r="BX11" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX11" s="180" t="s">
+      <c r="BY11" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY11" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ11" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA11" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB11" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB11" s="49" t="s">
+      <c r="CC11" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC11" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD11" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CE11" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF11" s="168" t="s">
+      <c r="CF11" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG11" s="129" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:85" ht="15.75">
@@ -5600,13 +5683,13 @@
         <v>202</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E12" s="148" t="s">
         <v>81</v>
@@ -5614,11 +5697,11 @@
       <c r="F12" s="17">
         <v>1234567810</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>424</v>
+      <c r="G12" s="19" t="s">
+        <v>498</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="I12" s="17">
         <v>3000000</v>
@@ -5627,70 +5710,70 @@
         <v>49</v>
       </c>
       <c r="K12" s="108" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L12" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M12" s="108" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N12" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="108">
-        <v>1</v>
-      </c>
-      <c r="P12" s="108">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="108">
-        <v>2021</v>
+      <c r="O12" s="17">
+        <v>3</v>
+      </c>
+      <c r="P12" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>2022</v>
       </c>
       <c r="R12" s="108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>435</v>
-      </c>
-      <c r="T12" s="108">
-        <v>1</v>
-      </c>
-      <c r="U12" s="108">
-        <v>1</v>
+        <v>434</v>
+      </c>
+      <c r="T12" s="17">
+        <v>5</v>
+      </c>
+      <c r="U12" s="17">
+        <v>5</v>
       </c>
       <c r="V12" s="108">
         <v>2025</v>
       </c>
       <c r="W12" s="108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="X12" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="Y12" s="173" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y12" s="171" t="s">
         <v>81</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="AC12" s="174" t="s">
-        <v>414</v>
+        <v>419</v>
+      </c>
+      <c r="AC12" s="172" t="s">
+        <v>413</v>
       </c>
       <c r="AD12" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF12" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG12" s="148" t="s">
         <v>81</v>
@@ -5699,13 +5782,13 @@
         <v>1234567810</v>
       </c>
       <c r="AI12" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AJ12" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AK12" s="108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL12" s="108">
         <v>100</v>
@@ -5714,7 +5797,7 @@
         <v>138</v>
       </c>
       <c r="AN12" s="108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO12" s="108">
         <v>100</v>
@@ -5723,73 +5806,73 @@
         <v>140</v>
       </c>
       <c r="AQ12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AR12" s="146" t="s">
-        <v>420</v>
-      </c>
-      <c r="AS12" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS12" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AT12" s="146">
         <v>1234567810</v>
       </c>
       <c r="AU12" s="146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AV12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AW12" s="146" t="s">
-        <v>420</v>
-      </c>
-      <c r="AX12" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX12" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AY12" s="146">
         <v>1234567810</v>
       </c>
       <c r="AZ12" s="146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BA12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BB12" s="146" t="s">
-        <v>420</v>
-      </c>
-      <c r="BC12" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC12" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BD12" s="146">
         <v>1234567810</v>
       </c>
       <c r="BE12" s="146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BF12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BG12" s="146" t="s">
-        <v>420</v>
-      </c>
-      <c r="BH12" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="BH12" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BI12" s="146">
         <v>1234567810</v>
       </c>
       <c r="BJ12" s="146" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BK12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BL12" s="146" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BM12" s="125" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BN12" s="140" t="s">
         <v>81</v>
@@ -5798,10 +5881,10 @@
         <v>1234567810</v>
       </c>
       <c r="BP12" s="125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="BQ12" s="125" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BR12" s="140" t="s">
         <v>81</v>
@@ -5810,60 +5893,60 @@
         <v>1234567810</v>
       </c>
       <c r="BT12" s="125" t="s">
-        <v>441</v>
-      </c>
-      <c r="BU12" s="179" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU12" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV12" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV12" s="179" t="s">
+      <c r="BW12" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW12" s="179" t="s">
+      <c r="BX12" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX12" s="180" t="s">
+      <c r="BY12" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY12" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ12" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA12" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB12" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB12" s="49" t="s">
+      <c r="CC12" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC12" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD12" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="CE12" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF12" s="168" t="s">
+      <c r="CF12" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG12" s="129" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:85" ht="15.75">
       <c r="A13" s="159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>81</v>
@@ -5871,11 +5954,11 @@
       <c r="F13" s="17">
         <v>12345678911</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>425</v>
+      <c r="G13" s="19" t="s">
+        <v>499</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="I13" s="17">
         <v>3000001</v>
@@ -5884,70 +5967,70 @@
         <v>49</v>
       </c>
       <c r="K13" s="108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L13" s="137" t="s">
         <v>49</v>
       </c>
       <c r="M13" s="108" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N13" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="O13" s="108">
-        <v>1</v>
-      </c>
-      <c r="P13" s="108">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="108">
-        <v>2021</v>
+      <c r="O13" s="17">
+        <v>3</v>
+      </c>
+      <c r="P13" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>2022</v>
       </c>
       <c r="R13" s="108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="T13" s="108">
-        <v>1</v>
-      </c>
-      <c r="U13" s="108">
-        <v>1</v>
+        <v>435</v>
+      </c>
+      <c r="T13" s="17">
+        <v>5</v>
+      </c>
+      <c r="U13" s="17">
+        <v>5</v>
       </c>
       <c r="V13" s="108">
         <v>2025</v>
       </c>
       <c r="W13" s="108" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="X13" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y13" s="173" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y13" s="171" t="s">
         <v>81</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="AC13" s="174" t="s">
-        <v>414</v>
+        <v>420</v>
+      </c>
+      <c r="AC13" s="172" t="s">
+        <v>413</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF13" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG13" s="148" t="s">
         <v>81</v>
@@ -5956,13 +6039,13 @@
         <v>12345678911</v>
       </c>
       <c r="AI13" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AJ13" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK13" s="108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL13" s="108">
         <v>100.01</v>
@@ -5971,7 +6054,7 @@
         <v>138</v>
       </c>
       <c r="AN13" s="108" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AO13" s="108">
         <v>100.01</v>
@@ -5980,73 +6063,73 @@
         <v>140</v>
       </c>
       <c r="AQ13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AR13" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="AS13" s="177" t="s">
+        <v>420</v>
+      </c>
+      <c r="AS13" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AT13" s="146">
         <v>12345678911</v>
       </c>
       <c r="AU13" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AV13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AW13" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="AX13" s="177" t="s">
+        <v>420</v>
+      </c>
+      <c r="AX13" s="175" t="s">
         <v>81</v>
       </c>
       <c r="AY13" s="146">
         <v>12345678911</v>
       </c>
       <c r="AZ13" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BA13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BB13" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BC13" s="177" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC13" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BD13" s="146">
         <v>12345678911</v>
       </c>
       <c r="BE13" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BF13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BG13" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BH13" s="177" t="s">
+        <v>420</v>
+      </c>
+      <c r="BH13" s="175" t="s">
         <v>81</v>
       </c>
       <c r="BI13" s="146">
         <v>12345678911</v>
       </c>
       <c r="BJ13" s="146" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BK13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BL13" s="146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BM13" s="125" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BN13" s="140" t="s">
         <v>81</v>
@@ -6055,10 +6138,10 @@
         <v>12345678911</v>
       </c>
       <c r="BP13" s="125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="BQ13" s="125" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BR13" s="140" t="s">
         <v>81</v>
@@ -6067,51 +6150,51 @@
         <v>12345678911</v>
       </c>
       <c r="BT13" s="125" t="s">
-        <v>442</v>
-      </c>
-      <c r="BU13" s="179" t="s">
+        <v>441</v>
+      </c>
+      <c r="BU13" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BV13" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BV13" s="179" t="s">
+      <c r="BW13" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BW13" s="179" t="s">
+      <c r="BX13" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BX13" s="180" t="s">
+      <c r="BY13" s="178" t="s">
         <v>452</v>
-      </c>
-      <c r="BY13" s="180" t="s">
-        <v>453</v>
       </c>
       <c r="BZ13" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CA13" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CB13" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CB13" s="49" t="s">
+      <c r="CC13" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CC13" s="49" t="s">
-        <v>456</v>
-      </c>
       <c r="CD13" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CE13" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF13" s="168" t="s">
+      <c r="CF13" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG13" s="129" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:85">
       <c r="A14" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14" s="108"/>
       <c r="C14" s="108"/>
@@ -6146,14 +6229,14 @@
       <c r="V14" s="157"/>
       <c r="W14" s="157"/>
       <c r="X14" s="125"/>
-      <c r="Y14" s="175" t="s">
+      <c r="Y14" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z14" s="125"/>
       <c r="AA14" s="125"/>
       <c r="AB14" s="125"/>
-      <c r="AC14" s="176" t="s">
-        <v>414</v>
+      <c r="AC14" s="174" t="s">
+        <v>413</v>
       </c>
       <c r="AD14" s="125"/>
       <c r="AE14" s="125"/>
@@ -6219,16 +6302,16 @@
       <c r="CE14" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF14" s="168" t="s">
+      <c r="CF14" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG14" s="129" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:85">
       <c r="A15" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -6263,14 +6346,14 @@
       <c r="V15" s="157"/>
       <c r="W15" s="157"/>
       <c r="X15" s="125"/>
-      <c r="Y15" s="175" t="s">
+      <c r="Y15" s="173" t="s">
         <v>81</v>
       </c>
       <c r="Z15" s="125"/>
       <c r="AA15" s="125"/>
       <c r="AB15" s="125"/>
-      <c r="AC15" s="176" t="s">
-        <v>414</v>
+      <c r="AC15" s="174" t="s">
+        <v>413</v>
       </c>
       <c r="AD15" s="125"/>
       <c r="AE15" s="125"/>
@@ -6336,11 +6419,11 @@
       <c r="CE15" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF15" s="168" t="s">
+      <c r="CF15" s="167" t="s">
         <v>255</v>
       </c>
       <c r="CG15" s="129" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -6364,7 +6447,7 @@
     <hyperlink ref="BE11" r:id="rId16" xr:uid="{C52E7F19-86CD-4D32-916F-3E8C5D21C04D}"/>
     <hyperlink ref="AZ10" r:id="rId17" display="s@f.in" xr:uid="{3D2ACC8F-02F4-4949-827F-689684E6809D}"/>
     <hyperlink ref="AZ11" r:id="rId18" xr:uid="{CE2086DF-C317-4DDC-A840-898FC14402DB}"/>
-    <hyperlink ref="AU10" r:id="rId19" display="s@f.in" xr:uid="{DC809BA8-29FF-4EB9-AE3F-3E9A2776356B}"/>
+    <hyperlink ref="AU10" r:id="rId19" display="h@f.in" xr:uid="{DC809BA8-29FF-4EB9-AE3F-3E9A2776356B}"/>
     <hyperlink ref="AU11" r:id="rId20" xr:uid="{66499FF7-59F7-42DD-B53A-B1BE31E5A262}"/>
     <hyperlink ref="BJ10" r:id="rId21" display="s@f.in" xr:uid="{516748F5-9ADA-40DE-8388-9B661B4B4C7D}"/>
     <hyperlink ref="BJ11" r:id="rId22" xr:uid="{BA1DCDA7-8EE4-4513-B93E-01A4A4BCC3D7}"/>
@@ -6373,45 +6456,52 @@
     <hyperlink ref="BT10" r:id="rId25" display="s@f.in" xr:uid="{346AF39F-1816-49D4-B12B-6167B37CD578}"/>
     <hyperlink ref="BT11" r:id="rId26" xr:uid="{C85208AD-52B2-42DD-8461-6BFFF5551B3F}"/>
     <hyperlink ref="G4" r:id="rId27" xr:uid="{101770EE-3D16-44F0-B9CB-A1859BB95D90}"/>
-    <hyperlink ref="AU4" r:id="rId28" xr:uid="{EC0A76B3-9C0C-4359-9793-FF708D2614A3}"/>
-    <hyperlink ref="AZ4" r:id="rId29" xr:uid="{AEADA319-29AC-40AD-ABFA-E2AF34F948AC}"/>
-    <hyperlink ref="BE4" r:id="rId30" xr:uid="{3187DE67-F0C9-4DF7-9B73-AFB0794086AC}"/>
-    <hyperlink ref="BJ4" r:id="rId31" xr:uid="{4689034F-B74D-411C-AD0E-5C66E2E5851C}"/>
-    <hyperlink ref="G10" r:id="rId32" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
-    <hyperlink ref="G11" r:id="rId33" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
-    <hyperlink ref="BZ3" r:id="rId34" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
-    <hyperlink ref="BZ4" r:id="rId35" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
-    <hyperlink ref="BZ10" r:id="rId36" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
-    <hyperlink ref="BZ11" r:id="rId37" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
-    <hyperlink ref="BZ12" r:id="rId38" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
-    <hyperlink ref="BZ13" r:id="rId39" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
-    <hyperlink ref="CE4" r:id="rId40" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
-    <hyperlink ref="CE5" r:id="rId41" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
-    <hyperlink ref="CE6" r:id="rId42" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
-    <hyperlink ref="CE7" r:id="rId43" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
-    <hyperlink ref="CE8" r:id="rId44" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
-    <hyperlink ref="CE9" r:id="rId45" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
-    <hyperlink ref="CE10" r:id="rId46" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
-    <hyperlink ref="CE11" r:id="rId47" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
-    <hyperlink ref="CE12" r:id="rId48" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
-    <hyperlink ref="CE13" r:id="rId49" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
-    <hyperlink ref="CE14" r:id="rId50" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
-    <hyperlink ref="CE15" r:id="rId51" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
-    <hyperlink ref="CG4" r:id="rId52" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
-    <hyperlink ref="CG5" r:id="rId53" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
-    <hyperlink ref="CG6" r:id="rId54" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
-    <hyperlink ref="CG7" r:id="rId55" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
-    <hyperlink ref="CG8" r:id="rId56" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
-    <hyperlink ref="CG9" r:id="rId57" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
-    <hyperlink ref="CG10" r:id="rId58" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
-    <hyperlink ref="CG11" r:id="rId59" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
-    <hyperlink ref="CG12" r:id="rId60" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
-    <hyperlink ref="CG13" r:id="rId61" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
-    <hyperlink ref="CG14" r:id="rId62" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
-    <hyperlink ref="CG15" r:id="rId63" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
+    <hyperlink ref="AZ4" r:id="rId28" xr:uid="{AEADA319-29AC-40AD-ABFA-E2AF34F948AC}"/>
+    <hyperlink ref="BE4" r:id="rId29" xr:uid="{3187DE67-F0C9-4DF7-9B73-AFB0794086AC}"/>
+    <hyperlink ref="BJ4" r:id="rId30" xr:uid="{4689034F-B74D-411C-AD0E-5C66E2E5851C}"/>
+    <hyperlink ref="G11" r:id="rId31" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="BZ3" r:id="rId32" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
+    <hyperlink ref="BZ4" r:id="rId33" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
+    <hyperlink ref="BZ10" r:id="rId34" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
+    <hyperlink ref="BZ11" r:id="rId35" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
+    <hyperlink ref="BZ12" r:id="rId36" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
+    <hyperlink ref="BZ13" r:id="rId37" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
+    <hyperlink ref="CE4" r:id="rId38" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
+    <hyperlink ref="CE5" r:id="rId39" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
+    <hyperlink ref="CE6" r:id="rId40" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
+    <hyperlink ref="CE7" r:id="rId41" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
+    <hyperlink ref="CE8" r:id="rId42" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
+    <hyperlink ref="CE9" r:id="rId43" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
+    <hyperlink ref="CE10" r:id="rId44" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
+    <hyperlink ref="CE11" r:id="rId45" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
+    <hyperlink ref="CE12" r:id="rId46" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
+    <hyperlink ref="CE13" r:id="rId47" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
+    <hyperlink ref="CE14" r:id="rId48" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
+    <hyperlink ref="CE15" r:id="rId49" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
+    <hyperlink ref="CG4" r:id="rId50" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
+    <hyperlink ref="CG5" r:id="rId51" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
+    <hyperlink ref="CG6" r:id="rId52" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
+    <hyperlink ref="CG7" r:id="rId53" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
+    <hyperlink ref="CG8" r:id="rId54" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
+    <hyperlink ref="CG9" r:id="rId55" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
+    <hyperlink ref="CG10" r:id="rId56" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
+    <hyperlink ref="CG11" r:id="rId57" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
+    <hyperlink ref="CG12" r:id="rId58" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
+    <hyperlink ref="CG13" r:id="rId59" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
+    <hyperlink ref="CG14" r:id="rId60" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
+    <hyperlink ref="CG15" r:id="rId61" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
+    <hyperlink ref="G10" r:id="rId62" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
+    <hyperlink ref="G6" r:id="rId63" xr:uid="{0DE96515-1CF3-47FB-9F75-C596CF19E46D}"/>
+    <hyperlink ref="G7" r:id="rId64" xr:uid="{984F31DC-EAA1-4F7F-9210-EE6436FAAD24}"/>
+    <hyperlink ref="G8" r:id="rId65" xr:uid="{B8E2EBA6-074C-4BA2-95F8-ED98105ED0FD}"/>
+    <hyperlink ref="G9" r:id="rId66" location="$%^&amp;*(.in" xr:uid="{DACAED80-A8E6-414A-8045-ED0B1C51F98B}"/>
+    <hyperlink ref="G5" r:id="rId67" xr:uid="{930ED745-AC58-44F1-B9E5-A0134D5D50BA}"/>
+    <hyperlink ref="G12" r:id="rId68" xr:uid="{D269B560-3835-4460-8A2D-B24667187CFD}"/>
+    <hyperlink ref="G13" r:id="rId69" xr:uid="{D1131A9F-7DBE-4CA4-8401-6A6297CF0456}"/>
+    <hyperlink ref="AU4" r:id="rId70" xr:uid="{88205CA7-A6AB-43BA-83EC-D817A7D5FD1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId71"/>
 </worksheet>
 </file>
 

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{547AE027-EF2B-4B4C-899E-F555CD9197FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF612E0-BAAB-41DF-B175-087CF56670C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="506">
   <si>
     <t>Scenario</t>
   </si>
@@ -1586,7 +1586,22 @@
     <t>www.OneTwentyOne121TwentyOneTwentyOneTwentyOneTwentyOneTwentyOnewentyOneTwentyOneTwentyOneTwentyOneTwentyOne121Twenty.com</t>
   </si>
   <si>
-    <t>pbdha12!@#nger@gm.ai-l.com</t>
+    <t>pbdha12nger@gm.ai-l.com</t>
+  </si>
+  <si>
+    <t>asshi-va12de@gm-ail.com</t>
+  </si>
+  <si>
+    <t>emmar_123@gm-ail.com</t>
+  </si>
+  <si>
+    <t>jpdatta@gm.ail.com</t>
+  </si>
+  <si>
+    <t>Jiya@hashtag-info.system.com</t>
+  </si>
+  <si>
+    <t>tom@hashtag.infos-ystem.in</t>
   </si>
 </sst>
 </file>
@@ -2835,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AU20" sqref="AU20"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BT20" sqref="BT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3552,7 +3567,7 @@
         <v>238</v>
       </c>
       <c r="AZ3" s="138" t="s">
-        <v>227</v>
+        <v>501</v>
       </c>
       <c r="BA3" s="108" t="s">
         <v>410</v>
@@ -3567,7 +3582,7 @@
         <v>239</v>
       </c>
       <c r="BE3" s="138" t="s">
-        <v>228</v>
+        <v>502</v>
       </c>
       <c r="BF3" s="108" t="s">
         <v>411</v>
@@ -3582,7 +3597,7 @@
         <v>240</v>
       </c>
       <c r="BJ3" s="138" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
       <c r="BK3" s="108" t="s">
         <v>38</v>
@@ -3600,7 +3615,7 @@
         <v>243</v>
       </c>
       <c r="BP3" s="49" t="s">
-        <v>141</v>
+        <v>504</v>
       </c>
       <c r="BQ3" s="9" t="s">
         <v>264</v>
@@ -3612,7 +3627,7 @@
         <v>244</v>
       </c>
       <c r="BT3" s="49" t="s">
-        <v>145</v>
+        <v>505</v>
       </c>
       <c r="BU3" s="177" t="s">
         <v>448</v>
@@ -3793,7 +3808,7 @@
         <v>238</v>
       </c>
       <c r="AZ4" s="138" t="s">
-        <v>227</v>
+        <v>501</v>
       </c>
       <c r="BA4" s="108" t="s">
         <v>410</v>
@@ -3808,7 +3823,7 @@
         <v>239</v>
       </c>
       <c r="BE4" s="138" t="s">
-        <v>228</v>
+        <v>502</v>
       </c>
       <c r="BF4" s="108" t="s">
         <v>411</v>
@@ -3823,7 +3838,7 @@
         <v>240</v>
       </c>
       <c r="BJ4" s="138" t="s">
-        <v>229</v>
+        <v>503</v>
       </c>
       <c r="BK4" s="108" t="s">
         <v>38</v>
@@ -6456,52 +6471,51 @@
     <hyperlink ref="BT10" r:id="rId25" display="s@f.in" xr:uid="{346AF39F-1816-49D4-B12B-6167B37CD578}"/>
     <hyperlink ref="BT11" r:id="rId26" xr:uid="{C85208AD-52B2-42DD-8461-6BFFF5551B3F}"/>
     <hyperlink ref="G4" r:id="rId27" xr:uid="{101770EE-3D16-44F0-B9CB-A1859BB95D90}"/>
-    <hyperlink ref="AZ4" r:id="rId28" xr:uid="{AEADA319-29AC-40AD-ABFA-E2AF34F948AC}"/>
-    <hyperlink ref="BE4" r:id="rId29" xr:uid="{3187DE67-F0C9-4DF7-9B73-AFB0794086AC}"/>
-    <hyperlink ref="BJ4" r:id="rId30" xr:uid="{4689034F-B74D-411C-AD0E-5C66E2E5851C}"/>
-    <hyperlink ref="G11" r:id="rId31" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
-    <hyperlink ref="BZ3" r:id="rId32" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
-    <hyperlink ref="BZ4" r:id="rId33" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
-    <hyperlink ref="BZ10" r:id="rId34" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
-    <hyperlink ref="BZ11" r:id="rId35" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
-    <hyperlink ref="BZ12" r:id="rId36" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
-    <hyperlink ref="BZ13" r:id="rId37" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
-    <hyperlink ref="CE4" r:id="rId38" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
-    <hyperlink ref="CE5" r:id="rId39" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
-    <hyperlink ref="CE6" r:id="rId40" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
-    <hyperlink ref="CE7" r:id="rId41" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
-    <hyperlink ref="CE8" r:id="rId42" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
-    <hyperlink ref="CE9" r:id="rId43" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
-    <hyperlink ref="CE10" r:id="rId44" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
-    <hyperlink ref="CE11" r:id="rId45" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
-    <hyperlink ref="CE12" r:id="rId46" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
-    <hyperlink ref="CE13" r:id="rId47" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
-    <hyperlink ref="CE14" r:id="rId48" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
-    <hyperlink ref="CE15" r:id="rId49" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
-    <hyperlink ref="CG4" r:id="rId50" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
-    <hyperlink ref="CG5" r:id="rId51" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
-    <hyperlink ref="CG6" r:id="rId52" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
-    <hyperlink ref="CG7" r:id="rId53" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
-    <hyperlink ref="CG8" r:id="rId54" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
-    <hyperlink ref="CG9" r:id="rId55" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
-    <hyperlink ref="CG10" r:id="rId56" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
-    <hyperlink ref="CG11" r:id="rId57" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
-    <hyperlink ref="CG12" r:id="rId58" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
-    <hyperlink ref="CG13" r:id="rId59" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
-    <hyperlink ref="CG14" r:id="rId60" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
-    <hyperlink ref="CG15" r:id="rId61" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
-    <hyperlink ref="G10" r:id="rId62" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
-    <hyperlink ref="G6" r:id="rId63" xr:uid="{0DE96515-1CF3-47FB-9F75-C596CF19E46D}"/>
-    <hyperlink ref="G7" r:id="rId64" xr:uid="{984F31DC-EAA1-4F7F-9210-EE6436FAAD24}"/>
-    <hyperlink ref="G8" r:id="rId65" xr:uid="{B8E2EBA6-074C-4BA2-95F8-ED98105ED0FD}"/>
-    <hyperlink ref="G9" r:id="rId66" location="$%^&amp;*(.in" xr:uid="{DACAED80-A8E6-414A-8045-ED0B1C51F98B}"/>
-    <hyperlink ref="G5" r:id="rId67" xr:uid="{930ED745-AC58-44F1-B9E5-A0134D5D50BA}"/>
-    <hyperlink ref="G12" r:id="rId68" xr:uid="{D269B560-3835-4460-8A2D-B24667187CFD}"/>
-    <hyperlink ref="G13" r:id="rId69" xr:uid="{D1131A9F-7DBE-4CA4-8401-6A6297CF0456}"/>
-    <hyperlink ref="AU4" r:id="rId70" xr:uid="{88205CA7-A6AB-43BA-83EC-D817A7D5FD1D}"/>
+    <hyperlink ref="G11" r:id="rId28" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="BZ3" r:id="rId29" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
+    <hyperlink ref="BZ4" r:id="rId30" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
+    <hyperlink ref="BZ10" r:id="rId31" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
+    <hyperlink ref="BZ11" r:id="rId32" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
+    <hyperlink ref="BZ12" r:id="rId33" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
+    <hyperlink ref="BZ13" r:id="rId34" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
+    <hyperlink ref="CE4" r:id="rId35" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
+    <hyperlink ref="CE5" r:id="rId36" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
+    <hyperlink ref="CE6" r:id="rId37" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
+    <hyperlink ref="CE7" r:id="rId38" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
+    <hyperlink ref="CE8" r:id="rId39" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
+    <hyperlink ref="CE9" r:id="rId40" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
+    <hyperlink ref="CE10" r:id="rId41" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
+    <hyperlink ref="CE11" r:id="rId42" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
+    <hyperlink ref="CE12" r:id="rId43" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
+    <hyperlink ref="CE13" r:id="rId44" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
+    <hyperlink ref="CE14" r:id="rId45" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
+    <hyperlink ref="CE15" r:id="rId46" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
+    <hyperlink ref="CG4" r:id="rId47" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
+    <hyperlink ref="CG5" r:id="rId48" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
+    <hyperlink ref="CG6" r:id="rId49" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
+    <hyperlink ref="CG7" r:id="rId50" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
+    <hyperlink ref="CG8" r:id="rId51" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
+    <hyperlink ref="CG9" r:id="rId52" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
+    <hyperlink ref="CG10" r:id="rId53" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
+    <hyperlink ref="CG11" r:id="rId54" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
+    <hyperlink ref="CG12" r:id="rId55" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
+    <hyperlink ref="CG13" r:id="rId56" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
+    <hyperlink ref="CG14" r:id="rId57" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
+    <hyperlink ref="CG15" r:id="rId58" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
+    <hyperlink ref="G10" r:id="rId59" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
+    <hyperlink ref="G6" r:id="rId60" xr:uid="{0DE96515-1CF3-47FB-9F75-C596CF19E46D}"/>
+    <hyperlink ref="G7" r:id="rId61" xr:uid="{984F31DC-EAA1-4F7F-9210-EE6436FAAD24}"/>
+    <hyperlink ref="G8" r:id="rId62" xr:uid="{B8E2EBA6-074C-4BA2-95F8-ED98105ED0FD}"/>
+    <hyperlink ref="G5" r:id="rId63" xr:uid="{930ED745-AC58-44F1-B9E5-A0134D5D50BA}"/>
+    <hyperlink ref="G12" r:id="rId64" xr:uid="{D269B560-3835-4460-8A2D-B24667187CFD}"/>
+    <hyperlink ref="G13" r:id="rId65" xr:uid="{D1131A9F-7DBE-4CA4-8401-6A6297CF0456}"/>
+    <hyperlink ref="AU4" r:id="rId66" xr:uid="{97E3F465-0108-4498-89B9-65B78B0857A9}"/>
+    <hyperlink ref="AZ4" r:id="rId67" xr:uid="{8E00A5EE-7509-41AE-8C4D-F3D15B7B8DAE}"/>
+    <hyperlink ref="BE4" r:id="rId68" xr:uid="{B3F7C10D-FE5F-4904-93DF-F96091AD156C}"/>
+    <hyperlink ref="BJ4" r:id="rId69" xr:uid="{5C521E3F-C590-42DA-A199-377C610F752D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId71"/>
+  <pageSetup orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
 

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF612E0-BAAB-41DF-B175-087CF56670C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{016B018E-CEC7-46F7-9EAE-778422F97E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="511">
   <si>
     <t>Scenario</t>
   </si>
@@ -1602,6 +1602,21 @@
   </si>
   <si>
     <t>tom@hashtag.infos-ystem.in</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>kiran@gmail.com</t>
+  </si>
+  <si>
+    <t>www.hashtaystem.com</t>
+  </si>
+  <si>
+    <t>sdsfsf@sf.in</t>
+  </si>
+  <si>
+    <t>sdsfsf@sxvf.com</t>
   </si>
 </sst>
 </file>
@@ -1843,7 +1858,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,6 +1982,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2215,7 +2236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2567,6 +2588,28 @@
     <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2848,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
-  <dimension ref="A1:CG15"/>
+  <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BT20" sqref="BT20"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2861,80 +2904,80 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" customWidth="1"/>
-    <col min="19" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" customWidth="1"/>
-    <col min="26" max="26" width="25" customWidth="1"/>
-    <col min="27" max="27" width="17.42578125" customWidth="1"/>
-    <col min="28" max="28" width="18.5703125" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" customWidth="1"/>
-    <col min="31" max="31" width="19" customWidth="1"/>
-    <col min="32" max="32" width="31.85546875" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="33.85546875" customWidth="1"/>
-    <col min="37" max="37" width="21.28515625" customWidth="1"/>
-    <col min="38" max="38" width="14.5703125" customWidth="1"/>
-    <col min="40" max="40" width="16.5703125" customWidth="1"/>
-    <col min="42" max="42" width="10.5703125" customWidth="1"/>
-    <col min="43" max="43" width="15.140625" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" customWidth="1"/>
-    <col min="45" max="45" width="16" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="28.140625" customWidth="1"/>
-    <col min="48" max="48" width="20.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" customWidth="1"/>
-    <col min="51" max="51" width="12.28515625" customWidth="1"/>
-    <col min="52" max="52" width="21.7109375" customWidth="1"/>
-    <col min="53" max="53" width="12.7109375" customWidth="1"/>
-    <col min="54" max="54" width="12" customWidth="1"/>
-    <col min="55" max="55" width="10.7109375" customWidth="1"/>
-    <col min="56" max="56" width="13.42578125" customWidth="1"/>
-    <col min="57" max="57" width="22.5703125" customWidth="1"/>
-    <col min="58" max="58" width="14.7109375" customWidth="1"/>
-    <col min="59" max="59" width="18.7109375" customWidth="1"/>
-    <col min="60" max="60" width="11.85546875" customWidth="1"/>
-    <col min="61" max="61" width="11" customWidth="1"/>
-    <col min="62" max="62" width="21.85546875" customWidth="1"/>
-    <col min="63" max="63" width="14.140625" customWidth="1"/>
-    <col min="64" max="64" width="18.7109375" customWidth="1"/>
-    <col min="65" max="67" width="11.42578125" customWidth="1"/>
-    <col min="68" max="68" width="31" customWidth="1"/>
-    <col min="69" max="69" width="10.85546875" customWidth="1"/>
-    <col min="70" max="71" width="11.7109375" customWidth="1"/>
-    <col min="72" max="72" width="26.7109375" customWidth="1"/>
-    <col min="73" max="73" width="88.5703125" customWidth="1"/>
-    <col min="74" max="74" width="89.5703125" customWidth="1"/>
-    <col min="75" max="75" width="98.140625" customWidth="1"/>
-    <col min="76" max="76" width="97.28515625" customWidth="1"/>
-    <col min="77" max="77" width="90.7109375" customWidth="1"/>
-    <col min="78" max="78" width="59.140625" customWidth="1"/>
-    <col min="79" max="79" width="73.5703125" customWidth="1"/>
-    <col min="80" max="80" width="68" customWidth="1"/>
-    <col min="81" max="81" width="75.85546875" customWidth="1"/>
-    <col min="82" max="82" width="35.7109375" customWidth="1"/>
-    <col min="83" max="83" width="29" customWidth="1"/>
-    <col min="84" max="84" width="17.7109375" customWidth="1"/>
-    <col min="85" max="85" width="16.5703125" customWidth="1"/>
+    <col min="6" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="17" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" customWidth="1"/>
+    <col min="29" max="29" width="18.5703125" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19" customWidth="1"/>
+    <col min="33" max="33" width="31.85546875" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="20.140625" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" customWidth="1"/>
+    <col min="37" max="37" width="33.85546875" customWidth="1"/>
+    <col min="38" max="38" width="21.28515625" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" customWidth="1"/>
+    <col min="41" max="41" width="16.5703125" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" customWidth="1"/>
+    <col min="44" max="44" width="15.140625" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" customWidth="1"/>
+    <col min="46" max="46" width="16" customWidth="1"/>
+    <col min="47" max="47" width="15.7109375" customWidth="1"/>
+    <col min="48" max="48" width="28.140625" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" customWidth="1"/>
+    <col min="50" max="50" width="13.140625" customWidth="1"/>
+    <col min="51" max="51" width="15.7109375" customWidth="1"/>
+    <col min="52" max="52" width="12.28515625" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" customWidth="1"/>
+    <col min="54" max="54" width="12.7109375" customWidth="1"/>
+    <col min="55" max="55" width="12" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" customWidth="1"/>
+    <col min="57" max="57" width="13.42578125" customWidth="1"/>
+    <col min="58" max="58" width="22.5703125" customWidth="1"/>
+    <col min="59" max="59" width="14.7109375" customWidth="1"/>
+    <col min="60" max="60" width="18.7109375" customWidth="1"/>
+    <col min="61" max="61" width="11.85546875" customWidth="1"/>
+    <col min="62" max="62" width="11" customWidth="1"/>
+    <col min="63" max="63" width="21.85546875" customWidth="1"/>
+    <col min="64" max="64" width="14.140625" customWidth="1"/>
+    <col min="65" max="65" width="18.7109375" customWidth="1"/>
+    <col min="66" max="68" width="11.42578125" customWidth="1"/>
+    <col min="69" max="69" width="31" customWidth="1"/>
+    <col min="70" max="70" width="10.85546875" customWidth="1"/>
+    <col min="71" max="72" width="11.7109375" customWidth="1"/>
+    <col min="73" max="73" width="26.7109375" customWidth="1"/>
+    <col min="74" max="74" width="88.5703125" customWidth="1"/>
+    <col min="75" max="75" width="89.5703125" customWidth="1"/>
+    <col min="76" max="76" width="98.140625" customWidth="1"/>
+    <col min="77" max="77" width="97.28515625" customWidth="1"/>
+    <col min="78" max="78" width="90.7109375" customWidth="1"/>
+    <col min="79" max="79" width="59.140625" customWidth="1"/>
+    <col min="80" max="80" width="73.5703125" customWidth="1"/>
+    <col min="81" max="81" width="68" customWidth="1"/>
+    <col min="82" max="82" width="75.85546875" customWidth="1"/>
+    <col min="83" max="83" width="35.7109375" customWidth="1"/>
+    <col min="84" max="84" width="29" customWidth="1"/>
+    <col min="85" max="85" width="17.7109375" customWidth="1"/>
+    <col min="86" max="86" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="37" customFormat="1" ht="68.25" customHeight="1">
+    <row r="1" spans="1:86" s="37" customFormat="1" ht="68.25" customHeight="1">
       <c r="A1" s="150"/>
       <c r="B1" s="54" t="s">
         <v>166</v>
@@ -2951,164 +2994,162 @@
       <c r="F1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="54"/>
+      <c r="H1" s="54" t="s">
         <v>425</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="I1" s="54" t="s">
         <v>494</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="J1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="K1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="L1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="M1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="N1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="O1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="54"/>
       <c r="P1" s="54"/>
-      <c r="Q1" s="54" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54" t="s">
         <v>77</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>135</v>
       </c>
       <c r="S1" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="54"/>
+      <c r="T1" s="54" t="s">
+        <v>135</v>
+      </c>
       <c r="U1" s="54"/>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="54"/>
+      <c r="W1" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="X1" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="Y1" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="Z1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="AA1" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AB1" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AC1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="54" t="s">
+      <c r="AF1" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AG1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="AI1" s="54" t="s">
+      <c r="AJ1" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="AJ1" s="54" t="s">
+      <c r="AK1" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="AK1" s="54" t="s">
+      <c r="AL1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AL1" s="54" t="s">
+      <c r="AM1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AM1" s="54" t="s">
+      <c r="AN1" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="AN1" s="54" t="s">
+      <c r="AO1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AO1" s="54" t="s">
+      <c r="AP1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" s="54" t="s">
+      <c r="AQ1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" s="54" t="s">
+      <c r="AR1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AR1" s="54" t="s">
+      <c r="AS1" s="54" t="s">
         <v>431</v>
       </c>
-      <c r="AS1" s="54" t="s">
+      <c r="AT1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="AT1" s="54" t="s">
+      <c r="AU1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="54" t="s">
+      <c r="AV1" s="54" t="s">
         <v>492</v>
-      </c>
-      <c r="AV1" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="AW1" s="54" t="s">
         <v>171</v>
       </c>
       <c r="AX1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="54" t="s">
+      <c r="AZ1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="54" t="s">
+      <c r="BA1" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="BA1" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="BB1" s="54" t="s">
         <v>171</v>
       </c>
       <c r="BC1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="BD1" s="54" t="s">
+      <c r="BE1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BE1" s="54" t="s">
+      <c r="BF1" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="BF1" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="BG1" s="54" t="s">
         <v>171</v>
       </c>
       <c r="BH1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="BI1" s="54" t="s">
+      <c r="BJ1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="54" t="s">
+      <c r="BK1" s="54" t="s">
         <v>169</v>
-      </c>
-      <c r="BK1" s="54" t="s">
-        <v>171</v>
       </c>
       <c r="BL1" s="54" t="s">
         <v>171</v>
@@ -3117,49 +3158,52 @@
         <v>171</v>
       </c>
       <c r="BN1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="BO1" s="54" t="s">
+      <c r="BP1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="54" t="s">
+      <c r="BQ1" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" s="54" t="s">
+      <c r="BR1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="BR1" s="54" t="s">
+      <c r="BS1" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="54" t="s">
+      <c r="BT1" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="BT1" s="54" t="s">
+      <c r="BU1" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="BU1" s="54"/>
       <c r="BV1" s="54"/>
       <c r="BW1" s="54"/>
       <c r="BX1" s="54"/>
       <c r="BY1" s="54"/>
-      <c r="BZ1" s="54" t="s">
+      <c r="BZ1" s="54"/>
+      <c r="CA1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" s="54"/>
       <c r="CB1" s="54"/>
       <c r="CC1" s="54"/>
       <c r="CD1" s="54"/>
-      <c r="CE1" s="54" t="s">
-        <v>76</v>
-      </c>
+      <c r="CE1" s="54"/>
       <c r="CF1" s="54" t="s">
         <v>76</v>
       </c>
       <c r="CG1" s="54" t="s">
         <v>76</v>
       </c>
+      <c r="CH1" s="54" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" s="1" customFormat="1" ht="15.75">
+    <row r="2" spans="1:86" s="1" customFormat="1" ht="15.75">
       <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3179,499 +3223,505 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="K2" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="155" t="s">
+      <c r="L2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="155" t="s">
+      <c r="M2" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="155" t="s">
+      <c r="N2" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="155" t="s">
+      <c r="O2" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="155" t="s">
+      <c r="P2" s="155" t="s">
         <v>335</v>
       </c>
-      <c r="P2" s="155" t="s">
+      <c r="Q2" s="155" t="s">
         <v>336</v>
       </c>
-      <c r="Q2" s="155" t="s">
+      <c r="R2" s="155" t="s">
         <v>337</v>
       </c>
-      <c r="R2" s="155" t="s">
+      <c r="S2" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="155" t="s">
+      <c r="T2" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="155" t="s">
+      <c r="U2" s="155" t="s">
         <v>338</v>
       </c>
-      <c r="U2" s="155" t="s">
+      <c r="V2" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="V2" s="155" t="s">
+      <c r="W2" s="155" t="s">
         <v>340</v>
       </c>
-      <c r="W2" s="155" t="s">
+      <c r="X2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="AA2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" s="10" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="143" t="s">
+      <c r="AL2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="143" t="s">
+      <c r="AM2" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143" t="s">
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AO2" s="143" t="s">
+      <c r="AP2" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="15" t="s">
+      <c r="AQ2" s="143"/>
+      <c r="AR2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="15" t="s">
+      <c r="AS2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="15" t="s">
+      <c r="AT2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AT2" s="15" t="s">
+      <c r="AU2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="15" t="s">
+      <c r="AV2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="15" t="s">
+      <c r="AW2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AX2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AX2" s="15" t="s">
+      <c r="AY2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="15" t="s">
+      <c r="AZ2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="BA2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BA2" s="15" t="s">
+      <c r="BB2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" s="15" t="s">
+      <c r="BC2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="15" t="s">
+      <c r="BD2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" s="15" t="s">
+      <c r="BE2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BF2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="15" t="s">
+      <c r="BG2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BG2" s="15" t="s">
+      <c r="BH2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BI2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="15" t="s">
+      <c r="BJ2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="BJ2" s="15" t="s">
+      <c r="BK2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BL2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" s="16" t="s">
+      <c r="BM2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" s="145" t="s">
+      <c r="BN2" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="BN2" s="145" t="s">
+      <c r="BO2" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="BO2" s="145" t="s">
+      <c r="BP2" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="BP2" s="145" t="s">
+      <c r="BQ2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="BQ2" s="145" t="s">
+      <c r="BR2" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="BR2" s="145" t="s">
+      <c r="BS2" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="BS2" s="145" t="s">
+      <c r="BT2" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="BT2" s="145" t="s">
+      <c r="BU2" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="BU2" s="132" t="s">
+      <c r="BV2" s="132" t="s">
         <v>267</v>
       </c>
-      <c r="BV2" s="133" t="s">
+      <c r="BW2" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="BW2" s="133" t="s">
+      <c r="BX2" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="BX2" s="133" t="s">
+      <c r="BY2" s="133" t="s">
         <v>270</v>
       </c>
-      <c r="BY2" s="133" t="s">
+      <c r="BZ2" s="133" t="s">
         <v>271</v>
       </c>
-      <c r="BZ2" s="132" t="s">
+      <c r="CA2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="CA2" s="133" t="s">
+      <c r="CB2" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="CB2" s="133" t="s">
+      <c r="CC2" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="CC2" s="133" t="s">
+      <c r="CD2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="CD2" s="132" t="s">
+      <c r="CE2" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="CE2" s="128" t="s">
+      <c r="CF2" s="128" t="s">
         <v>251</v>
       </c>
-      <c r="CF2" s="128" t="s">
+      <c r="CG2" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="CG2" s="128" t="s">
+      <c r="CH2" s="128" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:85" ht="15.75">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:86" s="194" customFormat="1" ht="15.75">
+      <c r="A3" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="180" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="180" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="152" t="s">
+      <c r="D3" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="139" t="s">
+      <c r="E3" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="154" t="s">
-        <v>495</v>
-      </c>
-      <c r="H3" s="125" t="s">
+      <c r="G3" s="180" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="184" t="s">
+        <v>508</v>
+      </c>
+      <c r="I3" s="179" t="s">
         <v>485</v>
       </c>
-      <c r="I3" s="141" t="s">
+      <c r="J3" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="144" t="s">
+      <c r="K3" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="144" t="s">
+      <c r="M3" s="182" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="O3" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="17">
+      <c r="P3" s="179">
         <v>3</v>
       </c>
-      <c r="P3" s="17">
+      <c r="Q3" s="179">
         <v>3</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="R3" s="179">
         <v>2022</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="179" t="s">
         <v>405</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="T3" s="179" t="s">
         <v>406</v>
       </c>
-      <c r="T3" s="17">
+      <c r="U3" s="179">
         <v>5</v>
       </c>
-      <c r="U3" s="17">
+      <c r="V3" s="179">
         <v>5</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="185">
         <v>2025</v>
       </c>
-      <c r="W3" s="164" t="s">
+      <c r="X3" s="187" t="s">
         <v>401</v>
       </c>
-      <c r="X3" s="108" t="s">
+      <c r="Y3" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="160" t="s">
+      <c r="Z3" s="188" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="161" t="s">
+      <c r="AA3" s="189" t="s">
         <v>245</v>
       </c>
-      <c r="AA3" s="136" t="s">
+      <c r="AB3" s="185" t="s">
         <v>248</v>
       </c>
-      <c r="AB3" s="162" t="s">
+      <c r="AC3" s="180" t="s">
         <v>235</v>
       </c>
-      <c r="AC3" s="163" t="s">
+      <c r="AD3" s="190" t="s">
         <v>413</v>
       </c>
-      <c r="AD3" s="136" t="s">
+      <c r="AE3" s="185" t="s">
         <v>246</v>
       </c>
-      <c r="AE3" s="136" t="s">
+      <c r="AF3" s="185" t="s">
         <v>249</v>
       </c>
-      <c r="AF3" s="108" t="s">
+      <c r="AG3" s="179" t="s">
         <v>258</v>
       </c>
-      <c r="AG3" s="41" t="s">
+      <c r="AH3" s="191" t="s">
         <v>478</v>
       </c>
-      <c r="AH3" s="136" t="s">
+      <c r="AI3" s="185" t="s">
         <v>479</v>
       </c>
-      <c r="AI3" s="108" t="s">
+      <c r="AJ3" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="136" t="s">
+      <c r="AK3" s="185" t="s">
         <v>250</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AL3" s="179" t="s">
         <v>259</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AM3" s="179">
         <v>51</v>
       </c>
-      <c r="AM3" s="142" t="s">
+      <c r="AN3" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="AN3" s="9" t="s">
+      <c r="AO3" s="179" t="s">
         <v>409</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AP3" s="179">
         <v>20</v>
       </c>
-      <c r="AP3" s="142" t="s">
+      <c r="AQ3" s="188" t="s">
         <v>140</v>
       </c>
-      <c r="AQ3" s="108" t="s">
+      <c r="AR3" s="179" t="s">
         <v>407</v>
       </c>
-      <c r="AR3" s="108" t="s">
+      <c r="AS3" s="179" t="s">
         <v>237</v>
       </c>
-      <c r="AS3" s="137" t="s">
+      <c r="AT3" s="182" t="s">
         <v>474</v>
       </c>
-      <c r="AT3" s="136" t="s">
+      <c r="AU3" s="185" t="s">
         <v>473</v>
       </c>
-      <c r="AU3" s="138" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV3" s="108" t="s">
+      <c r="AV3" s="184" t="s">
+        <v>509</v>
+      </c>
+      <c r="AW3" s="179" t="s">
         <v>408</v>
       </c>
-      <c r="AW3" s="108" t="s">
+      <c r="AX3" s="179" t="s">
         <v>164</v>
       </c>
-      <c r="AX3" s="137" t="s">
+      <c r="AY3" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="AY3" s="136" t="s">
+      <c r="AZ3" s="185" t="s">
         <v>238</v>
       </c>
-      <c r="AZ3" s="138" t="s">
-        <v>501</v>
-      </c>
-      <c r="BA3" s="108" t="s">
+      <c r="BA3" s="184" t="s">
+        <v>509</v>
+      </c>
+      <c r="BB3" s="179" t="s">
         <v>410</v>
       </c>
-      <c r="BB3" s="108" t="s">
+      <c r="BC3" s="179" t="s">
         <v>36</v>
       </c>
-      <c r="BC3" s="137" t="s">
+      <c r="BD3" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="BD3" s="136" t="s">
+      <c r="BE3" s="185" t="s">
         <v>239</v>
       </c>
-      <c r="BE3" s="138" t="s">
-        <v>502</v>
-      </c>
-      <c r="BF3" s="108" t="s">
+      <c r="BF3" s="184" t="s">
+        <v>509</v>
+      </c>
+      <c r="BG3" s="179" t="s">
         <v>411</v>
       </c>
-      <c r="BG3" s="108" t="s">
+      <c r="BH3" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="BH3" s="137" t="s">
+      <c r="BI3" s="182" t="s">
         <v>475</v>
       </c>
-      <c r="BI3" s="136" t="s">
+      <c r="BJ3" s="185" t="s">
         <v>240</v>
       </c>
-      <c r="BJ3" s="138" t="s">
-        <v>503</v>
-      </c>
-      <c r="BK3" s="108" t="s">
+      <c r="BK3" s="184" t="s">
+        <v>509</v>
+      </c>
+      <c r="BL3" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="BL3" s="108" t="s">
+      <c r="BM3" s="179" t="s">
         <v>262</v>
       </c>
-      <c r="BM3" s="9" t="s">
+      <c r="BN3" s="179" t="s">
         <v>412</v>
       </c>
-      <c r="BN3" s="96" t="s">
+      <c r="BO3" s="182" t="s">
         <v>476</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BP3" s="185" t="s">
         <v>243</v>
       </c>
-      <c r="BP3" s="49" t="s">
-        <v>504</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
+      <c r="BQ3" s="184" t="s">
+        <v>510</v>
+      </c>
+      <c r="BR3" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="BR3" s="96" t="s">
+      <c r="BS3" s="182" t="s">
         <v>477</v>
       </c>
-      <c r="BS3" s="7" t="s">
+      <c r="BT3" s="185" t="s">
         <v>244</v>
       </c>
-      <c r="BT3" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="BU3" s="177" t="s">
+      <c r="BU3" s="184" t="s">
+        <v>509</v>
+      </c>
+      <c r="BV3" s="192" t="s">
         <v>448</v>
       </c>
-      <c r="BV3" s="177" t="s">
+      <c r="BW3" s="192" t="s">
         <v>449</v>
       </c>
-      <c r="BW3" s="177" t="s">
+      <c r="BX3" s="192" t="s">
         <v>450</v>
       </c>
-      <c r="BX3" s="178" t="s">
+      <c r="BY3" s="192" t="s">
         <v>451</v>
       </c>
-      <c r="BY3" s="178" t="s">
+      <c r="BZ3" s="192" t="s">
         <v>452</v>
       </c>
-      <c r="BZ3" s="49" t="s">
+      <c r="CA3" s="184" t="s">
         <v>247</v>
       </c>
-      <c r="CA3" s="49" t="s">
+      <c r="CB3" s="184" t="s">
         <v>453</v>
       </c>
-      <c r="CB3" s="49" t="s">
+      <c r="CC3" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="CC3" s="154" t="s">
+      <c r="CD3" s="184" t="s">
         <v>455</v>
       </c>
-      <c r="CD3" s="125" t="s">
+      <c r="CE3" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="CE3" s="129" t="s">
+      <c r="CF3" s="184" t="s">
         <v>254</v>
       </c>
-      <c r="CF3" s="167" t="s">
+      <c r="CG3" s="193" t="s">
         <v>255</v>
       </c>
-      <c r="CG3" s="129" t="s">
+      <c r="CH3" s="184" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:85" ht="15.75">
+    <row r="4" spans="1:86" ht="15.75">
       <c r="A4" s="13" t="s">
-        <v>443</v>
+        <v>1</v>
       </c>
       <c r="B4" s="151" t="s">
         <v>146</v>
@@ -3688,2023 +3738,2033 @@
       <c r="F4" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>486</v>
-      </c>
-      <c r="I4" s="141" t="s">
+      <c r="G4" s="151" t="s">
+        <v>507</v>
+      </c>
+      <c r="H4" s="154" t="s">
+        <v>495</v>
+      </c>
+      <c r="I4" s="125" t="s">
+        <v>485</v>
+      </c>
+      <c r="J4" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="144" t="s">
+      <c r="K4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="144" t="s">
+      <c r="M4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="148" t="s">
+      <c r="O4" s="148" t="s">
         <v>81</v>
-      </c>
-      <c r="O4" s="17">
-        <v>3</v>
       </c>
       <c r="P4" s="17">
         <v>3</v>
       </c>
       <c r="Q4" s="17">
+        <v>3</v>
+      </c>
+      <c r="R4" s="17">
         <v>2022</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="T4" s="17">
-        <v>5</v>
       </c>
       <c r="U4" s="17">
         <v>5</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="17">
+        <v>5</v>
+      </c>
+      <c r="W4" s="18">
         <v>2025</v>
       </c>
-      <c r="W4" s="164"/>
-      <c r="X4" s="108" t="s">
+      <c r="X4" s="164" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y4" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="160" t="s">
+      <c r="Z4" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="161" t="s">
+      <c r="AA4" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="AA4" s="136" t="s">
+      <c r="AB4" s="136" t="s">
         <v>248</v>
       </c>
-      <c r="AB4" s="162" t="s">
+      <c r="AC4" s="162" t="s">
         <v>235</v>
       </c>
-      <c r="AC4" s="163" t="s">
+      <c r="AD4" s="163" t="s">
         <v>413</v>
       </c>
-      <c r="AD4" s="136" t="s">
+      <c r="AE4" s="136" t="s">
         <v>246</v>
       </c>
-      <c r="AE4" s="136" t="s">
+      <c r="AF4" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="41" t="s">
+      <c r="AG4" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH4" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="9" t="s">
+      <c r="AI4" s="136" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ4" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="136" t="s">
+        <v>250</v>
+      </c>
+      <c r="AL4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AM4" s="9">
         <v>51</v>
       </c>
-      <c r="AM4" s="142" t="s">
+      <c r="AN4" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="108" t="s">
+      <c r="AO4" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>20</v>
+      </c>
+      <c r="AQ4" s="142" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR4" s="108" t="s">
         <v>407</v>
       </c>
-      <c r="AR4" s="108" t="s">
+      <c r="AS4" s="108" t="s">
         <v>237</v>
       </c>
-      <c r="AS4" s="137" t="s">
+      <c r="AT4" s="137" t="s">
         <v>474</v>
       </c>
-      <c r="AT4" s="136" t="s">
+      <c r="AU4" s="136" t="s">
         <v>473</v>
       </c>
-      <c r="AU4" s="138" t="s">
+      <c r="AV4" s="138" t="s">
         <v>500</v>
       </c>
-      <c r="AV4" s="108" t="s">
+      <c r="AW4" s="108" t="s">
         <v>408</v>
       </c>
-      <c r="AW4" s="108" t="s">
+      <c r="AX4" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="AX4" s="137" t="s">
+      <c r="AY4" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="AY4" s="136" t="s">
+      <c r="AZ4" s="136" t="s">
         <v>238</v>
       </c>
-      <c r="AZ4" s="138" t="s">
+      <c r="BA4" s="138" t="s">
         <v>501</v>
       </c>
-      <c r="BA4" s="108" t="s">
+      <c r="BB4" s="108" t="s">
         <v>410</v>
       </c>
-      <c r="BB4" s="108" t="s">
+      <c r="BC4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="BC4" s="137" t="s">
+      <c r="BD4" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="BD4" s="136" t="s">
+      <c r="BE4" s="136" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="138" t="s">
+      <c r="BF4" s="138" t="s">
         <v>502</v>
       </c>
-      <c r="BF4" s="108" t="s">
+      <c r="BG4" s="108" t="s">
         <v>411</v>
       </c>
-      <c r="BG4" s="108" t="s">
+      <c r="BH4" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="BH4" s="137" t="s">
+      <c r="BI4" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="BI4" s="136" t="s">
+      <c r="BJ4" s="136" t="s">
         <v>240</v>
       </c>
-      <c r="BJ4" s="138" t="s">
+      <c r="BK4" s="138" t="s">
         <v>503</v>
       </c>
-      <c r="BK4" s="108" t="s">
+      <c r="BL4" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="BL4" s="108" t="s">
+      <c r="BM4" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="96" t="s">
+      <c r="BN4" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="BO4" s="96" t="s">
         <v>476</v>
       </c>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="96" t="s">
+      <c r="BP4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ4" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="BR4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS4" s="96" t="s">
         <v>477</v>
       </c>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="49"/>
-      <c r="BU4" s="177" t="s">
+      <c r="BT4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU4" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="BV4" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="BV4" s="177" t="s">
+      <c r="BW4" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BW4" s="177" t="s">
+      <c r="BX4" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BX4" s="178" t="s">
+      <c r="BY4" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BY4" s="177"/>
-      <c r="BZ4" s="49" t="s">
+      <c r="BZ4" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA4" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="CA4" s="154"/>
       <c r="CB4" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC4" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CC4" s="154" t="s">
+      <c r="CD4" s="154" t="s">
         <v>455</v>
       </c>
-      <c r="CD4" s="125" t="s">
+      <c r="CE4" s="125" t="s">
         <v>264</v>
       </c>
-      <c r="CE4" s="129" t="s">
+      <c r="CF4" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF4" s="167" t="s">
+      <c r="CG4" s="167" t="s">
         <v>255</v>
       </c>
-      <c r="CG4" s="129" t="s">
-        <v>461</v>
+      <c r="CH4" s="129" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:85" ht="15.75">
+    <row r="5" spans="1:86" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="96" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="151" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="J5" s="139" t="s">
+      <c r="F5" s="153" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="153"/>
+      <c r="H5" s="154" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="J5" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="125" t="s">
-        <v>383</v>
-      </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="125" t="s">
-        <v>383</v>
-      </c>
-      <c r="N5" s="140" t="s">
+      <c r="N5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="148" t="s">
         <v>81</v>
-      </c>
-      <c r="O5" s="17">
-        <v>3</v>
       </c>
       <c r="P5" s="17">
         <v>3</v>
       </c>
       <c r="Q5" s="17">
+        <v>3</v>
+      </c>
+      <c r="R5" s="17">
         <v>2022</v>
       </c>
-      <c r="R5" s="125" t="s">
-        <v>398</v>
-      </c>
-      <c r="S5" s="125" t="s">
-        <v>398</v>
-      </c>
-      <c r="T5" s="17">
-        <v>5</v>
+      <c r="S5" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>406</v>
       </c>
       <c r="U5" s="17">
         <v>5</v>
       </c>
-      <c r="V5" s="141">
+      <c r="V5" s="17">
+        <v>5</v>
+      </c>
+      <c r="W5" s="18">
         <v>2025</v>
       </c>
-      <c r="W5" s="165" t="s">
-        <v>398</v>
-      </c>
-      <c r="X5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="Y5" s="168" t="s">
+      <c r="X5" s="164"/>
+      <c r="Y5" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="Z5" s="157" t="s">
+      <c r="AA5" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB5" s="136" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC5" s="162" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD5" s="163" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE5" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI5" s="136"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>51</v>
+      </c>
+      <c r="AN5" s="142" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="108" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS5" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT5" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU5" s="136" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV5" s="138" t="s">
+        <v>500</v>
+      </c>
+      <c r="AW5" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="AX5" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY5" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ5" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA5" s="138" t="s">
+        <v>501</v>
+      </c>
+      <c r="BB5" s="108" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC5" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD5" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE5" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="BF5" s="138" t="s">
+        <v>502</v>
+      </c>
+      <c r="BG5" s="108" t="s">
+        <v>411</v>
+      </c>
+      <c r="BH5" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI5" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ5" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK5" s="138" t="s">
+        <v>503</v>
+      </c>
+      <c r="BL5" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="BM5" s="108" t="s">
+        <v>262</v>
+      </c>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="49"/>
+      <c r="BV5" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW5" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX5" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY5" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ5" s="177"/>
+      <c r="CA5" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB5" s="154"/>
+      <c r="CC5" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD5" s="154" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE5" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="CF5" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG5" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH5" s="129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86" ht="15.75">
+      <c r="A6" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="AA5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB5" s="157" t="s">
+      <c r="C6" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="AC5" s="169" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="AE5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF5" s="157" t="s">
+      <c r="D6" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="AG5" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="AI5" s="157" t="s">
-        <v>383</v>
-      </c>
-      <c r="AJ5" s="157" t="s">
-        <v>398</v>
-      </c>
-      <c r="AK5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM5" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="AO5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="AP5" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AS5" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX5" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY5" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="AZ5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC5" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD5" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="BE5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BF5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH5" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BK5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BL5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BM5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="BN5" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO5" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="BP5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="BQ5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="BR5" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS5" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="BT5" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="BU5" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV5" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW5" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX5" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY5" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ5" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA5" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB5" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC5" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD5" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="CE5" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF5" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG5" s="129" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:85" ht="15.75">
-      <c r="A6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="E6" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="J6" s="139" t="s">
+      <c r="F6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="K6" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="L6" s="139" t="s">
+      <c r="L6" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="N6" s="140" t="s">
+      <c r="N6" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="O6" s="140" t="s">
         <v>81</v>
-      </c>
-      <c r="O6" s="17">
-        <v>3</v>
       </c>
       <c r="P6" s="17">
         <v>3</v>
       </c>
       <c r="Q6" s="17">
+        <v>3</v>
+      </c>
+      <c r="R6" s="17">
         <v>2022</v>
       </c>
-      <c r="R6" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="S6" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="T6" s="17">
-        <v>5</v>
+      <c r="S6" s="125" t="s">
+        <v>398</v>
+      </c>
+      <c r="T6" s="125" t="s">
+        <v>398</v>
       </c>
       <c r="U6" s="17">
         <v>5</v>
       </c>
-      <c r="V6" s="141">
+      <c r="V6" s="17">
+        <v>5</v>
+      </c>
+      <c r="W6" s="141">
         <v>2025</v>
       </c>
-      <c r="W6" s="166" t="s">
-        <v>396</v>
-      </c>
-      <c r="X6" s="170" t="s">
-        <v>397</v>
-      </c>
-      <c r="Y6" s="168" t="s">
+      <c r="X6" s="165" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z6" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Z6" s="170" t="s">
+      <c r="AA6" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC6" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD6" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="AF6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="AG6" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH6" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ6" s="157" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK6" s="157" t="s">
+        <v>398</v>
+      </c>
+      <c r="AL6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN6" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AP6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ6" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT6" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AY6" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BC6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD6" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE6" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BH6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BI6" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BN6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="BO6" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP6" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="BQ6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="BR6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="BS6" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT6" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="BU6" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="BV6" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW6" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX6" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY6" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ6" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA6" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB6" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC6" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD6" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE6" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF6" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG6" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH6" s="129" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" ht="15.75">
+      <c r="A7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AA6" s="170" t="s">
-        <v>396</v>
-      </c>
-      <c r="AB6" s="170" t="s">
+      <c r="C7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="AC6" s="169" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD6" s="170" t="s">
-        <v>396</v>
-      </c>
-      <c r="AE6" s="170" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF6" s="170" t="s">
+      <c r="D7" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="AG6" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH6" s="170" t="s">
-        <v>397</v>
-      </c>
-      <c r="AI6" s="170" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ6" s="170" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AL6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM6" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP6" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="AS6" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AW6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="AX6" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BB6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="BC6" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BE6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BG6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="BH6" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BJ6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BK6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="BL6" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="BM6" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="BN6" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="BP6" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="BQ6" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="BR6" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS6" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="BT6" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="BU6" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV6" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW6" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX6" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY6" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ6" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA6" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB6" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC6" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD6" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="CE6" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF6" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG6" s="129" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:85" ht="15.75">
-      <c r="A7" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>482</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="139" t="s">
+      <c r="F7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K7" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="125" t="s">
-        <v>390</v>
-      </c>
-      <c r="L7" s="139" t="s">
+      <c r="L7" s="141" t="s">
+        <v>396</v>
+      </c>
+      <c r="M7" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="125" t="s">
-        <v>390</v>
-      </c>
-      <c r="N7" s="140" t="s">
+      <c r="N7" s="141" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="140" t="s">
         <v>81</v>
-      </c>
-      <c r="O7" s="17">
-        <v>3</v>
       </c>
       <c r="P7" s="17">
         <v>3</v>
       </c>
       <c r="Q7" s="17">
+        <v>3</v>
+      </c>
+      <c r="R7" s="17">
         <v>2022</v>
       </c>
-      <c r="R7" s="125" t="s">
-        <v>399</v>
-      </c>
-      <c r="S7" s="125" t="s">
-        <v>399</v>
-      </c>
-      <c r="T7" s="17">
-        <v>5</v>
+      <c r="S7" s="141" t="s">
+        <v>396</v>
+      </c>
+      <c r="T7" s="141" t="s">
+        <v>396</v>
       </c>
       <c r="U7" s="17">
         <v>5</v>
       </c>
-      <c r="V7" s="141">
+      <c r="V7" s="17">
+        <v>5</v>
+      </c>
+      <c r="W7" s="141">
         <v>2025</v>
       </c>
-      <c r="W7" s="165" t="s">
-        <v>399</v>
-      </c>
-      <c r="X7" s="157" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y7" s="168" t="s">
+      <c r="X7" s="166" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y7" s="170" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z7" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Z7" s="157" t="s">
+      <c r="AA7" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB7" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC7" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD7" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE7" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF7" s="170" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG7" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH7" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI7" s="170" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ7" s="170" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK7" s="170" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN7" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ7" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="AT7" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AV7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="AY7" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BA7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="BD7" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BF7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="BI7" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="BL7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="BM7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN7" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="BO7" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ7" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="BR7" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="BS7" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU7" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="BV7" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW7" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX7" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY7" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ7" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA7" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB7" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC7" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD7" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="CF7" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG7" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH7" s="129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" ht="15.75">
+      <c r="A8" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="AA7" s="157" t="s">
-        <v>399</v>
-      </c>
-      <c r="AB7" s="157" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC7" s="169" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD7" s="157" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE7" s="157" t="s">
-        <v>402</v>
-      </c>
-      <c r="AF7" s="157" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG7" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH7" s="157" t="s">
-        <v>402</v>
-      </c>
-      <c r="AI7" s="157" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ7" s="157" t="s">
-        <v>402</v>
-      </c>
-      <c r="AK7" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL7" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="AM7" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN7" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="AO7" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="AP7" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="AR7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AS7" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="AU7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="AV7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="AW7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AX7" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="AZ7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BC7" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="BE7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="BF7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BG7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BH7" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="BJ7" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK7" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BL7" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BM7" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="BN7" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO7" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="BP7" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="BQ7" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="BR7" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS7" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="BT7" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="BU7" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV7" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW7" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX7" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY7" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ7" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA7" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB7" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC7" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD7" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="CE7" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF7" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG7" s="129" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" spans="1:85" ht="15.75">
-      <c r="A8" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>490</v>
+        <v>387</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="49" t="s">
+        <v>482</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="J8" s="139" t="s">
+        <v>489</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="K8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="L8" s="139" t="s">
+      <c r="L8" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="125" t="s">
-        <v>391</v>
-      </c>
-      <c r="N8" s="140" t="s">
+      <c r="N8" s="125" t="s">
+        <v>390</v>
+      </c>
+      <c r="O8" s="140" t="s">
         <v>81</v>
-      </c>
-      <c r="O8" s="17">
-        <v>3</v>
       </c>
       <c r="P8" s="17">
         <v>3</v>
       </c>
       <c r="Q8" s="17">
+        <v>3</v>
+      </c>
+      <c r="R8" s="17">
         <v>2022</v>
       </c>
-      <c r="R8" s="125" t="s">
-        <v>400</v>
-      </c>
       <c r="S8" s="125" t="s">
-        <v>400</v>
-      </c>
-      <c r="T8" s="17">
-        <v>5</v>
+        <v>399</v>
+      </c>
+      <c r="T8" s="125" t="s">
+        <v>399</v>
       </c>
       <c r="U8" s="17">
         <v>5</v>
       </c>
-      <c r="V8" s="141">
+      <c r="V8" s="17">
+        <v>5</v>
+      </c>
+      <c r="W8" s="141">
         <v>2025</v>
       </c>
-      <c r="W8" s="165" t="s">
-        <v>400</v>
-      </c>
-      <c r="X8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y8" s="168" t="s">
+      <c r="X8" s="165" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y8" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z8" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" s="157" t="s">
+      <c r="AA8" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB8" s="157" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC8" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD8" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE8" s="157" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF8" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AG8" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AH8" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI8" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ8" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK8" s="157" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL8" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM8" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN8" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO8" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP8" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ8" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AS8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AT8" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AY8" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BD8" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE8" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="BF8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BI8" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BN8" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="BO8" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="BQ8" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="BR8" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="BS8" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT8" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="BU8" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="BV8" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW8" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX8" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY8" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ8" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA8" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB8" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC8" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD8" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE8" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="CF8" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG8" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH8" s="129" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" ht="15.75">
+      <c r="A9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="AA8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB8" s="157" t="s">
+      <c r="C9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="AC8" s="169" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF8" s="157" t="s">
+      <c r="D9" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="AG8" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AI8" s="157" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ8" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="AK8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AL8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM8" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="AP8" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AR8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AS8" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT8" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AV8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AW8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AX8" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY8" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="AZ8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BA8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BB8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BC8" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD8" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="BE8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BF8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BG8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BH8" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI8" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="BJ8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BK8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BM8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BN8" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO8" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="BP8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BQ8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BR8" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS8" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="BT8" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BU8" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV8" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW8" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX8" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY8" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ8" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA8" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB8" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC8" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD8" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="CE8" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF8" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG8" s="129" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:85" ht="15.75">
-      <c r="A9" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="E9" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>484</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>491</v>
+        <v>391</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="49" t="s">
+        <v>483</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="J9" s="139" t="s">
+        <v>490</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="K9" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="125" t="s">
-        <v>392</v>
-      </c>
-      <c r="L9" s="139" t="s">
+      <c r="L9" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="M9" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="125" t="s">
-        <v>392</v>
-      </c>
-      <c r="N9" s="140" t="s">
+      <c r="N9" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="O9" s="140" t="s">
         <v>81</v>
-      </c>
-      <c r="O9" s="17">
-        <v>3</v>
       </c>
       <c r="P9" s="17">
         <v>3</v>
       </c>
       <c r="Q9" s="17">
+        <v>3</v>
+      </c>
+      <c r="R9" s="17">
         <v>2022</v>
       </c>
-      <c r="R9" s="125" t="s">
-        <v>392</v>
-      </c>
       <c r="S9" s="125" t="s">
-        <v>392</v>
-      </c>
-      <c r="T9" s="17">
-        <v>5</v>
+        <v>400</v>
+      </c>
+      <c r="T9" s="125" t="s">
+        <v>400</v>
       </c>
       <c r="U9" s="17">
         <v>5</v>
       </c>
-      <c r="V9" s="141">
+      <c r="V9" s="17">
+        <v>5</v>
+      </c>
+      <c r="W9" s="141">
         <v>2025</v>
       </c>
-      <c r="W9" s="165" t="s">
+      <c r="X9" s="165" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z9" s="168" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="157" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC9" s="157" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD9" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG9" s="157" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH9" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="AJ9" s="157" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK9" s="157" t="s">
+        <v>400</v>
+      </c>
+      <c r="AL9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN9" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ9" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AT9" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU9" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AX9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AY9" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="BA9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BB9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BC9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BD9" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE9" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="BF9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BG9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BI9" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BN9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BO9" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP9" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="BQ9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BS9" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT9" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU9" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="BV9" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW9" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX9" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY9" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ9" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA9" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB9" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC9" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD9" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE9" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="CF9" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG9" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH9" s="129" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" ht="15.75">
+      <c r="A10" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="X9" s="157" t="s">
+      <c r="C10" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="Y9" s="168" t="s">
+      <c r="D10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="K10" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="125" t="s">
+        <v>392</v>
+      </c>
+      <c r="M10" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="125" t="s">
+        <v>392</v>
+      </c>
+      <c r="O10" s="140" t="s">
         <v>81</v>
-      </c>
-      <c r="Z9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AC9" s="169" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AG9" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AI9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AJ9" s="157" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM9" s="171" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AO9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="AP9" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AR9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AS9" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AT9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AV9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AX9" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="AZ9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BA9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BB9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BC9" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BE9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BF9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BG9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BH9" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BI9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BK9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BL9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BM9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BN9" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BO9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BP9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BQ9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BR9" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BS9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BT9" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="BU9" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV9" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW9" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX9" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY9" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ9" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA9" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB9" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC9" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="CE9" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF9" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG9" s="129" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10" spans="1:85" ht="15.75">
-      <c r="A10" s="159" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="E10" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="17">
-        <v>123456789</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="137" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="L10" s="137" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="N10" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="17">
-        <v>3</v>
       </c>
       <c r="P10" s="17">
         <v>3</v>
       </c>
       <c r="Q10" s="17">
+        <v>3</v>
+      </c>
+      <c r="R10" s="17">
         <v>2022</v>
       </c>
-      <c r="R10" s="108" t="s">
-        <v>432</v>
-      </c>
-      <c r="S10" s="108" t="s">
-        <v>436</v>
-      </c>
-      <c r="T10" s="17">
-        <v>5</v>
+      <c r="S10" s="125" t="s">
+        <v>392</v>
+      </c>
+      <c r="T10" s="125" t="s">
+        <v>392</v>
       </c>
       <c r="U10" s="17">
         <v>5</v>
       </c>
-      <c r="V10" s="108">
+      <c r="V10" s="17">
+        <v>5</v>
+      </c>
+      <c r="W10" s="141">
         <v>2025</v>
       </c>
-      <c r="W10" s="108" t="s">
-        <v>432</v>
-      </c>
-      <c r="X10" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="Y10" s="171" t="s">
+      <c r="X10" s="165" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z10" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="AA10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD10" s="169" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AG10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH10" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AJ10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AK10" s="157" t="s">
+        <v>392</v>
+      </c>
+      <c r="AL10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN10" s="171" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AP10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ10" s="171" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AS10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AT10" s="137" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AX10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AY10" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BA10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BB10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BD10" s="96" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BG10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BH10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BI10" s="137" t="s">
+        <v>475</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BN10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BO10" s="96" t="s">
+        <v>476</v>
+      </c>
+      <c r="BP10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BQ10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BR10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BS10" s="96" t="s">
+        <v>477</v>
+      </c>
+      <c r="BT10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BU10" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="BV10" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW10" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX10" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY10" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ10" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA10" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB10" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC10" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD10" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE10" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="CF10" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG10" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH10" s="129" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86" ht="15.75">
+      <c r="A11" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="AA10" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="AB10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="AC10" s="172" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD10" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE10" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="AF10" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>421</v>
-      </c>
-      <c r="AG10" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH10" s="17">
-        <v>123456789</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="AJ10" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="AK10" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="AL10" s="108">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="160" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN10" s="108" t="s">
-        <v>421</v>
-      </c>
-      <c r="AO10" s="108">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="AR10" s="146" t="s">
-        <v>417</v>
-      </c>
-      <c r="AS10" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT10" s="146">
-        <v>123456789</v>
-      </c>
-      <c r="AU10" s="176" t="s">
-        <v>493</v>
-      </c>
-      <c r="AV10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="AW10" s="146" t="s">
-        <v>417</v>
-      </c>
-      <c r="AX10" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY10" s="146">
-        <v>123456789</v>
-      </c>
-      <c r="AZ10" s="176" t="s">
-        <v>439</v>
-      </c>
-      <c r="BA10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BB10" s="146" t="s">
-        <v>417</v>
-      </c>
-      <c r="BC10" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD10" s="146">
-        <v>123456789</v>
-      </c>
-      <c r="BE10" s="176" t="s">
-        <v>439</v>
-      </c>
-      <c r="BF10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BG10" s="146" t="s">
-        <v>417</v>
-      </c>
-      <c r="BH10" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI10" s="146">
-        <v>123456789</v>
-      </c>
-      <c r="BJ10" s="176" t="s">
-        <v>439</v>
-      </c>
-      <c r="BK10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BL10" s="146" t="s">
-        <v>421</v>
-      </c>
-      <c r="BM10" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="BN10" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO10" s="125">
-        <v>123456789</v>
-      </c>
-      <c r="BP10" s="151" t="s">
-        <v>439</v>
-      </c>
-      <c r="BQ10" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="BR10" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BS10" s="125">
-        <v>123456789</v>
-      </c>
-      <c r="BT10" s="151" t="s">
-        <v>439</v>
-      </c>
-      <c r="BU10" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV10" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW10" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX10" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY10" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ10" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA10" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB10" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC10" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD10" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="CE10" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF10" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG10" s="129" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:85" ht="15.75">
-      <c r="A11" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>422</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="17">
-        <v>1234567810</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
-      <c r="J11" s="137" t="s">
+        <v>123456789</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0</v>
+      </c>
+      <c r="K11" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="108" t="s">
-        <v>422</v>
-      </c>
-      <c r="L11" s="137" t="s">
+      <c r="L11" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="M11" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="M11" s="108" t="s">
-        <v>422</v>
-      </c>
-      <c r="N11" s="149" t="s">
+      <c r="N11" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="O11" s="149" t="s">
         <v>81</v>
-      </c>
-      <c r="O11" s="17">
-        <v>3</v>
       </c>
       <c r="P11" s="17">
         <v>3</v>
       </c>
       <c r="Q11" s="17">
+        <v>3</v>
+      </c>
+      <c r="R11" s="17">
         <v>2022</v>
       </c>
-      <c r="R11" s="108" t="s">
-        <v>433</v>
-      </c>
       <c r="S11" s="108" t="s">
-        <v>437</v>
-      </c>
-      <c r="T11" s="17">
-        <v>5</v>
+        <v>432</v>
+      </c>
+      <c r="T11" s="108" t="s">
+        <v>436</v>
       </c>
       <c r="U11" s="17">
         <v>5</v>
       </c>
-      <c r="V11" s="108">
+      <c r="V11" s="17">
+        <v>5</v>
+      </c>
+      <c r="W11" s="108">
         <v>2025</v>
       </c>
-      <c r="W11" s="108" t="s">
-        <v>433</v>
-      </c>
-      <c r="X11" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y11" s="171" t="s">
+      <c r="X11" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z11" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="AA11" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AB11" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC11" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD11" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE11" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="AF11" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH11" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>123456789</v>
+      </c>
+      <c r="AJ11" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="AL11" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM11" s="108">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO11" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP11" s="108">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="160" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS11" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="AT11" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU11" s="146">
+        <v>123456789</v>
+      </c>
+      <c r="AV11" s="176" t="s">
+        <v>493</v>
+      </c>
+      <c r="AW11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX11" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="AY11" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ11" s="146">
+        <v>123456789</v>
+      </c>
+      <c r="BA11" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="BC11" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="BD11" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE11" s="146">
+        <v>123456789</v>
+      </c>
+      <c r="BF11" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="BG11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="BH11" s="146" t="s">
+        <v>417</v>
+      </c>
+      <c r="BI11" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ11" s="146">
+        <v>123456789</v>
+      </c>
+      <c r="BK11" s="176" t="s">
+        <v>439</v>
+      </c>
+      <c r="BL11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="BM11" s="146" t="s">
+        <v>421</v>
+      </c>
+      <c r="BN11" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO11" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP11" s="125">
+        <v>123456789</v>
+      </c>
+      <c r="BQ11" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="BR11" s="125" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS11" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT11" s="125">
+        <v>123456789</v>
+      </c>
+      <c r="BU11" s="151" t="s">
+        <v>439</v>
+      </c>
+      <c r="BV11" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW11" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX11" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY11" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ11" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA11" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB11" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC11" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD11" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE11" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="CF11" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG11" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH11" s="129" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" ht="15.75">
+      <c r="A12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AA11" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="AB11" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>422</v>
       </c>
-      <c r="AC11" s="172" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD11" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE11" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF11" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>422</v>
-      </c>
-      <c r="AG11" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH11" s="17">
-        <v>1234567810</v>
-      </c>
-      <c r="AI11" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="AJ11" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="AK11" s="108" t="s">
-        <v>422</v>
-      </c>
-      <c r="AL11" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="AM11" s="160" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN11" s="108" t="s">
-        <v>422</v>
-      </c>
-      <c r="AO11" s="108">
-        <v>0.01</v>
-      </c>
-      <c r="AP11" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="AR11" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="AS11" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT11" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="AU11" s="135" t="s">
-        <v>438</v>
-      </c>
-      <c r="AV11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="AW11" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="AX11" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY11" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="AZ11" s="135" t="s">
-        <v>438</v>
-      </c>
-      <c r="BA11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="BB11" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="BC11" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD11" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="BE11" s="135" t="s">
-        <v>438</v>
-      </c>
-      <c r="BF11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="BG11" s="146" t="s">
-        <v>418</v>
-      </c>
-      <c r="BH11" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI11" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="BJ11" s="135" t="s">
-        <v>438</v>
-      </c>
-      <c r="BK11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="BL11" s="146" t="s">
-        <v>422</v>
-      </c>
-      <c r="BM11" s="125" t="s">
-        <v>422</v>
-      </c>
-      <c r="BN11" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO11" s="125">
-        <v>1234567810</v>
-      </c>
-      <c r="BP11" s="154" t="s">
-        <v>438</v>
-      </c>
-      <c r="BQ11" s="125" t="s">
-        <v>422</v>
-      </c>
-      <c r="BR11" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BS11" s="125">
-        <v>1234567810</v>
-      </c>
-      <c r="BT11" s="154" t="s">
-        <v>438</v>
-      </c>
-      <c r="BU11" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV11" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW11" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX11" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY11" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ11" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA11" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB11" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC11" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD11" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="CE11" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF11" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG11" s="129" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:85" ht="15.75">
-      <c r="A12" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>423</v>
       </c>
       <c r="E12" s="148" t="s">
         <v>81</v>
@@ -5712,621 +5772,764 @@
       <c r="F12" s="17">
         <v>1234567810</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="I12" s="17">
-        <v>3000000</v>
-      </c>
-      <c r="J12" s="137" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="108" t="s">
-        <v>427</v>
-      </c>
-      <c r="L12" s="137" t="s">
+      <c r="L12" s="108" t="s">
+        <v>422</v>
+      </c>
+      <c r="M12" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="108" t="s">
-        <v>427</v>
-      </c>
-      <c r="N12" s="149" t="s">
+      <c r="N12" s="108" t="s">
+        <v>422</v>
+      </c>
+      <c r="O12" s="149" t="s">
         <v>81</v>
-      </c>
-      <c r="O12" s="17">
-        <v>3</v>
       </c>
       <c r="P12" s="17">
         <v>3</v>
       </c>
       <c r="Q12" s="17">
+        <v>3</v>
+      </c>
+      <c r="R12" s="17">
         <v>2022</v>
       </c>
-      <c r="R12" s="108" t="s">
-        <v>434</v>
-      </c>
       <c r="S12" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="T12" s="17">
-        <v>5</v>
+        <v>433</v>
+      </c>
+      <c r="T12" s="108" t="s">
+        <v>437</v>
       </c>
       <c r="U12" s="17">
         <v>5</v>
       </c>
-      <c r="V12" s="108">
+      <c r="V12" s="17">
+        <v>5</v>
+      </c>
+      <c r="W12" s="108">
         <v>2025</v>
       </c>
-      <c r="W12" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y12" s="171" t="s">
+      <c r="X12" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z12" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="AA12" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="AC12" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD12" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE12" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF12" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="AG12" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH12" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="17">
+        <v>1234567810</v>
+      </c>
+      <c r="AJ12" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL12" s="108" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM12" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="AN12" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO12" s="108" t="s">
+        <v>422</v>
+      </c>
+      <c r="AP12" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="AQ12" s="160" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS12" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="AT12" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU12" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="AV12" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="AW12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX12" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="AY12" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ12" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BA12" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC12" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD12" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE12" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BF12" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="BG12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="BH12" s="146" t="s">
+        <v>418</v>
+      </c>
+      <c r="BI12" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ12" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BK12" s="135" t="s">
+        <v>438</v>
+      </c>
+      <c r="BL12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="BM12" s="146" t="s">
+        <v>422</v>
+      </c>
+      <c r="BN12" s="125" t="s">
+        <v>422</v>
+      </c>
+      <c r="BO12" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP12" s="125">
+        <v>1234567810</v>
+      </c>
+      <c r="BQ12" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="BR12" s="125" t="s">
+        <v>422</v>
+      </c>
+      <c r="BS12" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT12" s="125">
+        <v>1234567810</v>
+      </c>
+      <c r="BU12" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="BV12" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW12" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX12" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY12" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ12" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA12" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB12" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC12" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD12" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE12" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="CF12" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG12" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH12" s="129" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86" ht="15.75">
+      <c r="A13" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="AA12" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="AC12" s="172" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD12" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE12" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF12" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG12" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH12" s="17">
-        <v>1234567810</v>
-      </c>
-      <c r="AI12" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ12" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="AK12" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="AL12" s="108">
-        <v>100</v>
-      </c>
-      <c r="AM12" s="160" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN12" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="AO12" s="108">
-        <v>100</v>
-      </c>
-      <c r="AP12" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AR12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AS12" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT12" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="AU12" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AW12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="AX12" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY12" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="AZ12" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="BA12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BB12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BC12" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BD12" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="BE12" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="BF12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BG12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BH12" s="175" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI12" s="146">
-        <v>1234567810</v>
-      </c>
-      <c r="BJ12" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="BK12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BL12" s="146" t="s">
-        <v>419</v>
-      </c>
-      <c r="BM12" s="125" t="s">
-        <v>419</v>
-      </c>
-      <c r="BN12" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BO12" s="125">
-        <v>1234567810</v>
-      </c>
-      <c r="BP12" s="125" t="s">
-        <v>440</v>
-      </c>
-      <c r="BQ12" s="125" t="s">
-        <v>419</v>
-      </c>
-      <c r="BR12" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="BS12" s="125">
-        <v>1234567810</v>
-      </c>
-      <c r="BT12" s="125" t="s">
-        <v>440</v>
-      </c>
-      <c r="BU12" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BV12" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BW12" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BX12" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BY12" s="178" t="s">
-        <v>452</v>
-      </c>
-      <c r="BZ12" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="CA12" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="CB12" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="CC12" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="CD12" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="CE12" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF12" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG12" s="129" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:85" ht="15.75">
-      <c r="A13" s="159" t="s">
-        <v>416</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>424</v>
-      </c>
       <c r="C13" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="17">
-        <v>12345678911</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="I13" s="17">
-        <v>3000001</v>
-      </c>
-      <c r="J13" s="137" t="s">
+        <v>1234567810</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="J13" s="17">
+        <v>3000000</v>
+      </c>
+      <c r="K13" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="108" t="s">
-        <v>428</v>
-      </c>
-      <c r="L13" s="137" t="s">
+      <c r="L13" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="M13" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="108" t="s">
-        <v>428</v>
-      </c>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="O13" s="149" t="s">
         <v>81</v>
-      </c>
-      <c r="O13" s="17">
-        <v>3</v>
       </c>
       <c r="P13" s="17">
         <v>3</v>
       </c>
       <c r="Q13" s="17">
+        <v>3</v>
+      </c>
+      <c r="R13" s="17">
         <v>2022</v>
       </c>
-      <c r="R13" s="108" t="s">
-        <v>435</v>
-      </c>
       <c r="S13" s="108" t="s">
-        <v>435</v>
-      </c>
-      <c r="T13" s="17">
-        <v>5</v>
+        <v>434</v>
+      </c>
+      <c r="T13" s="108" t="s">
+        <v>434</v>
       </c>
       <c r="U13" s="17">
         <v>5</v>
       </c>
-      <c r="V13" s="108">
+      <c r="V13" s="17">
+        <v>5</v>
+      </c>
+      <c r="W13" s="108">
         <v>2025</v>
       </c>
-      <c r="W13" s="108" t="s">
+      <c r="X13" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z13" s="171" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA13" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB13" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD13" s="172" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF13" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AH13" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI13" s="17">
+        <v>1234567810</v>
+      </c>
+      <c r="AJ13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AK13" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL13" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="AM13" s="108">
+        <v>100</v>
+      </c>
+      <c r="AN13" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO13" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="AP13" s="108">
+        <v>100</v>
+      </c>
+      <c r="AQ13" s="160" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="AS13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="AT13" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU13" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="AV13" s="146" t="s">
+        <v>440</v>
+      </c>
+      <c r="AW13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="AX13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="AY13" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ13" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BA13" s="146" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD13" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE13" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BF13" s="146" t="s">
+        <v>440</v>
+      </c>
+      <c r="BG13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BH13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BI13" s="175" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ13" s="146">
+        <v>1234567810</v>
+      </c>
+      <c r="BK13" s="146" t="s">
+        <v>440</v>
+      </c>
+      <c r="BL13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BM13" s="146" t="s">
+        <v>419</v>
+      </c>
+      <c r="BN13" s="125" t="s">
+        <v>419</v>
+      </c>
+      <c r="BO13" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP13" s="125">
+        <v>1234567810</v>
+      </c>
+      <c r="BQ13" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="BR13" s="125" t="s">
+        <v>419</v>
+      </c>
+      <c r="BS13" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT13" s="125">
+        <v>1234567810</v>
+      </c>
+      <c r="BU13" s="125" t="s">
+        <v>440</v>
+      </c>
+      <c r="BV13" s="177" t="s">
+        <v>448</v>
+      </c>
+      <c r="BW13" s="177" t="s">
+        <v>449</v>
+      </c>
+      <c r="BX13" s="177" t="s">
+        <v>450</v>
+      </c>
+      <c r="BY13" s="178" t="s">
+        <v>451</v>
+      </c>
+      <c r="BZ13" s="178" t="s">
+        <v>452</v>
+      </c>
+      <c r="CA13" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="CB13" s="49" t="s">
+        <v>453</v>
+      </c>
+      <c r="CC13" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="CD13" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="CE13" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="CF13" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG13" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH13" s="129" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86" ht="15.75">
+      <c r="A14" s="159" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E14" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="17">
+        <v>12345678911</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="J14" s="17">
+        <v>3000001</v>
+      </c>
+      <c r="K14" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="M14" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="O14" s="149" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3</v>
+      </c>
+      <c r="R14" s="17">
+        <v>2022</v>
+      </c>
+      <c r="S14" s="108" t="s">
         <v>435</v>
       </c>
-      <c r="X13" s="17" t="s">
+      <c r="T14" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="U14" s="17">
+        <v>5</v>
+      </c>
+      <c r="V14" s="17">
+        <v>5</v>
+      </c>
+      <c r="W14" s="108">
+        <v>2025</v>
+      </c>
+      <c r="X14" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y14" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="Y13" s="171" t="s">
+      <c r="Z14" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="AA14" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="AA13" s="17" t="s">
+      <c r="AB14" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="AB13" s="17" t="s">
+      <c r="AC14" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="AC13" s="172" t="s">
+      <c r="AD14" s="172" t="s">
         <v>413</v>
       </c>
-      <c r="AD13" s="17" t="s">
+      <c r="AE14" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="AE13" s="17" t="s">
+      <c r="AF14" s="17" t="s">
         <v>460</v>
       </c>
-      <c r="AF13" s="17" t="s">
+      <c r="AG14" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="AG13" s="148" t="s">
+      <c r="AH14" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="AH13" s="17">
+      <c r="AI14" s="17">
         <v>12345678911</v>
       </c>
-      <c r="AI13" s="17" t="s">
+      <c r="AJ14" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="AJ13" s="17" t="s">
+      <c r="AK14" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="AK13" s="108" t="s">
+      <c r="AL14" s="108" t="s">
         <v>420</v>
       </c>
-      <c r="AL13" s="108">
+      <c r="AM14" s="108">
         <v>100.01</v>
       </c>
-      <c r="AM13" s="160" t="s">
+      <c r="AN14" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="AN13" s="108" t="s">
+      <c r="AO14" s="108" t="s">
         <v>420</v>
       </c>
-      <c r="AO13" s="108">
+      <c r="AP14" s="108">
         <v>100.01</v>
       </c>
-      <c r="AP13" s="160" t="s">
+      <c r="AQ14" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="AQ13" s="146" t="s">
+      <c r="AR14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AR13" s="146" t="s">
+      <c r="AS14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AS13" s="175" t="s">
+      <c r="AT14" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="AT13" s="146">
+      <c r="AU14" s="146">
         <v>12345678911</v>
       </c>
-      <c r="AU13" s="146" t="s">
+      <c r="AV14" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="AV13" s="146" t="s">
+      <c r="AW14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AW13" s="146" t="s">
+      <c r="AX14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="AX13" s="175" t="s">
+      <c r="AY14" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="AY13" s="146">
+      <c r="AZ14" s="146">
         <v>12345678911</v>
       </c>
-      <c r="AZ13" s="146" t="s">
+      <c r="BA14" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="BA13" s="146" t="s">
+      <c r="BB14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BB13" s="146" t="s">
+      <c r="BC14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BC13" s="175" t="s">
+      <c r="BD14" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="BD13" s="146">
+      <c r="BE14" s="146">
         <v>12345678911</v>
       </c>
-      <c r="BE13" s="146" t="s">
+      <c r="BF14" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="BF13" s="146" t="s">
+      <c r="BG14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BG13" s="146" t="s">
+      <c r="BH14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BH13" s="175" t="s">
+      <c r="BI14" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="BI13" s="146">
+      <c r="BJ14" s="146">
         <v>12345678911</v>
       </c>
-      <c r="BJ13" s="146" t="s">
+      <c r="BK14" s="146" t="s">
         <v>441</v>
       </c>
-      <c r="BK13" s="146" t="s">
+      <c r="BL14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BL13" s="146" t="s">
+      <c r="BM14" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="BM13" s="125" t="s">
+      <c r="BN14" s="125" t="s">
         <v>420</v>
       </c>
-      <c r="BN13" s="140" t="s">
+      <c r="BO14" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="BO13" s="125">
+      <c r="BP14" s="125">
         <v>12345678911</v>
       </c>
-      <c r="BP13" s="125" t="s">
+      <c r="BQ14" s="125" t="s">
         <v>441</v>
       </c>
-      <c r="BQ13" s="125" t="s">
+      <c r="BR14" s="125" t="s">
         <v>420</v>
       </c>
-      <c r="BR13" s="140" t="s">
+      <c r="BS14" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="BS13" s="125">
+      <c r="BT14" s="125">
         <v>12345678911</v>
       </c>
-      <c r="BT13" s="125" t="s">
+      <c r="BU14" s="125" t="s">
         <v>441</v>
       </c>
-      <c r="BU13" s="177" t="s">
+      <c r="BV14" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="BV13" s="177" t="s">
+      <c r="BW14" s="177" t="s">
         <v>449</v>
       </c>
-      <c r="BW13" s="177" t="s">
+      <c r="BX14" s="177" t="s">
         <v>450</v>
       </c>
-      <c r="BX13" s="178" t="s">
+      <c r="BY14" s="178" t="s">
         <v>451</v>
       </c>
-      <c r="BY13" s="178" t="s">
+      <c r="BZ14" s="178" t="s">
         <v>452</v>
       </c>
-      <c r="BZ13" s="49" t="s">
+      <c r="CA14" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="CA13" s="49" t="s">
+      <c r="CB14" s="49" t="s">
         <v>453</v>
       </c>
-      <c r="CB13" s="49" t="s">
+      <c r="CC14" s="49" t="s">
         <v>454</v>
       </c>
-      <c r="CC13" s="49" t="s">
+      <c r="CD14" s="49" t="s">
         <v>455</v>
       </c>
-      <c r="CD13" s="17" t="s">
+      <c r="CE14" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="CE13" s="129" t="s">
+      <c r="CF14" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF13" s="167" t="s">
+      <c r="CG14" s="167" t="s">
         <v>255</v>
       </c>
-      <c r="CG13" s="129" t="s">
+      <c r="CH14" s="129" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:85">
-      <c r="A14" s="159" t="s">
+    <row r="15" spans="1:86">
+      <c r="A15" s="159" t="s">
         <v>415</v>
-      </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108">
-        <v>-50</v>
-      </c>
-      <c r="J14" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="157"/>
-      <c r="L14" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="173" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="174" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="146"/>
-      <c r="AL14" s="146">
-        <v>-1</v>
-      </c>
-      <c r="AM14" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN14" s="146"/>
-      <c r="AO14" s="146">
-        <v>-22</v>
-      </c>
-      <c r="AP14" s="147" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="125"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
-      <c r="AZ14" s="125"/>
-      <c r="BA14" s="125"/>
-      <c r="BB14" s="125"/>
-      <c r="BC14" s="125"/>
-      <c r="BD14" s="125"/>
-      <c r="BE14" s="125"/>
-      <c r="BF14" s="125"/>
-      <c r="BG14" s="125"/>
-      <c r="BH14" s="125"/>
-      <c r="BI14" s="125"/>
-      <c r="BJ14" s="125"/>
-      <c r="BK14" s="125"/>
-      <c r="BL14" s="125"/>
-      <c r="BM14" s="146"/>
-      <c r="BN14" s="146"/>
-      <c r="BO14" s="146"/>
-      <c r="BP14" s="146"/>
-      <c r="BQ14" s="146"/>
-      <c r="BR14" s="146"/>
-      <c r="BS14" s="146"/>
-      <c r="BT14" s="146"/>
-      <c r="BU14" s="146"/>
-      <c r="BV14" s="146"/>
-      <c r="BW14" s="146"/>
-      <c r="BX14" s="146"/>
-      <c r="BY14" s="146"/>
-      <c r="BZ14" s="146"/>
-      <c r="CA14" s="146"/>
-      <c r="CB14" s="146"/>
-      <c r="CC14" s="146"/>
-      <c r="CD14" s="146"/>
-      <c r="CE14" s="129" t="s">
-        <v>254</v>
-      </c>
-      <c r="CF14" s="167" t="s">
-        <v>255</v>
-      </c>
-      <c r="CG14" s="129" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:85">
-      <c r="A15" s="13" t="s">
-        <v>414</v>
       </c>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -6337,21 +6540,21 @@
       <c r="F15" s="108"/>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
-      <c r="I15" s="108">
-        <v>50.55</v>
-      </c>
-      <c r="J15" s="156" t="s">
+      <c r="I15" s="108"/>
+      <c r="J15" s="108">
+        <v>-50</v>
+      </c>
+      <c r="K15" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="157"/>
-      <c r="L15" s="156" t="s">
+      <c r="L15" s="157"/>
+      <c r="M15" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="157"/>
-      <c r="N15" s="158" t="s">
+      <c r="N15" s="157"/>
+      <c r="O15" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="O15" s="157"/>
       <c r="P15" s="157"/>
       <c r="Q15" s="157"/>
       <c r="R15" s="157"/>
@@ -6360,38 +6563,38 @@
       <c r="U15" s="157"/>
       <c r="V15" s="157"/>
       <c r="W15" s="157"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="173" t="s">
+      <c r="X15" s="157"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="Z15" s="125"/>
       <c r="AA15" s="125"/>
       <c r="AB15" s="125"/>
-      <c r="AC15" s="174" t="s">
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="174" t="s">
         <v>413</v>
       </c>
-      <c r="AD15" s="125"/>
       <c r="AE15" s="125"/>
       <c r="AF15" s="125"/>
       <c r="AG15" s="125"/>
       <c r="AH15" s="125"/>
       <c r="AI15" s="125"/>
       <c r="AJ15" s="125"/>
-      <c r="AK15" s="146"/>
-      <c r="AL15" s="146">
-        <v>24.99</v>
-      </c>
-      <c r="AM15" s="147" t="s">
+      <c r="AK15" s="125"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="146">
+        <v>-1</v>
+      </c>
+      <c r="AN15" s="147" t="s">
         <v>138</v>
       </c>
-      <c r="AN15" s="146"/>
-      <c r="AO15" s="146">
-        <v>24.1</v>
-      </c>
-      <c r="AP15" s="147" t="s">
+      <c r="AO15" s="146"/>
+      <c r="AP15" s="146">
+        <v>-22</v>
+      </c>
+      <c r="AQ15" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="AQ15" s="125"/>
       <c r="AR15" s="125"/>
       <c r="AS15" s="125"/>
       <c r="AT15" s="125"/>
@@ -6413,7 +6616,7 @@
       <c r="BJ15" s="125"/>
       <c r="BK15" s="125"/>
       <c r="BL15" s="125"/>
-      <c r="BM15" s="146"/>
+      <c r="BM15" s="125"/>
       <c r="BN15" s="146"/>
       <c r="BO15" s="146"/>
       <c r="BP15" s="146"/>
@@ -6431,91 +6634,222 @@
       <c r="CB15" s="146"/>
       <c r="CC15" s="146"/>
       <c r="CD15" s="146"/>
-      <c r="CE15" s="129" t="s">
+      <c r="CE15" s="146"/>
+      <c r="CF15" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="CF15" s="167" t="s">
+      <c r="CG15" s="167" t="s">
         <v>255</v>
       </c>
-      <c r="CG15" s="129" t="s">
+      <c r="CH15" s="129" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86">
+      <c r="A16" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="137" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108">
+        <v>50.55</v>
+      </c>
+      <c r="K16" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="157"/>
+      <c r="M16" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="157"/>
+      <c r="O16" s="158" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="157"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="157"/>
+      <c r="S16" s="157"/>
+      <c r="T16" s="157"/>
+      <c r="U16" s="157"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="157"/>
+      <c r="X16" s="157"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="173" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="174" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="125"/>
+      <c r="AJ16" s="125"/>
+      <c r="AK16" s="125"/>
+      <c r="AL16" s="146"/>
+      <c r="AM16" s="146">
+        <v>24.99</v>
+      </c>
+      <c r="AN16" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO16" s="146"/>
+      <c r="AP16" s="146">
+        <v>24.1</v>
+      </c>
+      <c r="AQ16" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR16" s="125"/>
+      <c r="AS16" s="125"/>
+      <c r="AT16" s="125"/>
+      <c r="AU16" s="125"/>
+      <c r="AV16" s="125"/>
+      <c r="AW16" s="125"/>
+      <c r="AX16" s="125"/>
+      <c r="AY16" s="125"/>
+      <c r="AZ16" s="125"/>
+      <c r="BA16" s="125"/>
+      <c r="BB16" s="125"/>
+      <c r="BC16" s="125"/>
+      <c r="BD16" s="125"/>
+      <c r="BE16" s="125"/>
+      <c r="BF16" s="125"/>
+      <c r="BG16" s="125"/>
+      <c r="BH16" s="125"/>
+      <c r="BI16" s="125"/>
+      <c r="BJ16" s="125"/>
+      <c r="BK16" s="125"/>
+      <c r="BL16" s="125"/>
+      <c r="BM16" s="125"/>
+      <c r="BN16" s="146"/>
+      <c r="BO16" s="146"/>
+      <c r="BP16" s="146"/>
+      <c r="BQ16" s="146"/>
+      <c r="BR16" s="146"/>
+      <c r="BS16" s="146"/>
+      <c r="BT16" s="146"/>
+      <c r="BU16" s="146"/>
+      <c r="BV16" s="146"/>
+      <c r="BW16" s="146"/>
+      <c r="BX16" s="146"/>
+      <c r="BY16" s="146"/>
+      <c r="BZ16" s="146"/>
+      <c r="CA16" s="146"/>
+      <c r="CB16" s="146"/>
+      <c r="CC16" s="146"/>
+      <c r="CD16" s="146"/>
+      <c r="CE16" s="146"/>
+      <c r="CF16" s="129" t="s">
+        <v>254</v>
+      </c>
+      <c r="CG16" s="167" t="s">
+        <v>255</v>
+      </c>
+      <c r="CH16" s="129" t="s">
         <v>472</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{57F7D001-D730-49B2-B6E4-3E27B3CA3C97}"/>
-    <hyperlink ref="AU3" r:id="rId2" xr:uid="{70A4AC40-E9B9-4503-BE32-C61BE27E2D0D}"/>
-    <hyperlink ref="AZ3" r:id="rId3" xr:uid="{8D526777-44EA-46EE-8A17-F1240C7B54C7}"/>
-    <hyperlink ref="BE3" r:id="rId4" xr:uid="{AA842FFE-A022-4CA9-BD3D-33CF9CC4A235}"/>
-    <hyperlink ref="BJ3" r:id="rId5" xr:uid="{2AA1EE9D-C183-4E11-B89E-D69D9F398C62}"/>
-    <hyperlink ref="BP3" r:id="rId6" xr:uid="{A608FEE6-F991-499E-961C-51C8C8800592}"/>
-    <hyperlink ref="BT3" r:id="rId7" xr:uid="{41C1FD41-996B-45F7-BCB9-387998504E1F}"/>
-    <hyperlink ref="CE3" r:id="rId8" xr:uid="{566D1A7A-1C5B-4AD9-AE64-8525CDC60014}"/>
-    <hyperlink ref="CG3" r:id="rId9" xr:uid="{71DED31D-DCB9-4B79-89D7-4E925C123960}"/>
-    <hyperlink ref="BZ5" r:id="rId10" xr:uid="{DE129D32-2238-4DB0-8820-0D4A37BE7C95}"/>
-    <hyperlink ref="BZ6" r:id="rId11" xr:uid="{683E22A9-FD54-4891-ADB3-266F4C136648}"/>
-    <hyperlink ref="BZ7" r:id="rId12" xr:uid="{31AF0502-EB06-4A68-ACEA-A1BF858140FA}"/>
-    <hyperlink ref="BZ8" r:id="rId13" xr:uid="{3065C0EE-D506-442E-B925-261EFA604966}"/>
-    <hyperlink ref="BZ9" r:id="rId14" xr:uid="{807AF180-15A7-48C8-A3B3-4E8B876382E4}"/>
-    <hyperlink ref="BE10" r:id="rId15" display="s@f.in" xr:uid="{ED30E3BC-AFBF-4C16-A3DC-1497213C773B}"/>
-    <hyperlink ref="BE11" r:id="rId16" xr:uid="{C52E7F19-86CD-4D32-916F-3E8C5D21C04D}"/>
-    <hyperlink ref="AZ10" r:id="rId17" display="s@f.in" xr:uid="{3D2ACC8F-02F4-4949-827F-689684E6809D}"/>
-    <hyperlink ref="AZ11" r:id="rId18" xr:uid="{CE2086DF-C317-4DDC-A840-898FC14402DB}"/>
-    <hyperlink ref="AU10" r:id="rId19" display="h@f.in" xr:uid="{DC809BA8-29FF-4EB9-AE3F-3E9A2776356B}"/>
-    <hyperlink ref="AU11" r:id="rId20" xr:uid="{66499FF7-59F7-42DD-B53A-B1BE31E5A262}"/>
-    <hyperlink ref="BJ10" r:id="rId21" display="s@f.in" xr:uid="{516748F5-9ADA-40DE-8388-9B661B4B4C7D}"/>
-    <hyperlink ref="BJ11" r:id="rId22" xr:uid="{BA1DCDA7-8EE4-4513-B93E-01A4A4BCC3D7}"/>
-    <hyperlink ref="BP10" r:id="rId23" display="s@f.in" xr:uid="{AC0F2840-333C-4F92-97B5-2D2785E24ECD}"/>
-    <hyperlink ref="BP11" r:id="rId24" xr:uid="{9A2FF566-26D8-4CBB-B0BC-C4BAC519E368}"/>
-    <hyperlink ref="BT10" r:id="rId25" display="s@f.in" xr:uid="{346AF39F-1816-49D4-B12B-6167B37CD578}"/>
-    <hyperlink ref="BT11" r:id="rId26" xr:uid="{C85208AD-52B2-42DD-8461-6BFFF5551B3F}"/>
-    <hyperlink ref="G4" r:id="rId27" xr:uid="{101770EE-3D16-44F0-B9CB-A1859BB95D90}"/>
-    <hyperlink ref="G11" r:id="rId28" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
-    <hyperlink ref="BZ3" r:id="rId29" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
-    <hyperlink ref="BZ4" r:id="rId30" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
-    <hyperlink ref="BZ10" r:id="rId31" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
-    <hyperlink ref="BZ11" r:id="rId32" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
-    <hyperlink ref="BZ12" r:id="rId33" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
-    <hyperlink ref="BZ13" r:id="rId34" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
-    <hyperlink ref="CE4" r:id="rId35" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
-    <hyperlink ref="CE5" r:id="rId36" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
-    <hyperlink ref="CE6" r:id="rId37" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
-    <hyperlink ref="CE7" r:id="rId38" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
-    <hyperlink ref="CE8" r:id="rId39" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
-    <hyperlink ref="CE9" r:id="rId40" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
-    <hyperlink ref="CE10" r:id="rId41" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
-    <hyperlink ref="CE11" r:id="rId42" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
-    <hyperlink ref="CE12" r:id="rId43" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
-    <hyperlink ref="CE13" r:id="rId44" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
-    <hyperlink ref="CE14" r:id="rId45" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
-    <hyperlink ref="CE15" r:id="rId46" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
-    <hyperlink ref="CG4" r:id="rId47" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
-    <hyperlink ref="CG5" r:id="rId48" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
-    <hyperlink ref="CG6" r:id="rId49" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
-    <hyperlink ref="CG7" r:id="rId50" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
-    <hyperlink ref="CG8" r:id="rId51" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
-    <hyperlink ref="CG9" r:id="rId52" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
-    <hyperlink ref="CG10" r:id="rId53" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
-    <hyperlink ref="CG11" r:id="rId54" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
-    <hyperlink ref="CG12" r:id="rId55" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
-    <hyperlink ref="CG13" r:id="rId56" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
-    <hyperlink ref="CG14" r:id="rId57" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
-    <hyperlink ref="CG15" r:id="rId58" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
-    <hyperlink ref="G10" r:id="rId59" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
-    <hyperlink ref="G6" r:id="rId60" xr:uid="{0DE96515-1CF3-47FB-9F75-C596CF19E46D}"/>
-    <hyperlink ref="G7" r:id="rId61" xr:uid="{984F31DC-EAA1-4F7F-9210-EE6436FAAD24}"/>
-    <hyperlink ref="G8" r:id="rId62" xr:uid="{B8E2EBA6-074C-4BA2-95F8-ED98105ED0FD}"/>
-    <hyperlink ref="G5" r:id="rId63" xr:uid="{930ED745-AC58-44F1-B9E5-A0134D5D50BA}"/>
-    <hyperlink ref="G12" r:id="rId64" xr:uid="{D269B560-3835-4460-8A2D-B24667187CFD}"/>
-    <hyperlink ref="G13" r:id="rId65" xr:uid="{D1131A9F-7DBE-4CA4-8401-6A6297CF0456}"/>
-    <hyperlink ref="AU4" r:id="rId66" xr:uid="{97E3F465-0108-4498-89B9-65B78B0857A9}"/>
-    <hyperlink ref="AZ4" r:id="rId67" xr:uid="{8E00A5EE-7509-41AE-8C4D-F3D15B7B8DAE}"/>
-    <hyperlink ref="BE4" r:id="rId68" xr:uid="{B3F7C10D-FE5F-4904-93DF-F96091AD156C}"/>
-    <hyperlink ref="BJ4" r:id="rId69" xr:uid="{5C521E3F-C590-42DA-A199-377C610F752D}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{57F7D001-D730-49B2-B6E4-3E27B3CA3C97}"/>
+    <hyperlink ref="AV4" r:id="rId2" xr:uid="{70A4AC40-E9B9-4503-BE32-C61BE27E2D0D}"/>
+    <hyperlink ref="BA4" r:id="rId3" xr:uid="{8D526777-44EA-46EE-8A17-F1240C7B54C7}"/>
+    <hyperlink ref="BF4" r:id="rId4" xr:uid="{AA842FFE-A022-4CA9-BD3D-33CF9CC4A235}"/>
+    <hyperlink ref="BK4" r:id="rId5" xr:uid="{2AA1EE9D-C183-4E11-B89E-D69D9F398C62}"/>
+    <hyperlink ref="BQ4" r:id="rId6" xr:uid="{A608FEE6-F991-499E-961C-51C8C8800592}"/>
+    <hyperlink ref="BU4" r:id="rId7" xr:uid="{41C1FD41-996B-45F7-BCB9-387998504E1F}"/>
+    <hyperlink ref="CF4" r:id="rId8" xr:uid="{566D1A7A-1C5B-4AD9-AE64-8525CDC60014}"/>
+    <hyperlink ref="CH4" r:id="rId9" xr:uid="{71DED31D-DCB9-4B79-89D7-4E925C123960}"/>
+    <hyperlink ref="CA6" r:id="rId10" xr:uid="{DE129D32-2238-4DB0-8820-0D4A37BE7C95}"/>
+    <hyperlink ref="CA7" r:id="rId11" xr:uid="{683E22A9-FD54-4891-ADB3-266F4C136648}"/>
+    <hyperlink ref="CA8" r:id="rId12" xr:uid="{31AF0502-EB06-4A68-ACEA-A1BF858140FA}"/>
+    <hyperlink ref="CA9" r:id="rId13" xr:uid="{3065C0EE-D506-442E-B925-261EFA604966}"/>
+    <hyperlink ref="CA10" r:id="rId14" xr:uid="{807AF180-15A7-48C8-A3B3-4E8B876382E4}"/>
+    <hyperlink ref="BF11" r:id="rId15" display="s@f.in" xr:uid="{ED30E3BC-AFBF-4C16-A3DC-1497213C773B}"/>
+    <hyperlink ref="BF12" r:id="rId16" xr:uid="{C52E7F19-86CD-4D32-916F-3E8C5D21C04D}"/>
+    <hyperlink ref="BA11" r:id="rId17" display="s@f.in" xr:uid="{3D2ACC8F-02F4-4949-827F-689684E6809D}"/>
+    <hyperlink ref="BA12" r:id="rId18" xr:uid="{CE2086DF-C317-4DDC-A840-898FC14402DB}"/>
+    <hyperlink ref="AV11" r:id="rId19" display="h@f.in" xr:uid="{DC809BA8-29FF-4EB9-AE3F-3E9A2776356B}"/>
+    <hyperlink ref="AV12" r:id="rId20" xr:uid="{66499FF7-59F7-42DD-B53A-B1BE31E5A262}"/>
+    <hyperlink ref="BK11" r:id="rId21" display="s@f.in" xr:uid="{516748F5-9ADA-40DE-8388-9B661B4B4C7D}"/>
+    <hyperlink ref="BK12" r:id="rId22" xr:uid="{BA1DCDA7-8EE4-4513-B93E-01A4A4BCC3D7}"/>
+    <hyperlink ref="BQ11" r:id="rId23" display="s@f.in" xr:uid="{AC0F2840-333C-4F92-97B5-2D2785E24ECD}"/>
+    <hyperlink ref="BQ12" r:id="rId24" xr:uid="{9A2FF566-26D8-4CBB-B0BC-C4BAC519E368}"/>
+    <hyperlink ref="BU11" r:id="rId25" display="s@f.in" xr:uid="{346AF39F-1816-49D4-B12B-6167B37CD578}"/>
+    <hyperlink ref="BU12" r:id="rId26" xr:uid="{C85208AD-52B2-42DD-8461-6BFFF5551B3F}"/>
+    <hyperlink ref="H5" r:id="rId27" xr:uid="{101770EE-3D16-44F0-B9CB-A1859BB95D90}"/>
+    <hyperlink ref="H12" r:id="rId28" xr:uid="{D6893231-225A-4556-82DC-F25A2DAA49A6}"/>
+    <hyperlink ref="CA4" r:id="rId29" xr:uid="{27297E50-D35B-4C32-BC56-94010668772B}"/>
+    <hyperlink ref="CA5" r:id="rId30" xr:uid="{7CD07504-CCE0-4AFE-B3D8-5A5E42B893FC}"/>
+    <hyperlink ref="CA11" r:id="rId31" xr:uid="{599142A1-418C-469E-83B7-99EE96466DFA}"/>
+    <hyperlink ref="CA12" r:id="rId32" xr:uid="{9C8B9490-0B3A-401A-90EB-1C7995A482E6}"/>
+    <hyperlink ref="CA13" r:id="rId33" xr:uid="{A36533EE-55DE-4497-90E4-E66320BFA4BF}"/>
+    <hyperlink ref="CA14" r:id="rId34" xr:uid="{A9B38F8D-6EC8-44BB-A92B-B4B8252F1733}"/>
+    <hyperlink ref="CF5" r:id="rId35" xr:uid="{ACB9ADF5-0530-40A4-87F7-7DA995AD4905}"/>
+    <hyperlink ref="CF6" r:id="rId36" xr:uid="{116B8C56-B2EE-43E6-8A06-553AACA9459A}"/>
+    <hyperlink ref="CF7" r:id="rId37" xr:uid="{3C9C0F3D-916F-4D2E-BFDB-FE83A73F7B94}"/>
+    <hyperlink ref="CF8" r:id="rId38" xr:uid="{3C35D1D9-7211-42E9-A4A5-7E62799F5CBE}"/>
+    <hyperlink ref="CF9" r:id="rId39" xr:uid="{FA154660-90AA-4609-8360-010EB747B125}"/>
+    <hyperlink ref="CF10" r:id="rId40" xr:uid="{4C5B7C9C-1633-4204-AD3B-42C98B8899F1}"/>
+    <hyperlink ref="CF11" r:id="rId41" xr:uid="{5AEE1EE9-DA28-4552-A204-28210C95DC4B}"/>
+    <hyperlink ref="CF12" r:id="rId42" xr:uid="{CDAB5E7C-B655-48F6-A1F2-2959C01662AA}"/>
+    <hyperlink ref="CF13" r:id="rId43" xr:uid="{380E5CC1-2A9A-4C43-B43B-F998598F7DF3}"/>
+    <hyperlink ref="CF14" r:id="rId44" xr:uid="{B4937B22-EF54-4EE0-95BA-BDE1D120C172}"/>
+    <hyperlink ref="CF15" r:id="rId45" xr:uid="{C04655E9-CF98-4877-9331-58ED4EBA2969}"/>
+    <hyperlink ref="CF16" r:id="rId46" xr:uid="{CF2804DF-D4DA-440C-8B0E-FA9BF9E62500}"/>
+    <hyperlink ref="CH5" r:id="rId47" display="Admin@123" xr:uid="{EFE69B72-A887-4A98-8167-1E1BAF4CF02D}"/>
+    <hyperlink ref="CH6" r:id="rId48" display="Admin@123" xr:uid="{5CADD569-C52B-4BFC-A7A7-FEF3953B9958}"/>
+    <hyperlink ref="CH7" r:id="rId49" display="Admin@123" xr:uid="{944983C3-F685-4075-96CB-D61BF3377616}"/>
+    <hyperlink ref="CH8" r:id="rId50" display="Admin@123" xr:uid="{BFF8858A-0A67-484A-9FB8-A728D6395C39}"/>
+    <hyperlink ref="CH9" r:id="rId51" display="Admin@123" xr:uid="{B215E8F7-0005-498A-8EF8-940B3BCE5F32}"/>
+    <hyperlink ref="CH10" r:id="rId52" display="Admin@123" xr:uid="{97997980-910E-43D9-AA5F-53B0999FB229}"/>
+    <hyperlink ref="CH11" r:id="rId53" display="Admin@123" xr:uid="{0D771CDD-51C0-4D88-B638-5D8E2FDA1466}"/>
+    <hyperlink ref="CH12" r:id="rId54" display="Admin@123" xr:uid="{32870B52-2721-4163-810B-5CF47996EF31}"/>
+    <hyperlink ref="CH13" r:id="rId55" display="Admin@123" xr:uid="{D56A482B-BE43-4AD1-A6BA-5867B6A29B0B}"/>
+    <hyperlink ref="CH14" r:id="rId56" display="Admin@123" xr:uid="{734C99E6-DF2F-4E16-A94B-5B42F5FC1B5C}"/>
+    <hyperlink ref="CH15" r:id="rId57" display="Admin@123" xr:uid="{77786F0D-768F-4F1D-84E4-0A347E16D616}"/>
+    <hyperlink ref="CH16" r:id="rId58" display="Admin@123" xr:uid="{8224072A-33A0-474C-9758-D2A787CFBF05}"/>
+    <hyperlink ref="H11" r:id="rId59" display="www.g.in" xr:uid="{04A0FA76-F74F-4250-9407-00D7234A79D8}"/>
+    <hyperlink ref="H7" r:id="rId60" xr:uid="{0DE96515-1CF3-47FB-9F75-C596CF19E46D}"/>
+    <hyperlink ref="H8" r:id="rId61" xr:uid="{984F31DC-EAA1-4F7F-9210-EE6436FAAD24}"/>
+    <hyperlink ref="H9" r:id="rId62" xr:uid="{B8E2EBA6-074C-4BA2-95F8-ED98105ED0FD}"/>
+    <hyperlink ref="H6" r:id="rId63" xr:uid="{930ED745-AC58-44F1-B9E5-A0134D5D50BA}"/>
+    <hyperlink ref="H13" r:id="rId64" xr:uid="{D269B560-3835-4460-8A2D-B24667187CFD}"/>
+    <hyperlink ref="H14" r:id="rId65" xr:uid="{D1131A9F-7DBE-4CA4-8401-6A6297CF0456}"/>
+    <hyperlink ref="AV5" r:id="rId66" xr:uid="{97E3F465-0108-4498-89B9-65B78B0857A9}"/>
+    <hyperlink ref="BA5" r:id="rId67" xr:uid="{8E00A5EE-7509-41AE-8C4D-F3D15B7B8DAE}"/>
+    <hyperlink ref="BF5" r:id="rId68" xr:uid="{B3F7C10D-FE5F-4904-93DF-F96091AD156C}"/>
+    <hyperlink ref="BK5" r:id="rId69" xr:uid="{5C521E3F-C590-42DA-A199-377C610F752D}"/>
+    <hyperlink ref="G4" r:id="rId70" xr:uid="{AF3A6C9B-09D1-4042-A084-5CB7EA242DF8}"/>
+    <hyperlink ref="H3" r:id="rId71" xr:uid="{8ECD3C3E-2652-421A-A4B4-2B3182F40C31}"/>
+    <hyperlink ref="AV3" r:id="rId72" xr:uid="{755D10B0-0564-4DF0-848B-8F1779675E35}"/>
+    <hyperlink ref="CF3" r:id="rId73" xr:uid="{33D4ADA2-1E3A-4535-BCF5-805CEF2629C8}"/>
+    <hyperlink ref="CH3" r:id="rId74" xr:uid="{C2B133CF-D583-4818-8D02-7B5383A3C96B}"/>
+    <hyperlink ref="CA3" r:id="rId75" xr:uid="{F761174D-BF9F-45E4-A54C-4A8C1E2FAE13}"/>
+    <hyperlink ref="G3" r:id="rId76" xr:uid="{C3C655C1-4B24-4A7E-AFD6-AC19F6211A2D}"/>
+    <hyperlink ref="BA3" r:id="rId77" xr:uid="{4FE04745-03FE-4B7B-8AE1-FF6727E7A7AF}"/>
+    <hyperlink ref="BF3" r:id="rId78" xr:uid="{34B14485-9BC9-4B4A-B0CA-76478857FBB2}"/>
+    <hyperlink ref="BK3" r:id="rId79" xr:uid="{31FF7CB2-9C79-4537-81B5-52C2C6D38DFE}"/>
+    <hyperlink ref="BQ3" r:id="rId80" xr:uid="{BA8CD7F6-F71C-496B-A7B9-444204EC204B}"/>
+    <hyperlink ref="BU3" r:id="rId81" xr:uid="{699A06C0-30E8-4312-B8C8-D27F218F85EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId70"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
 

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016B018E-CEC7-46F7-9EAE-778422F97E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DF0663-11F7-4451-96CA-42F8E0821EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="519">
   <si>
     <t>Scenario</t>
   </si>
@@ -1617,6 +1617,30 @@
   </si>
   <si>
     <t>sdsfsf@sxvf.com</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -2893,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BQ3" sqref="BQ3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3505,11 +3529,11 @@
       <c r="O3" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="179">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="179">
-        <v>3</v>
+      <c r="P3" s="185" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q3" s="185" t="s">
+        <v>511</v>
       </c>
       <c r="R3" s="179">
         <v>2022</v>
@@ -3520,11 +3544,11 @@
       <c r="T3" s="179" t="s">
         <v>406</v>
       </c>
-      <c r="U3" s="179">
-        <v>5</v>
-      </c>
-      <c r="V3" s="179">
-        <v>5</v>
+      <c r="U3" s="185" t="s">
+        <v>511</v>
+      </c>
+      <c r="V3" s="185" t="s">
+        <v>511</v>
       </c>
       <c r="W3" s="185">
         <v>2025</v>
@@ -3765,11 +3789,11 @@
       <c r="O4" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>3</v>
+      <c r="P4" s="185" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q4" s="185" t="s">
+        <v>512</v>
       </c>
       <c r="R4" s="17">
         <v>2022</v>
@@ -3780,11 +3804,11 @@
       <c r="T4" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="U4" s="17">
-        <v>5</v>
-      </c>
-      <c r="V4" s="17">
-        <v>5</v>
+      <c r="U4" s="185" t="s">
+        <v>512</v>
+      </c>
+      <c r="V4" s="185" t="s">
+        <v>512</v>
       </c>
       <c r="W4" s="18">
         <v>2025</v>
@@ -4023,11 +4047,11 @@
       <c r="O5" s="148" t="s">
         <v>81</v>
       </c>
-      <c r="P5" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>3</v>
+      <c r="P5" s="185" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q5" s="185" t="s">
+        <v>513</v>
       </c>
       <c r="R5" s="17">
         <v>2022</v>
@@ -4038,11 +4062,11 @@
       <c r="T5" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="U5" s="17">
-        <v>5</v>
-      </c>
-      <c r="V5" s="17">
-        <v>5</v>
+      <c r="U5" s="185" t="s">
+        <v>513</v>
+      </c>
+      <c r="V5" s="185" t="s">
+        <v>513</v>
       </c>
       <c r="W5" s="18">
         <v>2025</v>
@@ -4249,11 +4273,11 @@
       <c r="O6" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>3</v>
+      <c r="P6" s="185" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q6" s="185" t="s">
+        <v>514</v>
       </c>
       <c r="R6" s="17">
         <v>2022</v>
@@ -4264,11 +4288,11 @@
       <c r="T6" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="U6" s="17">
-        <v>5</v>
-      </c>
-      <c r="V6" s="17">
-        <v>5</v>
+      <c r="U6" s="185" t="s">
+        <v>514</v>
+      </c>
+      <c r="V6" s="185" t="s">
+        <v>514</v>
       </c>
       <c r="W6" s="141">
         <v>2025</v>
@@ -4507,11 +4531,11 @@
       <c r="O7" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>3</v>
+      <c r="P7" s="185" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q7" s="185" t="s">
+        <v>515</v>
       </c>
       <c r="R7" s="17">
         <v>2022</v>
@@ -4522,11 +4546,11 @@
       <c r="T7" s="141" t="s">
         <v>396</v>
       </c>
-      <c r="U7" s="17">
-        <v>5</v>
-      </c>
-      <c r="V7" s="17">
-        <v>5</v>
+      <c r="U7" s="185" t="s">
+        <v>515</v>
+      </c>
+      <c r="V7" s="185" t="s">
+        <v>515</v>
       </c>
       <c r="W7" s="141">
         <v>2025</v>
@@ -4765,11 +4789,11 @@
       <c r="O8" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="P8" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>3</v>
+      <c r="P8" s="185" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q8" s="185" t="s">
+        <v>516</v>
       </c>
       <c r="R8" s="17">
         <v>2022</v>
@@ -4780,11 +4804,11 @@
       <c r="T8" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="U8" s="17">
-        <v>5</v>
-      </c>
-      <c r="V8" s="17">
-        <v>5</v>
+      <c r="U8" s="185" t="s">
+        <v>516</v>
+      </c>
+      <c r="V8" s="185" t="s">
+        <v>516</v>
       </c>
       <c r="W8" s="141">
         <v>2025</v>
@@ -5023,11 +5047,11 @@
       <c r="O9" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="P9" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>3</v>
+      <c r="P9" s="185" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q9" s="185" t="s">
+        <v>517</v>
       </c>
       <c r="R9" s="17">
         <v>2022</v>
@@ -5038,11 +5062,11 @@
       <c r="T9" s="125" t="s">
         <v>400</v>
       </c>
-      <c r="U9" s="17">
-        <v>5</v>
-      </c>
-      <c r="V9" s="17">
-        <v>5</v>
+      <c r="U9" s="185" t="s">
+        <v>517</v>
+      </c>
+      <c r="V9" s="185" t="s">
+        <v>517</v>
       </c>
       <c r="W9" s="141">
         <v>2025</v>
@@ -5281,11 +5305,11 @@
       <c r="O10" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="P10" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>3</v>
+      <c r="P10" s="185" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q10" s="185" t="s">
+        <v>355</v>
       </c>
       <c r="R10" s="17">
         <v>2022</v>
@@ -5296,11 +5320,11 @@
       <c r="T10" s="125" t="s">
         <v>392</v>
       </c>
-      <c r="U10" s="17">
-        <v>5</v>
-      </c>
-      <c r="V10" s="17">
-        <v>5</v>
+      <c r="U10" s="185" t="s">
+        <v>355</v>
+      </c>
+      <c r="V10" s="185" t="s">
+        <v>355</v>
       </c>
       <c r="W10" s="141">
         <v>2025</v>
@@ -5539,11 +5563,11 @@
       <c r="O11" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>3</v>
+      <c r="P11" s="185" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q11" s="185" t="s">
+        <v>356</v>
       </c>
       <c r="R11" s="17">
         <v>2022</v>
@@ -5554,11 +5578,11 @@
       <c r="T11" s="108" t="s">
         <v>436</v>
       </c>
-      <c r="U11" s="17">
-        <v>5</v>
-      </c>
-      <c r="V11" s="17">
-        <v>5</v>
+      <c r="U11" s="185" t="s">
+        <v>356</v>
+      </c>
+      <c r="V11" s="185" t="s">
+        <v>356</v>
       </c>
       <c r="W11" s="108">
         <v>2025</v>
@@ -5797,11 +5821,11 @@
       <c r="O12" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>3</v>
+      <c r="P12" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q12" s="185" t="s">
+        <v>357</v>
       </c>
       <c r="R12" s="17">
         <v>2022</v>
@@ -5812,11 +5836,11 @@
       <c r="T12" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="U12" s="17">
-        <v>5</v>
-      </c>
-      <c r="V12" s="17">
-        <v>5</v>
+      <c r="U12" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="V12" s="185" t="s">
+        <v>357</v>
       </c>
       <c r="W12" s="108">
         <v>2025</v>
@@ -6055,11 +6079,11 @@
       <c r="O13" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>3</v>
+      <c r="P13" s="185" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q13" s="185" t="s">
+        <v>358</v>
       </c>
       <c r="R13" s="17">
         <v>2022</v>
@@ -6070,11 +6094,11 @@
       <c r="T13" s="108" t="s">
         <v>434</v>
       </c>
-      <c r="U13" s="17">
-        <v>5</v>
-      </c>
-      <c r="V13" s="17">
-        <v>5</v>
+      <c r="U13" s="185" t="s">
+        <v>358</v>
+      </c>
+      <c r="V13" s="185" t="s">
+        <v>358</v>
       </c>
       <c r="W13" s="108">
         <v>2025</v>
@@ -6313,11 +6337,11 @@
       <c r="O14" s="149" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="17">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>3</v>
+      <c r="P14" s="185" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q14" s="185" t="s">
+        <v>518</v>
       </c>
       <c r="R14" s="17">
         <v>2022</v>
@@ -6328,11 +6352,11 @@
       <c r="T14" s="108" t="s">
         <v>435</v>
       </c>
-      <c r="U14" s="17">
-        <v>5</v>
-      </c>
-      <c r="V14" s="17">
-        <v>5</v>
+      <c r="U14" s="185" t="s">
+        <v>518</v>
+      </c>
+      <c r="V14" s="185" t="s">
+        <v>518</v>
       </c>
       <c r="W14" s="108">
         <v>2025</v>
@@ -8575,7 +8599,7 @@
   <dimension ref="A1:BQ21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A24" sqref="A24:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9281,7 +9305,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A4" sqref="A4:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9405,11 +9429,11 @@
       <c r="F3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="58" t="s">
-        <v>100</v>
+      <c r="G3" s="58">
+        <v>20</v>
+      </c>
+      <c r="H3" s="58">
+        <v>6</v>
       </c>
       <c r="I3" s="58" t="s">
         <v>346</v>
@@ -9433,7 +9457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="45">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="61" t="s">
         <v>95</v>
       </c>
@@ -9621,7 +9645,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="62" t="s">
         <v>93</v>
       </c>

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DF0663-11F7-4451-96CA-42F8E0821EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7D1E6E-2386-43C4-B7CC-B722D8CE4846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="520">
   <si>
     <t>Scenario</t>
   </si>
@@ -1641,6 +1641,9 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>78945644</t>
   </si>
 </sst>
 </file>
@@ -2917,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V14"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+      <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2948,7 +2951,7 @@
     <col min="28" max="28" width="17.42578125" customWidth="1"/>
     <col min="29" max="29" width="18.5703125" customWidth="1"/>
     <col min="30" max="30" width="13.28515625" customWidth="1"/>
-    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="31" max="31" width="22.7109375" customWidth="1"/>
     <col min="32" max="32" width="19" customWidth="1"/>
     <col min="33" max="33" width="31.85546875" customWidth="1"/>
     <col min="34" max="34" width="13.7109375" customWidth="1"/>
@@ -2977,7 +2980,7 @@
     <col min="59" max="59" width="14.7109375" customWidth="1"/>
     <col min="60" max="60" width="18.7109375" customWidth="1"/>
     <col min="61" max="61" width="11.85546875" customWidth="1"/>
-    <col min="62" max="62" width="11" customWidth="1"/>
+    <col min="62" max="62" width="12.5703125" customWidth="1"/>
     <col min="63" max="63" width="21.85546875" customWidth="1"/>
     <col min="64" max="64" width="14.140625" customWidth="1"/>
     <col min="65" max="65" width="18.7109375" customWidth="1"/>
@@ -3668,7 +3671,7 @@
         <v>475</v>
       </c>
       <c r="BJ3" s="185" t="s">
-        <v>240</v>
+        <v>519</v>
       </c>
       <c r="BK3" s="184" t="s">
         <v>509</v>
@@ -3927,8 +3930,8 @@
       <c r="BI4" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="BJ4" s="136" t="s">
-        <v>240</v>
+      <c r="BJ4" s="185" t="s">
+        <v>519</v>
       </c>
       <c r="BK4" s="138" t="s">
         <v>503</v>
@@ -4169,8 +4172,8 @@
       <c r="BI5" s="137" t="s">
         <v>475</v>
       </c>
-      <c r="BJ5" s="136" t="s">
-        <v>240</v>
+      <c r="BJ5" s="185" t="s">
+        <v>519</v>
       </c>
       <c r="BK5" s="138" t="s">
         <v>503</v>
@@ -9457,7 +9460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row r="4" spans="1:15" ht="45">
       <c r="A4" s="61" t="s">
         <v>95</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row r="8" spans="1:15" ht="45">
       <c r="A8" s="62" t="s">
         <v>93</v>
       </c>

--- a/Test Data/excelDataProviderKYCPage.xlsx
+++ b/Test Data/excelDataProviderKYCPage.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\eclipse-workspace\AdamJayKyc\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD7D1E6E-2386-43C4-B7CC-B722D8CE4846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DB64CF-1D6D-43BC-B1E8-5C8AE83B7B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KYC" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="507">
   <si>
     <t>Scenario</t>
   </si>
@@ -1105,21 +1105,6 @@
     <t>TrExpDate YYYY</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
@@ -1138,15 +1123,6 @@
     <t>2026</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -1157,21 +1133,6 @@
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>2027</t>
@@ -2920,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5B3CD-6823-4148-A128-4C48985E2BFD}">
   <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+    <sheetView topLeftCell="BB1" workbookViewId="0">
       <selection activeCell="BJ19" sqref="BJ19"/>
     </sheetView>
   </sheetViews>
@@ -3023,10 +2984,10 @@
       </c>
       <c r="G1" s="54"/>
       <c r="H1" s="54" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="J1" s="54" t="s">
         <v>64</v>
@@ -3122,7 +3083,7 @@
         <v>171</v>
       </c>
       <c r="AS1" s="54" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AT1" s="54" t="s">
         <v>75</v>
@@ -3131,7 +3092,7 @@
         <v>64</v>
       </c>
       <c r="AV1" s="54" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="AW1" s="54" t="s">
         <v>171</v>
@@ -3250,7 +3211,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
@@ -3426,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="BO2" s="145" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="BP2" s="145" t="s">
         <v>28</v>
@@ -3438,7 +3399,7 @@
         <v>25</v>
       </c>
       <c r="BS2" s="145" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="BT2" s="145" t="s">
         <v>28</v>
@@ -3506,13 +3467,13 @@
         <v>68</v>
       </c>
       <c r="G3" s="180" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H3" s="184" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="I3" s="179" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="J3" s="185" t="s">
         <v>45</v>
@@ -3533,31 +3494,31 @@
         <v>81</v>
       </c>
       <c r="P3" s="185" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="Q3" s="185" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="R3" s="179">
         <v>2022</v>
       </c>
       <c r="S3" s="179" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="T3" s="179" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="U3" s="185" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="V3" s="185" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="W3" s="185">
         <v>2025</v>
       </c>
       <c r="X3" s="187" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="Y3" s="179" t="s">
         <v>34</v>
@@ -3575,7 +3536,7 @@
         <v>235</v>
       </c>
       <c r="AD3" s="190" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="185" t="s">
         <v>246</v>
@@ -3587,10 +3548,10 @@
         <v>258</v>
       </c>
       <c r="AH3" s="191" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI3" s="185" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="AJ3" s="179" t="s">
         <v>42</v>
@@ -3608,7 +3569,7 @@
         <v>138</v>
       </c>
       <c r="AO3" s="179" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AP3" s="179">
         <v>20</v>
@@ -3617,22 +3578,22 @@
         <v>140</v>
       </c>
       <c r="AR3" s="179" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="AS3" s="179" t="s">
         <v>237</v>
       </c>
       <c r="AT3" s="182" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU3" s="185" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="AV3" s="184" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="AW3" s="179" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AX3" s="179" t="s">
         <v>164</v>
@@ -3644,10 +3605,10 @@
         <v>238</v>
       </c>
       <c r="BA3" s="184" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="BB3" s="179" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="BC3" s="179" t="s">
         <v>36</v>
@@ -3659,22 +3620,22 @@
         <v>239</v>
       </c>
       <c r="BF3" s="184" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="BG3" s="179" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="BH3" s="179" t="s">
         <v>37</v>
       </c>
       <c r="BI3" s="182" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ3" s="185" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="BK3" s="184" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="BL3" s="179" t="s">
         <v>38</v>
@@ -3683,55 +3644,55 @@
         <v>262</v>
       </c>
       <c r="BN3" s="179" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="BO3" s="182" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP3" s="185" t="s">
         <v>243</v>
       </c>
       <c r="BQ3" s="184" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="BR3" s="179" t="s">
         <v>264</v>
       </c>
       <c r="BS3" s="182" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT3" s="185" t="s">
         <v>244</v>
       </c>
       <c r="BU3" s="184" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="BV3" s="192" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW3" s="192" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX3" s="192" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY3" s="192" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ3" s="192" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA3" s="184" t="s">
         <v>247</v>
       </c>
       <c r="CB3" s="184" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC3" s="184" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD3" s="184" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE3" s="179" t="s">
         <v>264</v>
@@ -3766,13 +3727,13 @@
         <v>68</v>
       </c>
       <c r="G4" s="151" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="H4" s="154" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="I4" s="125" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="J4" s="141" t="s">
         <v>45</v>
@@ -3793,31 +3754,31 @@
         <v>81</v>
       </c>
       <c r="P4" s="185" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="185" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="R4" s="17">
         <v>2022</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="U4" s="185" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="V4" s="185" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="W4" s="18">
         <v>2025</v>
       </c>
       <c r="X4" s="164" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="Y4" s="108" t="s">
         <v>34</v>
@@ -3835,7 +3796,7 @@
         <v>235</v>
       </c>
       <c r="AD4" s="163" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE4" s="136" t="s">
         <v>246</v>
@@ -3847,10 +3808,10 @@
         <v>258</v>
       </c>
       <c r="AH4" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI4" s="136" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="AJ4" s="108" t="s">
         <v>42</v>
@@ -3868,7 +3829,7 @@
         <v>138</v>
       </c>
       <c r="AO4" s="9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="AP4" s="9">
         <v>20</v>
@@ -3877,22 +3838,22 @@
         <v>140</v>
       </c>
       <c r="AR4" s="108" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="AS4" s="108" t="s">
         <v>237</v>
       </c>
       <c r="AT4" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU4" s="136" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="AV4" s="138" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AW4" s="108" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AX4" s="108" t="s">
         <v>164</v>
@@ -3904,10 +3865,10 @@
         <v>238</v>
       </c>
       <c r="BA4" s="138" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="BB4" s="108" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="BC4" s="108" t="s">
         <v>36</v>
@@ -3919,22 +3880,22 @@
         <v>239</v>
       </c>
       <c r="BF4" s="138" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="BG4" s="108" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="BH4" s="108" t="s">
         <v>37</v>
       </c>
       <c r="BI4" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ4" s="185" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="BK4" s="138" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="BL4" s="108" t="s">
         <v>38</v>
@@ -3943,55 +3904,55 @@
         <v>262</v>
       </c>
       <c r="BN4" s="9" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="BO4" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP4" s="7" t="s">
         <v>243</v>
       </c>
       <c r="BQ4" s="49" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="BR4" s="9" t="s">
         <v>264</v>
       </c>
       <c r="BS4" s="96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT4" s="7" t="s">
         <v>244</v>
       </c>
       <c r="BU4" s="49" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="BV4" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW4" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX4" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY4" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ4" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA4" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB4" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC4" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD4" s="154" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE4" s="125" t="s">
         <v>264</v>
@@ -4008,7 +3969,7 @@
     </row>
     <row r="5" spans="1:86" ht="15.75">
       <c r="A5" s="13" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B5" s="151" t="s">
         <v>146</v>
@@ -4030,7 +3991,7 @@
         <v>213</v>
       </c>
       <c r="I5" s="125" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="J5" s="141" t="s">
         <v>45</v>
@@ -4051,25 +4012,25 @@
         <v>81</v>
       </c>
       <c r="P5" s="185" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="185" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="R5" s="17">
         <v>2022</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="U5" s="185" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="V5" s="185" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="W5" s="18">
         <v>2025</v>
@@ -4091,7 +4052,7 @@
         <v>235</v>
       </c>
       <c r="AD5" s="163" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE5" s="136" t="s">
         <v>246</v>
@@ -4101,7 +4062,7 @@
       </c>
       <c r="AG5" s="108"/>
       <c r="AH5" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI5" s="136"/>
       <c r="AJ5" s="108"/>
@@ -4119,22 +4080,22 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="142"/>
       <c r="AR5" s="108" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="AS5" s="108" t="s">
         <v>237</v>
       </c>
       <c r="AT5" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU5" s="136" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="AV5" s="138" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="AW5" s="108" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AX5" s="108" t="s">
         <v>164</v>
@@ -4146,10 +4107,10 @@
         <v>238</v>
       </c>
       <c r="BA5" s="138" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="BB5" s="108" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="BC5" s="108" t="s">
         <v>36</v>
@@ -4161,22 +4122,22 @@
         <v>239</v>
       </c>
       <c r="BF5" s="138" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="BG5" s="108" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="BH5" s="108" t="s">
         <v>37</v>
       </c>
       <c r="BI5" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ5" s="185" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="BK5" s="138" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="BL5" s="108" t="s">
         <v>38</v>
@@ -4186,27 +4147,27 @@
       </c>
       <c r="BN5" s="9"/>
       <c r="BO5" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP5" s="7"/>
       <c r="BQ5" s="49"/>
       <c r="BR5" s="9"/>
       <c r="BS5" s="96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT5" s="7"/>
       <c r="BU5" s="49"/>
       <c r="BV5" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW5" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX5" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY5" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ5" s="177"/>
       <c r="CA5" s="49" t="s">
@@ -4214,10 +4175,10 @@
       </c>
       <c r="CB5" s="154"/>
       <c r="CC5" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD5" s="154" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE5" s="125" t="s">
         <v>264</v>
@@ -4229,256 +4190,256 @@
         <v>255</v>
       </c>
       <c r="CH5" s="129" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:86" ht="15.75">
       <c r="A6" s="13" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E6" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="49" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K6" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L6" s="125" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M6" s="139" t="s">
         <v>49</v>
       </c>
       <c r="N6" s="125" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="O6" s="140" t="s">
         <v>81</v>
       </c>
       <c r="P6" s="185" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="185" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="R6" s="17">
         <v>2022</v>
       </c>
       <c r="S6" s="125" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="T6" s="125" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="U6" s="185" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="V6" s="185" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="W6" s="141">
         <v>2025</v>
       </c>
       <c r="X6" s="165" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="Y6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="Z6" s="168" t="s">
         <v>81</v>
       </c>
       <c r="AA6" s="157" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AB6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AC6" s="157" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AD6" s="169" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AF6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AG6" s="157" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AH6" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AJ6" s="157" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AK6" s="157" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AL6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AM6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AN6" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AO6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AP6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AQ6" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AT6" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AY6" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BB6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BC6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BD6" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BE6" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="BF6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BG6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BH6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BI6" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ6" s="9" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="BK6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BL6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BM6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BN6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BO6" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP6" s="17" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="BQ6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BR6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BS6" s="96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT6" s="17" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="BU6" s="17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="BV6" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW6" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX6" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY6" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ6" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA6" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB6" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC6" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD6" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE6" s="9" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="CF6" s="129" t="s">
         <v>254</v>
@@ -4487,7 +4448,7 @@
         <v>255</v>
       </c>
       <c r="CH6" s="129" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:86" ht="15.75">
@@ -4511,58 +4472,58 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K7" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="141" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="M7" s="139" t="s">
         <v>49</v>
       </c>
       <c r="N7" s="141" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="O7" s="140" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="185" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="Q7" s="185" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="R7" s="17">
         <v>2022</v>
       </c>
       <c r="S7" s="141" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="T7" s="141" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="U7" s="185" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="V7" s="185" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="W7" s="141">
         <v>2025</v>
       </c>
       <c r="X7" s="166" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="Y7" s="170" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="Z7" s="168" t="s">
         <v>81</v>
@@ -4571,34 +4532,34 @@
         <v>225</v>
       </c>
       <c r="AB7" s="170" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AC7" s="170" t="s">
         <v>225</v>
       </c>
       <c r="AD7" s="169" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE7" s="170" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AF7" s="170" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AG7" s="170" t="s">
         <v>225</v>
       </c>
       <c r="AH7" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI7" s="170" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AJ7" s="170" t="s">
         <v>225</v>
       </c>
       <c r="AK7" s="170" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="AL7" s="18" t="s">
         <v>225</v>
@@ -4622,10 +4583,10 @@
         <v>225</v>
       </c>
       <c r="AS7" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AT7" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU7" s="7" t="s">
         <v>225</v>
@@ -4637,7 +4598,7 @@
         <v>225</v>
       </c>
       <c r="AX7" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AY7" s="96" t="s">
         <v>58</v>
@@ -4652,7 +4613,7 @@
         <v>225</v>
       </c>
       <c r="BC7" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="BD7" s="96" t="s">
         <v>60</v>
@@ -4667,10 +4628,10 @@
         <v>225</v>
       </c>
       <c r="BH7" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="BI7" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ7" s="7" t="s">
         <v>225</v>
@@ -4682,61 +4643,61 @@
         <v>225</v>
       </c>
       <c r="BM7" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="BN7" s="18" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="BO7" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP7" s="18" t="s">
         <v>225</v>
       </c>
       <c r="BQ7" s="18" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="BR7" s="18" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="BS7" s="96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT7" s="18" t="s">
         <v>225</v>
       </c>
       <c r="BU7" s="18" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="BV7" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW7" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX7" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY7" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ7" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA7" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB7" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC7" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD7" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE7" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="CF7" s="129" t="s">
         <v>254</v>
@@ -4745,7 +4706,7 @@
         <v>255</v>
       </c>
       <c r="CH7" s="129" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:86" ht="15.75">
@@ -4753,248 +4714,248 @@
         <v>188</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E8" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="49" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K8" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L8" s="125" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="M8" s="139" t="s">
         <v>49</v>
       </c>
       <c r="N8" s="125" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="O8" s="140" t="s">
         <v>81</v>
       </c>
       <c r="P8" s="185" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="Q8" s="185" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="R8" s="17">
         <v>2022</v>
       </c>
       <c r="S8" s="125" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="T8" s="125" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="U8" s="185" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="V8" s="185" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="W8" s="141">
         <v>2025</v>
       </c>
       <c r="X8" s="165" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="Y8" s="157" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Z8" s="168" t="s">
         <v>81</v>
       </c>
       <c r="AA8" s="157" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AB8" s="157" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AC8" s="157" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AD8" s="169" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE8" s="157" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AF8" s="157" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AG8" s="157" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AH8" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI8" s="157" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AJ8" s="157" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AK8" s="157" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AL8" s="17" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AM8" s="17" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AN8" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AO8" s="17" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AP8" s="17" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AQ8" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AT8" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="AY8" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BC8" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="BD8" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BE8" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="BF8" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BG8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BH8" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="BI8" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ8" s="9" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="BK8" s="9" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BL8" s="9" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="BM8" s="9" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="BN8" s="17" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="BO8" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP8" s="17" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="BQ8" s="17" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="BR8" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="BS8" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="BT8" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="BS8" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BT8" s="17" t="s">
-        <v>403</v>
-      </c>
       <c r="BU8" s="17" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="BV8" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW8" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX8" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY8" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ8" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA8" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB8" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC8" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD8" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE8" s="9" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="CF8" s="129" t="s">
         <v>254</v>
@@ -5003,7 +4964,7 @@
         <v>255</v>
       </c>
       <c r="CH8" s="129" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:86" ht="15.75">
@@ -5011,248 +4972,248 @@
         <v>182</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E9" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="49" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="K9" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L9" s="125" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M9" s="139" t="s">
         <v>49</v>
       </c>
       <c r="N9" s="125" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="O9" s="140" t="s">
         <v>81</v>
       </c>
       <c r="P9" s="185" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="Q9" s="185" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="R9" s="17">
         <v>2022</v>
       </c>
       <c r="S9" s="125" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="T9" s="125" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="U9" s="185" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="V9" s="185" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="W9" s="141">
         <v>2025</v>
       </c>
       <c r="X9" s="165" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Y9" s="157" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="Z9" s="168" t="s">
         <v>81</v>
       </c>
       <c r="AA9" s="157" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AB9" s="157" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC9" s="157" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD9" s="169" t="s">
         <v>400</v>
       </c>
-      <c r="AC9" s="157" t="s">
-        <v>391</v>
-      </c>
-      <c r="AD9" s="169" t="s">
-        <v>413</v>
-      </c>
       <c r="AE9" s="157" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AF9" s="157" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AG9" s="157" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AH9" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI9" s="157" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AJ9" s="157" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AK9" s="157" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="AL9" s="17" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AM9" s="17" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AN9" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AO9" s="17" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AP9" s="17" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AQ9" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AR9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AS9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT9" s="137" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="AS9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AT9" s="137" t="s">
-        <v>474</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>404</v>
-      </c>
       <c r="AV9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AY9" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AZ9" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="BC9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="BD9" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BE9" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="BF9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BI9" s="137" t="s">
+        <v>462</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="BG9" s="9" t="s">
+      <c r="BK9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BN9" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="BO9" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="BP9" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="BH9" s="9" t="s">
+      <c r="BQ9" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR9" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS9" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="BT9" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="BI9" s="137" t="s">
-        <v>475</v>
-      </c>
-      <c r="BJ9" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="BK9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BL9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BM9" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BN9" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BO9" s="96" t="s">
-        <v>476</v>
-      </c>
-      <c r="BP9" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="BQ9" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BR9" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="BS9" s="96" t="s">
-        <v>477</v>
-      </c>
-      <c r="BT9" s="17" t="s">
-        <v>404</v>
-      </c>
       <c r="BU9" s="17" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="BV9" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW9" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX9" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY9" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ9" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA9" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB9" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC9" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD9" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE9" s="9" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="CF9" s="129" t="s">
         <v>254</v>
@@ -5261,256 +5222,256 @@
         <v>255</v>
       </c>
       <c r="CH9" s="129" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:86" ht="15.75">
       <c r="A10" s="13" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E10" s="96" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="49" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="K10" s="139" t="s">
         <v>49</v>
       </c>
       <c r="L10" s="125" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M10" s="139" t="s">
         <v>49</v>
       </c>
       <c r="N10" s="125" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="O10" s="140" t="s">
         <v>81</v>
       </c>
       <c r="P10" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="R10" s="17">
         <v>2022</v>
       </c>
       <c r="S10" s="125" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="U10" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="V10" s="185" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="W10" s="141">
         <v>2025</v>
       </c>
       <c r="X10" s="165" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="Y10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="Z10" s="168" t="s">
         <v>81</v>
       </c>
       <c r="AA10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AB10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AC10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AD10" s="169" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AF10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AG10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AH10" s="41" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="AI10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AJ10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AK10" s="157" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AL10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AM10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AN10" s="171" t="s">
         <v>138</v>
       </c>
       <c r="AO10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AP10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AQ10" s="171" t="s">
         <v>140</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AT10" s="137" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AW10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AY10" s="96" t="s">
         <v>58</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BA10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BC10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BD10" s="96" t="s">
         <v>60</v>
       </c>
       <c r="BE10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BF10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BG10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BH10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BI10" s="137" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="BJ10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BK10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BL10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BM10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BN10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BO10" s="96" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="BP10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BQ10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BR10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BS10" s="96" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BT10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BU10" s="17" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="BV10" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW10" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX10" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY10" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ10" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA10" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB10" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC10" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD10" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE10" s="9" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="CF10" s="129" t="s">
         <v>254</v>
@@ -5519,7 +5480,7 @@
         <v>255</v>
       </c>
       <c r="CH10" s="129" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:86" ht="15.75">
@@ -5527,13 +5488,13 @@
         <v>203</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>81</v>
@@ -5543,10 +5504,10 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="19" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="J11" s="17">
         <v>0</v>
@@ -5555,70 +5516,70 @@
         <v>49</v>
       </c>
       <c r="L11" s="108" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="M11" s="137" t="s">
         <v>49</v>
       </c>
       <c r="N11" s="108" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="O11" s="149" t="s">
         <v>81</v>
       </c>
       <c r="P11" s="185" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="185" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="R11" s="17">
         <v>2022</v>
       </c>
       <c r="S11" s="108" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="T11" s="108" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="U11" s="185" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="V11" s="185" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="W11" s="108">
         <v>2025</v>
       </c>
       <c r="X11" s="108" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="Z11" s="171" t="s">
         <v>81</v>
       </c>
       <c r="AA11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AC11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AD11" s="172" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE11" s="17" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="AF11" s="17" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="AG11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AH11" s="148" t="s">
         <v>81</v>
@@ -5627,13 +5588,13 @@
         <v>123456789</v>
       </c>
       <c r="AJ11" s="17" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AK11" s="17" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="AL11" s="108" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AM11" s="108">
         <v>0</v>
@@ -5642,7 +5603,7 @@
         <v>138</v>
       </c>
       <c r="AO11" s="108" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AP11" s="108">
         <v>0</v>
@@ -5651,10 +5612,10 @@
         <v>140</v>
       </c>
       <c r="AR11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AS11" s="146" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AT11" s="175" t="s">
         <v>81</v>
@@ -5663,13 +5624,13 @@
         <v>123456789</v>
       </c>
       <c r="AV11" s="176" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="AW11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AX11" s="146" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AY11" s="175" t="s">
         <v>81</v>
@@ -5678,13 +5639,13 @@
         <v>123456789</v>
       </c>
       <c r="BA11" s="176" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="BB11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BC11" s="146" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="BD11" s="175" t="s">
         <v>81</v>
@@ -5693,13 +5654,13 @@
         <v>123456789</v>
       </c>
       <c r="BF11" s="176" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="BG11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BH11" s="146" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="BI11" s="175" t="s">
         <v>81</v>
@@ -5708,16 +5669,16 @@
         <v>123456789</v>
       </c>
       <c r="BK11" s="176" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="BL11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BM11" s="146" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BN11" s="125" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BO11" s="140" t="s">
         <v>81</v>
@@ -5726,10 +5687,10 @@
         <v>123456789</v>
       </c>
       <c r="BQ11" s="151" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="BR11" s="125" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="BS11" s="140" t="s">
         <v>81</v>
@@ -5738,37 +5699,37 @@
         <v>123456789</v>
       </c>
       <c r="BU11" s="151" t="s">
+        <v>426</v>
+      </c>
+      <c r="BV11" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="BW11" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="BX11" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="BY11" s="178" t="s">
+        <v>438</v>
+      </c>
+      <c r="BZ11" s="178" t="s">
         <v>439</v>
-      </c>
-      <c r="BV11" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BW11" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX11" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BY11" s="178" t="s">
-        <v>451</v>
-      </c>
-      <c r="BZ11" s="178" t="s">
-        <v>452</v>
       </c>
       <c r="CA11" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB11" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC11" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD11" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE11" s="17" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="CF11" s="129" t="s">
         <v>254</v>
@@ -5777,7 +5738,7 @@
         <v>255</v>
       </c>
       <c r="CH11" s="129" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:86" ht="15.75">
@@ -5785,13 +5746,13 @@
         <v>201</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="E12" s="148" t="s">
         <v>81</v>
@@ -5801,10 +5762,10 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="19" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="J12" s="17">
         <v>1</v>
@@ -5813,70 +5774,70 @@
         <v>49</v>
       </c>
       <c r="L12" s="108" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="M12" s="137" t="s">
         <v>49</v>
       </c>
       <c r="N12" s="108" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="O12" s="149" t="s">
         <v>81</v>
       </c>
       <c r="P12" s="185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="R12" s="17">
         <v>2022</v>
       </c>
       <c r="S12" s="108" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="T12" s="108" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="U12" s="185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="V12" s="185" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="W12" s="108">
         <v>2025</v>
       </c>
       <c r="X12" s="108" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Z12" s="171" t="s">
         <v>81</v>
       </c>
       <c r="AA12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="AC12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AD12" s="172" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE12" s="17" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AF12" s="17" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="AG12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AH12" s="148" t="s">
         <v>81</v>
@@ -5885,13 +5846,13 @@
         <v>1234567810</v>
       </c>
       <c r="AJ12" s="17" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AK12" s="17" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="AL12" s="108" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AM12" s="108">
         <v>0.01</v>
@@ -5900,7 +5861,7 @@
         <v>138</v>
       </c>
       <c r="AO12" s="108" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AP12" s="108">
         <v>0.01</v>
@@ -5909,10 +5870,10 @@
         <v>140</v>
       </c>
       <c r="AR12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AS12" s="146" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AT12" s="175" t="s">
         <v>81</v>
@@ -5921,13 +5882,13 @@
         <v>1234567810</v>
       </c>
       <c r="AV12" s="135" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="AW12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AX12" s="146" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AY12" s="175" t="s">
         <v>81</v>
@@ -5936,13 +5897,13 @@
         <v>1234567810</v>
       </c>
       <c r="BA12" s="135" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="BB12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BC12" s="146" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="BD12" s="175" t="s">
         <v>81</v>
@@ -5951,13 +5912,13 @@
         <v>1234567810</v>
       </c>
       <c r="BF12" s="135" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="BG12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BH12" s="146" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="BI12" s="175" t="s">
         <v>81</v>
@@ -5966,16 +5927,16 @@
         <v>1234567810</v>
       </c>
       <c r="BK12" s="135" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="BL12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BM12" s="146" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BN12" s="125" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BO12" s="140" t="s">
         <v>81</v>
@@ -5984,10 +5945,10 @@
         <v>1234567810</v>
       </c>
       <c r="BQ12" s="154" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="BR12" s="125" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="BS12" s="140" t="s">
         <v>81</v>
@@ -5996,37 +5957,37 @@
         <v>1234567810</v>
       </c>
       <c r="BU12" s="154" t="s">
+        <v>425</v>
+      </c>
+      <c r="BV12" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="BW12" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="BX12" s="177" t="s">
+        <v>437</v>
+      </c>
+      <c r="BY12" s="178" t="s">
         <v>438</v>
       </c>
-      <c r="BV12" s="177" t="s">
-        <v>448</v>
-      </c>
-      <c r="BW12" s="177" t="s">
-        <v>449</v>
-      </c>
-      <c r="BX12" s="177" t="s">
-        <v>450</v>
-      </c>
-      <c r="BY12" s="178" t="s">
-        <v>451</v>
-      </c>
       <c r="BZ12" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA12" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB12" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC12" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD12" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE12" s="17" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="CF12" s="129" t="s">
         <v>254</v>
@@ -6035,7 +5996,7 @@
         <v>255</v>
       </c>
       <c r="CH12" s="129" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:86" ht="15.75">
@@ -6043,13 +6004,13 @@
         <v>202</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>81</v>
@@ -6059,10 +6020,10 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="19" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="J13" s="17">
         <v>3000000</v>
@@ -6071,70 +6032,70 @@
         <v>49</v>
       </c>
       <c r="L13" s="108" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="M13" s="137" t="s">
         <v>49</v>
       </c>
       <c r="N13" s="108" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="O13" s="149" t="s">
         <v>81</v>
       </c>
       <c r="P13" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="R13" s="17">
         <v>2022</v>
       </c>
       <c r="S13" s="108" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="T13" s="108" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="U13" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="V13" s="185" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="W13" s="108">
         <v>2025</v>
       </c>
       <c r="X13" s="108" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z13" s="171" t="s">
         <v>81</v>
       </c>
       <c r="AA13" s="17" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AD13" s="172" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE13" s="17" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AF13" s="17" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="AG13" s="17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AH13" s="148" t="s">
         <v>81</v>
@@ -6143,13 +6104,13 @@
         <v>1234567810</v>
       </c>
       <c r="AJ13" s="17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AK13" s="17" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AL13" s="108" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AM13" s="108">
         <v>100</v>
@@ -6158,7 +6119,7 @@
         <v>138</v>
       </c>
       <c r="AO13" s="108" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AP13" s="108">
         <v>100</v>
@@ -6167,10 +6128,10 @@
         <v>140</v>
       </c>
       <c r="AR13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AS13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AT13" s="175" t="s">
         <v>81</v>
@@ -6179,13 +6140,13 @@
         <v>1234567810</v>
       </c>
       <c r="AV13" s="146" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="AW13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AX13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AY13" s="175" t="s">
         <v>81</v>
@@ -6194,13 +6155,13 @@
         <v>1234567810</v>
       </c>
       <c r="BA13" s="146" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="BB13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BC13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BD13" s="175" t="s">
         <v>81</v>
@@ -6209,13 +6170,13 @@
         <v>1234567810</v>
       </c>
       <c r="BF13" s="146" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="BG13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BH13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BI13" s="175" t="s">
         <v>81</v>
@@ -6224,16 +6185,16 @@
         <v>1234567810</v>
       </c>
       <c r="BK13" s="146" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="BL13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BM13" s="146" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BN13" s="125" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BO13" s="140" t="s">
         <v>81</v>
@@ -6242,10 +6203,10 @@
         <v>1234567810</v>
       </c>
       <c r="BQ13" s="125" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="BR13" s="125" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="BS13" s="140" t="s">
         <v>81</v>
@@ -6254,37 +6215,37 @@
         <v>1234567810</v>
       </c>
       <c r="BU13" s="125" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="BV13" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW13" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX13" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY13" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ13" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA13" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB13" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC13" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD13" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE13" s="17" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="CF13" s="129" t="s">
         <v>254</v>
@@ -6293,21 +6254,21 @@
         <v>255</v>
       </c>
       <c r="CH13" s="129" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="15.75">
       <c r="A14" s="159" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E14" s="148" t="s">
         <v>81</v>
@@ -6317,10 +6278,10 @@
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="19" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J14" s="17">
         <v>3000001</v>
@@ -6329,70 +6290,70 @@
         <v>49</v>
       </c>
       <c r="L14" s="108" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="M14" s="137" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="108" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="O14" s="149" t="s">
         <v>81</v>
       </c>
       <c r="P14" s="185" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q14" s="185" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="R14" s="17">
         <v>2022</v>
       </c>
       <c r="S14" s="108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="T14" s="108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="U14" s="185" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="V14" s="185" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="W14" s="108">
         <v>2025</v>
       </c>
       <c r="X14" s="108" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="Z14" s="171" t="s">
         <v>81</v>
       </c>
       <c r="AA14" s="17" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="AB14" s="17" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AD14" s="172" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE14" s="17" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="AF14" s="17" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="AG14" s="17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AH14" s="148" t="s">
         <v>81</v>
@@ -6401,13 +6362,13 @@
         <v>12345678911</v>
       </c>
       <c r="AJ14" s="17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AK14" s="17" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="AL14" s="108" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AM14" s="108">
         <v>100.01</v>
@@ -6416,7 +6377,7 @@
         <v>138</v>
       </c>
       <c r="AO14" s="108" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AP14" s="108">
         <v>100.01</v>
@@ -6425,10 +6386,10 @@
         <v>140</v>
       </c>
       <c r="AR14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AS14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AT14" s="175" t="s">
         <v>81</v>
@@ -6437,13 +6398,13 @@
         <v>12345678911</v>
       </c>
       <c r="AV14" s="146" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="AW14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AX14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AY14" s="175" t="s">
         <v>81</v>
@@ -6452,13 +6413,13 @@
         <v>12345678911</v>
       </c>
       <c r="BA14" s="146" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="BB14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BC14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BD14" s="175" t="s">
         <v>81</v>
@@ -6467,13 +6428,13 @@
         <v>12345678911</v>
       </c>
       <c r="BF14" s="146" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="BG14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BH14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BI14" s="175" t="s">
         <v>81</v>
@@ -6482,16 +6443,16 @@
         <v>12345678911</v>
       </c>
       <c r="BK14" s="146" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="BL14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BM14" s="146" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BN14" s="125" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BO14" s="140" t="s">
         <v>81</v>
@@ -6500,10 +6461,10 @@
         <v>12345678911</v>
       </c>
       <c r="BQ14" s="125" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="BR14" s="125" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="BS14" s="140" t="s">
         <v>81</v>
@@ -6512,37 +6473,37 @@
         <v>12345678911</v>
       </c>
       <c r="BU14" s="125" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="BV14" s="177" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="BW14" s="177" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="BX14" s="177" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="BY14" s="178" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="BZ14" s="178" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="CA14" s="49" t="s">
         <v>247</v>
       </c>
       <c r="CB14" s="49" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="CC14" s="49" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="CD14" s="49" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="CE14" s="17" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="CF14" s="129" t="s">
         <v>254</v>
@@ -6551,12 +6512,12 @@
         <v>255</v>
       </c>
       <c r="CH14" s="129" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:86">
       <c r="A15" s="159" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -6599,7 +6560,7 @@
       <c r="AB15" s="125"/>
       <c r="AC15" s="125"/>
       <c r="AD15" s="174" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE15" s="125"/>
       <c r="AF15" s="125"/>
@@ -6669,12 +6630,12 @@
         <v>255</v>
       </c>
       <c r="CH15" s="129" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:86">
       <c r="A16" s="13" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B16" s="108"/>
       <c r="C16" s="108"/>
@@ -6717,7 +6678,7 @@
       <c r="AB16" s="125"/>
       <c r="AC16" s="125"/>
       <c r="AD16" s="174" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AE16" s="125"/>
       <c r="AF16" s="125"/>
@@ -6787,7 +6748,7 @@
         <v>255</v>
       </c>
       <c r="CH16" s="129" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -9307,8 +9268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD3B9BB-39C0-4E5D-9656-FC2FAC8FA6CB}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9435,11 +9396,11 @@
       <c r="G3" s="58">
         <v>20</v>
       </c>
-      <c r="H3" s="58">
-        <v>6</v>
+      <c r="H3" s="58" t="s">
+        <v>501</v>
       </c>
       <c r="I3" s="58" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>46</v>
@@ -9447,14 +9408,14 @@
       <c r="K3" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="58" t="s">
-        <v>352</v>
+      <c r="L3" s="58">
+        <v>20</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>353</v>
+        <v>501</v>
       </c>
       <c r="N3" s="58" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O3" s="55" t="s">
         <v>44</v>
@@ -9479,32 +9440,32 @@
       <c r="F4" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>100</v>
+      <c r="G4" s="58">
+        <v>20</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>341</v>
+        <v>502</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="L4" s="58" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="L4" s="58">
+        <v>20</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>354</v>
+        <v>502</v>
       </c>
       <c r="N4" s="58" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O4" s="55" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -9526,32 +9487,32 @@
       <c r="F5" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>341</v>
+      <c r="G5" s="58">
+        <v>20</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>342</v>
+        <v>503</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J5" s="55" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="L5" s="58" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="L5" s="58">
+        <v>20</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>355</v>
+        <v>503</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="O5" s="55" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -9573,32 +9534,32 @@
       <c r="F6" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>342</v>
+      <c r="G6" s="58">
+        <v>20</v>
       </c>
       <c r="H6" s="58" t="s">
-        <v>343</v>
+        <v>504</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="K6" s="58" t="s">
-        <v>375</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="L6" s="58">
+        <v>20</v>
       </c>
       <c r="M6" s="58" t="s">
-        <v>356</v>
+        <v>504</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -9620,32 +9581,32 @@
       <c r="F7" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="58" t="s">
-        <v>343</v>
+      <c r="G7" s="58">
+        <v>20</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="L7" s="58">
+        <v>20</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="N7" s="58" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="O7" s="55" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="45">
@@ -9667,32 +9628,32 @@
       <c r="F8" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>344</v>
+      <c r="G8" s="58">
+        <v>20</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J8" s="55" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="K8" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="L8" s="58">
+        <v>20</v>
       </c>
       <c r="M8" s="58" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="N8" s="58" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
